--- a/example/result/ans.xlsx
+++ b/example/result/ans.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4252882" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="102025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="feature0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="规划" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,22 +483,22 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>地源热泵产热</t>
+          <t>地制热</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>空气源热泵产热</t>
+          <t>空气产热</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>地源热泵制冷</t>
+          <t>地制冷</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>空气源热泵制冷</t>
+          <t>空气制冷</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -506,7 +508,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>吸收式制冷机</t>
+          <t>吸收制冷</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -554,37 +556,37 @@
         <v>2354.392</v>
       </c>
       <c r="E2" t="n">
-        <v>348.4535806158427</v>
+        <v>236.0260867461483</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9295861936795</v>
+        <v>20.77930942604654</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6710.90514622343</v>
       </c>
       <c r="H2" t="n">
-        <v>336.6260154977105</v>
+        <v>47.55090611633836</v>
       </c>
       <c r="I2" t="n">
-        <v>1377.72184299404</v>
+        <v>548.0841343851797</v>
       </c>
       <c r="J2" t="n">
-        <v>650.5384281149192</v>
+        <v>198.3789732096388</v>
       </c>
       <c r="K2" t="n">
-        <v>5.639979303207014</v>
+        <v>20.12548631937911</v>
       </c>
       <c r="L2" t="n">
-        <v>250.5276965513773</v>
+        <v>29.57456113143623</v>
       </c>
       <c r="M2" t="n">
-        <v>3.080421043666283</v>
+        <v>0.4672550488964744</v>
       </c>
       <c r="N2" t="n">
-        <v>694.1834611422852</v>
+        <v>759.4856713092106</v>
       </c>
       <c r="O2" t="n">
-        <v>17.70859018844214</v>
+        <v>910.653228973071</v>
       </c>
       <c r="P2" t="n">
         <v>6666.666666666667</v>
@@ -599,10 +601,10 @@
         <v>666.6666666666666</v>
       </c>
       <c r="T2" t="n">
-        <v>612.0937520962223</v>
+        <v>9011.214965624053</v>
       </c>
       <c r="U2" t="n">
-        <v>-5841.56404608255</v>
+        <v>5082.428582330198</v>
       </c>
     </row>
     <row r="3">
@@ -619,55 +621,55 @@
         <v>2588.2798</v>
       </c>
       <c r="E3" t="n">
-        <v>336.062018192226</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>80.1944098644108</v>
+        <v>93.35591699418582</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>152.7500034097417</v>
+        <v>426.6385284379591</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>842.4019023807848</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49666940726005</v>
+        <v>5.493281561953254</v>
       </c>
       <c r="K3" t="n">
-        <v>197.8085517942763</v>
+        <v>35.18315963479938</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9211697337771378</v>
+        <v>0.677685544423886</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3399193262192</v>
+        <v>4.571957369467757</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.277679707254</v>
+        <v>240.4252429741538</v>
       </c>
       <c r="O3" t="n">
-        <v>680.0687484789415</v>
+        <v>222.2636212860421</v>
       </c>
       <c r="P3" t="n">
-        <v>10556.59454075479</v>
+        <v>5270.637814370058</v>
       </c>
       <c r="Q3" t="n">
-        <v>12237.47743612165</v>
+        <v>9503.582091193084</v>
       </c>
       <c r="R3" t="n">
-        <v>2022.167010566774</v>
+        <v>2178.152277203097</v>
       </c>
       <c r="S3" t="n">
-        <v>372.9336218604982</v>
+        <v>2778.719757943868</v>
       </c>
       <c r="T3" t="n">
-        <v>251.8769952270365</v>
+        <v>-5.043417823109166</v>
       </c>
       <c r="U3" t="n">
-        <v>-45.79433095858963</v>
+        <v>-908.1020151458463</v>
       </c>
     </row>
     <row r="4">
@@ -684,55 +686,55 @@
         <v>2730.55</v>
       </c>
       <c r="E4" t="n">
-        <v>37.51419221806296</v>
+        <v>811.5888864797511</v>
       </c>
       <c r="F4" t="n">
-        <v>103.6353199030893</v>
+        <v>20.43820235454081</v>
       </c>
       <c r="G4" t="n">
-        <v>4076.370954762783</v>
+        <v>2529.346394471225</v>
       </c>
       <c r="H4" t="n">
-        <v>452.5626899571226</v>
+        <v>24.57439300888588</v>
       </c>
       <c r="I4" t="n">
-        <v>1769.610930794987</v>
+        <v>550.8468769321966</v>
       </c>
       <c r="J4" t="n">
-        <v>122.1713769098759</v>
+        <v>220.6114202919378</v>
       </c>
       <c r="K4" t="n">
-        <v>74.43364074133952</v>
+        <v>105.2642146361321</v>
       </c>
       <c r="L4" t="n">
-        <v>42.70143581536893</v>
+        <v>92.91482666923675</v>
       </c>
       <c r="M4" t="n">
-        <v>1.71525831911356</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1940.089715837769</v>
+        <v>667.4423096720279</v>
       </c>
       <c r="O4" t="n">
-        <v>233.3168292330625</v>
+        <v>36.00726188616956</v>
       </c>
       <c r="P4" t="n">
-        <v>15111.6019361191</v>
+        <v>4596.915159234699</v>
       </c>
       <c r="Q4" t="n">
-        <v>14307.62685514034</v>
+        <v>9907.190772921858</v>
       </c>
       <c r="R4" t="n">
-        <v>4761.770249114024</v>
+        <v>573.2981781164804</v>
       </c>
       <c r="S4" t="n">
-        <v>462.433221446059</v>
+        <v>2301.074532155527</v>
       </c>
       <c r="T4" t="n">
-        <v>7623.814787192108</v>
+        <v>2701.093377269484</v>
       </c>
       <c r="U4" t="n">
-        <v>1031.174542819298</v>
+        <v>539.0578464084176</v>
       </c>
     </row>
     <row r="5">
@@ -749,55 +751,55 @@
         <v>2933.0834</v>
       </c>
       <c r="E5" t="n">
-        <v>22.5174313110687</v>
+        <v>622.9038965985101</v>
       </c>
       <c r="F5" t="n">
-        <v>61.71944192667232</v>
+        <v>231.5805205279545</v>
       </c>
       <c r="G5" t="n">
-        <v>3240.008416704424</v>
+        <v>9600.766413600142</v>
       </c>
       <c r="H5" t="n">
-        <v>282.4729787283289</v>
+        <v>8.161750341720701</v>
       </c>
       <c r="I5" t="n">
-        <v>7.823218108374253</v>
+        <v>983.5629774333221</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>320.0918438286392</v>
       </c>
       <c r="K5" t="n">
-        <v>87.9660181600983</v>
+        <v>30.94248070672717</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>7.073193134305933</v>
+        <v>12.8940084769613</v>
       </c>
       <c r="N5" t="n">
-        <v>708.6460625038191</v>
+        <v>694.4840826505291</v>
       </c>
       <c r="O5" t="n">
-        <v>2510.781185009535</v>
+        <v>1513.923571228887</v>
       </c>
       <c r="P5" t="n">
-        <v>21190.91338327883</v>
+        <v>4731.716069556851</v>
       </c>
       <c r="Q5" t="n">
-        <v>22452.30377292336</v>
+        <v>11900.73093523867</v>
       </c>
       <c r="R5" t="n">
-        <v>9513.760084751511</v>
+        <v>905.5307257039676</v>
       </c>
       <c r="S5" t="n">
-        <v>3368.544603726705</v>
+        <v>2416.479607530878</v>
       </c>
       <c r="T5" t="n">
-        <v>10823.15133278784</v>
+        <v>9357.695143809633</v>
       </c>
       <c r="U5" t="n">
-        <v>12676.47998072829</v>
+        <v>7020.475413397413</v>
       </c>
     </row>
     <row r="6">
@@ -814,55 +816,55 @@
         <v>3568.7488</v>
       </c>
       <c r="E6" t="n">
-        <v>426.7931680377051</v>
+        <v>111.7998399271436</v>
       </c>
       <c r="F6" t="n">
-        <v>2.700909747728548</v>
+        <v>115.8339734633176</v>
       </c>
       <c r="G6" t="n">
-        <v>1031.461617379751</v>
+        <v>2025.023780475837</v>
       </c>
       <c r="H6" t="n">
-        <v>109.1396821044103</v>
+        <v>230.7470678344987</v>
       </c>
       <c r="I6" t="n">
-        <v>257.2564143557915</v>
+        <v>919.5763829359253</v>
       </c>
       <c r="J6" t="n">
-        <v>199.8927495278385</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>36.68699132828124</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>53.9951043578936</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8000931718405367</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1375.755555510649</v>
       </c>
       <c r="O6" t="n">
-        <v>1165.99545195242</v>
+        <v>953.1776744242959</v>
       </c>
       <c r="P6" t="n">
-        <v>28003.57363114072</v>
+        <v>3840</v>
       </c>
       <c r="Q6" t="n">
-        <v>22663.35070824171</v>
+        <v>15911.64257961724</v>
       </c>
       <c r="R6" t="n">
-        <v>11552.63461265057</v>
+        <v>2112.622849485717</v>
       </c>
       <c r="S6" t="n">
-        <v>10201.1392337719</v>
+        <v>2130.503558896719</v>
       </c>
       <c r="T6" t="n">
-        <v>3390.232228442011</v>
+        <v>820.7936178620253</v>
       </c>
       <c r="U6" t="n">
-        <v>22048.55698700199</v>
+        <v>-2647.433503605043</v>
       </c>
     </row>
     <row r="7">
@@ -879,55 +881,55 @@
         <v>3466.6552</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>39.0146165404626</v>
       </c>
       <c r="F7" t="n">
-        <v>91.36517361553251</v>
+        <v>25.09999652850463</v>
       </c>
       <c r="G7" t="n">
-        <v>6459.074606706871</v>
+        <v>3702.704613015943</v>
       </c>
       <c r="H7" t="n">
-        <v>247.7317775436271</v>
+        <v>372.9507743738473</v>
       </c>
       <c r="I7" t="n">
-        <v>174.9198202329635</v>
+        <v>556.8641805378462</v>
       </c>
       <c r="J7" t="n">
-        <v>141.1356117247278</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>39.49924830781615</v>
+        <v>78.08463787283203</v>
       </c>
       <c r="L7" t="n">
-        <v>16.61117668225175</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.982120082401719</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>294.9755371319869</v>
+        <v>1073.65140355258</v>
       </c>
       <c r="O7" t="n">
-        <v>855.4111939903681</v>
+        <v>428.6260255223341</v>
       </c>
       <c r="P7" t="n">
-        <v>31854.62889381431</v>
+        <v>5321.064346105614</v>
       </c>
       <c r="Q7" t="n">
-        <v>20106.99816391705</v>
+        <v>15897.256716723</v>
       </c>
       <c r="R7" t="n">
-        <v>8978.318810656414</v>
+        <v>4632.453585881724</v>
       </c>
       <c r="S7" t="n">
-        <v>7754.77561020442</v>
+        <v>613.8011989458282</v>
       </c>
       <c r="T7" t="n">
-        <v>13373.95997187937</v>
+        <v>12759.89025945906</v>
       </c>
       <c r="U7" t="n">
-        <v>29230.14662336241</v>
+        <v>1946.82528270433</v>
       </c>
     </row>
     <row r="8">
@@ -944,55 +946,55 @@
         <v>3485.9122</v>
       </c>
       <c r="E8" t="n">
-        <v>210.5934033778419</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>96.21955442274327</v>
+        <v>107.6166601315423</v>
       </c>
       <c r="G8" t="n">
-        <v>2431.001576585385</v>
+        <v>9740.62797867174</v>
       </c>
       <c r="H8" t="n">
-        <v>207.6483633037571</v>
+        <v>11.37312107131186</v>
       </c>
       <c r="I8" t="n">
-        <v>1069.163871591779</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.139637835394926</v>
+        <v>131.2715232993141</v>
       </c>
       <c r="K8" t="n">
-        <v>147.088706458733</v>
+        <v>58.16306309349451</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3540593710728029</v>
+        <v>1.283038677881938</v>
       </c>
       <c r="M8" t="n">
-        <v>2.679664509883664</v>
+        <v>2.438452618430011</v>
       </c>
       <c r="N8" t="n">
-        <v>530.7083912364882</v>
+        <v>507.9021606464581</v>
       </c>
       <c r="O8" t="n">
-        <v>1299.179612023375</v>
+        <v>229.2826364645072</v>
       </c>
       <c r="P8" t="n">
-        <v>35694.62889381431</v>
+        <v>4111.937750910261</v>
       </c>
       <c r="Q8" t="n">
-        <v>20784.75820365207</v>
+        <v>16950.3976530708</v>
       </c>
       <c r="R8" t="n">
-        <v>7355.257368082288</v>
+        <v>5691.916316987643</v>
       </c>
       <c r="S8" t="n">
-        <v>729.352010152289</v>
+        <v>8775.186084137518</v>
       </c>
       <c r="T8" t="n">
-        <v>3156.133447531079</v>
+        <v>2909.817189841795</v>
       </c>
       <c r="U8" t="n">
-        <v>28055.28310968209</v>
+        <v>5135.087303284074</v>
       </c>
     </row>
     <row r="9">
@@ -1009,55 +1011,55 @@
         <v>3619.0633</v>
       </c>
       <c r="E9" t="n">
-        <v>623.266781785689</v>
+        <v>398.8583644136583</v>
       </c>
       <c r="F9" t="n">
-        <v>7.261573245001772</v>
+        <v>87.6404862282721</v>
       </c>
       <c r="G9" t="n">
-        <v>7316.432334572882</v>
+        <v>2288.673605567951</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5206419498798</v>
+        <v>3.295470846564989</v>
       </c>
       <c r="I9" t="n">
-        <v>309.0077908600323</v>
+        <v>199.8238433633088</v>
       </c>
       <c r="J9" t="n">
-        <v>698.6809619001679</v>
+        <v>151.511054536842</v>
       </c>
       <c r="K9" t="n">
-        <v>84.36004951154915</v>
+        <v>129.6172092204508</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.16273530875836</v>
       </c>
       <c r="M9" t="n">
-        <v>6.502241132036384</v>
+        <v>4.70923719526123</v>
       </c>
       <c r="N9" t="n">
-        <v>1542.707191854619</v>
+        <v>847.842620490262</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>74.94548975255574</v>
       </c>
       <c r="P9" t="n">
-        <v>39984.72663795548</v>
+        <v>5669.883815692055</v>
       </c>
       <c r="Q9" t="n">
-        <v>20746.65323247654</v>
+        <v>20229.48322527915</v>
       </c>
       <c r="R9" t="n">
-        <v>7216.343697037645</v>
+        <v>4254.330862847532</v>
       </c>
       <c r="S9" t="n">
-        <v>182.786203139695</v>
+        <v>1557.158359293779</v>
       </c>
       <c r="T9" t="n">
-        <v>14804.18431876009</v>
+        <v>3879.730801149356</v>
       </c>
       <c r="U9" t="n">
-        <v>30217.64677059042</v>
+        <v>2112.377089917924</v>
       </c>
     </row>
     <row r="10">
@@ -1074,55 +1076,55 @@
         <v>3731.1507</v>
       </c>
       <c r="E10" t="n">
-        <v>118.2854988710805</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>29.99719482767699</v>
+        <v>100.1414905081876</v>
       </c>
       <c r="G10" t="n">
-        <v>11.19763819564411</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>55.27284558832465</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1092.992779032954</v>
+        <v>55.69017824281664</v>
       </c>
       <c r="J10" t="n">
-        <v>471.958642928376</v>
+        <v>232.8220653202183</v>
       </c>
       <c r="K10" t="n">
-        <v>59.89655981422164</v>
+        <v>20.81643171502363</v>
       </c>
       <c r="L10" t="n">
-        <v>51.87608609289439</v>
+        <v>25.02129850454391</v>
       </c>
       <c r="M10" t="n">
-        <v>1.638033008985073</v>
+        <v>0.02225247355697995</v>
       </c>
       <c r="N10" t="n">
-        <v>2934.421995705888</v>
+        <v>1974.794593530327</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>73.24652284763044</v>
       </c>
       <c r="P10" t="n">
-        <v>43884.66647230916</v>
+        <v>3889.661081065743</v>
       </c>
       <c r="Q10" t="n">
-        <v>28655.90350347068</v>
+        <v>20902.63280458719</v>
       </c>
       <c r="R10" t="n">
-        <v>9400.033421348673</v>
+        <v>4098.657251973159</v>
       </c>
       <c r="S10" t="n">
-        <v>7118.303918482506</v>
+        <v>3034.876677813957</v>
       </c>
       <c r="T10" t="n">
-        <v>692.0631931857118</v>
+        <v>-48.89979275079888</v>
       </c>
       <c r="U10" t="n">
-        <v>20393.73345827423</v>
+        <v>-4076.746026853666</v>
       </c>
     </row>
     <row r="11">
@@ -1142,52 +1144,52 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16.81770201817139</v>
+        <v>40.99237683635357</v>
       </c>
       <c r="G11" t="n">
-        <v>1199.678395530184</v>
+        <v>1435.933034481287</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>759.5721246878076</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>815.4834919479428</v>
+        <v>71.70551504769139</v>
       </c>
       <c r="K11" t="n">
-        <v>37.70998738595916</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.023180661087486</v>
+        <v>8.877569211195622</v>
       </c>
       <c r="M11" t="n">
-        <v>5.833572125518459</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>647.0570954385122</v>
+        <v>240.6710486952827</v>
       </c>
       <c r="O11" t="n">
-        <v>1193.880389623444</v>
+        <v>1413.316570414492</v>
       </c>
       <c r="P11" t="n">
-        <v>49376.46861749471</v>
+        <v>4971.403914011847</v>
       </c>
       <c r="Q11" t="n">
-        <v>37487.47859252073</v>
+        <v>20680.74387818072</v>
       </c>
       <c r="R11" t="n">
-        <v>16555.24474565783</v>
+        <v>7886.909688513802</v>
       </c>
       <c r="S11" t="n">
-        <v>6395.187424236917</v>
+        <v>2953.56917964288</v>
       </c>
       <c r="T11" t="n">
-        <v>2399.356791060368</v>
+        <v>96.73964947771515</v>
       </c>
       <c r="U11" t="n">
-        <v>35005.65605239067</v>
+        <v>-828.9236412264231</v>
       </c>
     </row>
     <row r="12">
@@ -1204,55 +1206,55 @@
         <v>3749.8442</v>
       </c>
       <c r="E12" t="n">
-        <v>51.32032355596196</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>42.23408118722792</v>
+        <v>82.85161921147109</v>
       </c>
       <c r="G12" t="n">
-        <v>137.803405922071</v>
+        <v>1890.441866374186</v>
       </c>
       <c r="H12" t="n">
-        <v>79.64004680263393</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1311.857255309502</v>
+        <v>1410.463958873944</v>
       </c>
       <c r="J12" t="n">
-        <v>76.68917236675163</v>
+        <v>100.0865203485564</v>
       </c>
       <c r="K12" t="n">
-        <v>6.130466880198591</v>
+        <v>19.89670249383446</v>
       </c>
       <c r="L12" t="n">
-        <v>18.74386624060046</v>
+        <v>0.5966174626390585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.942467180013814</v>
       </c>
       <c r="N12" t="n">
-        <v>650.0631562197017</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.044124565784354</v>
+        <v>193.0041001893315</v>
       </c>
       <c r="P12" t="n">
-        <v>54321.31412748035</v>
+        <v>5894.067266451377</v>
       </c>
       <c r="Q12" t="n">
-        <v>39260.50197638162</v>
+        <v>18970.22208496177</v>
       </c>
       <c r="R12" t="n">
-        <v>16430.97203878</v>
+        <v>6270.835670861487</v>
       </c>
       <c r="S12" t="n">
-        <v>5081.044379915725</v>
+        <v>1528.453012947993</v>
       </c>
       <c r="T12" t="n">
-        <v>581.60160542408</v>
+        <v>3374.77869385591</v>
       </c>
       <c r="U12" t="n">
-        <v>43165.51283889083</v>
+        <v>1057.23703884225</v>
       </c>
     </row>
     <row r="13">
@@ -1269,55 +1271,55 @@
         <v>3609.9121</v>
       </c>
       <c r="E13" t="n">
-        <v>71.20814701772704</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.518675396744936</v>
+        <v>14.66502037091738</v>
       </c>
       <c r="G13" t="n">
-        <v>8.037364350120612</v>
+        <v>19811.52788732462</v>
       </c>
       <c r="H13" t="n">
-        <v>15.65891964733587</v>
+        <v>100.6820214157185</v>
       </c>
       <c r="I13" t="n">
-        <v>511.2360228568736</v>
+        <v>1097.048393508383</v>
       </c>
       <c r="J13" t="n">
-        <v>214.2248680413649</v>
+        <v>74.02308856121276</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>103.1819587098631</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>139.0360759702087</v>
       </c>
       <c r="N13" t="n">
-        <v>616.2456403128438</v>
+        <v>977.5655510448795</v>
       </c>
       <c r="O13" t="n">
-        <v>611.9818978318233</v>
+        <v>4063.84200132862</v>
       </c>
       <c r="P13" t="n">
-        <v>58191.80458065982</v>
+        <v>4237.64106061098</v>
       </c>
       <c r="Q13" t="n">
-        <v>37677.67393664192</v>
+        <v>20064.49034413405</v>
       </c>
       <c r="R13" t="n">
-        <v>15055.21409214587</v>
+        <v>2175.265334549427</v>
       </c>
       <c r="S13" t="n">
-        <v>4650.742808566692</v>
+        <v>2909.187269065074</v>
       </c>
       <c r="T13" t="n">
-        <v>47.39256799491297</v>
+        <v>17654.42432352859</v>
       </c>
       <c r="U13" t="n">
-        <v>44420.07389975862</v>
+        <v>9976.808055245237</v>
       </c>
     </row>
     <row r="14">
@@ -1334,55 +1336,55 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>478.9809659573418</v>
+        <v>539.3937550078161</v>
       </c>
       <c r="F14" t="n">
-        <v>57.58952535315984</v>
+        <v>102.9520156132701</v>
       </c>
       <c r="G14" t="n">
-        <v>6449.992622898103</v>
+        <v>9971.735476678834</v>
       </c>
       <c r="H14" t="n">
-        <v>111.2886852733398</v>
+        <v>236.695798048668</v>
       </c>
       <c r="I14" t="n">
-        <v>756.2210514367458</v>
+        <v>1510.847018549053</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>248.5809175450149</v>
       </c>
       <c r="K14" t="n">
-        <v>3.653665178219836</v>
+        <v>7.502309200404405</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>101.7280471437403</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.047362692184759</v>
       </c>
       <c r="N14" t="n">
-        <v>1745.602642269539</v>
+        <v>150.9314728052208</v>
       </c>
       <c r="O14" t="n">
-        <v>662.6992141269409</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>64719.59483891386</v>
+        <v>7384.924418141783</v>
       </c>
       <c r="Q14" t="n">
-        <v>35869.20714390778</v>
+        <v>24596.22109152754</v>
       </c>
       <c r="R14" t="n">
-        <v>14299.03963200077</v>
+        <v>6214.234878387906</v>
       </c>
       <c r="S14" t="n">
-        <v>4579.541358209992</v>
+        <v>527.2451549432277</v>
       </c>
       <c r="T14" t="n">
-        <v>10911.46490547025</v>
+        <v>10726.08128363416</v>
       </c>
       <c r="U14" t="n">
-        <v>53706.51847964284</v>
+        <v>6707.701070110479</v>
       </c>
     </row>
     <row r="15">
@@ -1399,55 +1401,55 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>106.226401609089</v>
+        <v>49.02215027494165</v>
       </c>
       <c r="F15" t="n">
-        <v>48.41469267934771</v>
+        <v>132.641301849926</v>
       </c>
       <c r="G15" t="n">
-        <v>399.1546667262726</v>
+        <v>15.11567647236287</v>
       </c>
       <c r="H15" t="n">
-        <v>282.7241705037607</v>
+        <v>36.52872090186655</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>904.1000279214983</v>
       </c>
       <c r="J15" t="n">
-        <v>228.6415609388387</v>
+        <v>747.5539221278443</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.71706303213507</v>
       </c>
       <c r="L15" t="n">
-        <v>18.06303038900155</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.5638723508653999</v>
       </c>
       <c r="N15" t="n">
-        <v>221.2329362277965</v>
+        <v>571.0220577084353</v>
       </c>
       <c r="O15" t="n">
-        <v>7.132464583920691</v>
+        <v>566.1328512548281</v>
       </c>
       <c r="P15" t="n">
-        <v>70318.55601750386</v>
+        <v>6874.566280878937</v>
       </c>
       <c r="Q15" t="n">
-        <v>43274.71245426034</v>
+        <v>29599.69241774105</v>
       </c>
       <c r="R15" t="n">
-        <v>20883.74584490125</v>
+        <v>7078.921334923387</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3967221796628746</v>
+        <v>1008.822536770506</v>
       </c>
       <c r="T15" t="n">
-        <v>5249.493433168987</v>
+        <v>71.63488861828205</v>
       </c>
       <c r="U15" t="n">
-        <v>61034.46080098292</v>
+        <v>-856.7088397529773</v>
       </c>
     </row>
     <row r="16">
@@ -1464,55 +1466,55 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>94.46428520468351</v>
+        <v>20.12295619728645</v>
       </c>
       <c r="F16" t="n">
-        <v>41.32441015528425</v>
+        <v>93.35092104254034</v>
       </c>
       <c r="G16" t="n">
-        <v>33.87242974779345</v>
+        <v>2869.573716553582</v>
       </c>
       <c r="H16" t="n">
-        <v>22.53931255140709</v>
+        <v>32.98227744828881</v>
       </c>
       <c r="I16" t="n">
-        <v>376.2326242871437</v>
+        <v>421.4777666873942</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>445.1372903118008</v>
       </c>
       <c r="K16" t="n">
-        <v>123.0308245229151</v>
+        <v>78.12356720722666</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>164.6749305165769</v>
       </c>
       <c r="M16" t="n">
-        <v>29.38755335277891</v>
+        <v>32.37411839317243</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>50.1273706340926</v>
       </c>
       <c r="O16" t="n">
-        <v>1039.515893880713</v>
+        <v>1721.821841541367</v>
       </c>
       <c r="P16" t="n">
-        <v>74158.55601750386</v>
+        <v>5028.691530486686</v>
       </c>
       <c r="Q16" t="n">
-        <v>43025.98481359696</v>
+        <v>31445.85033110343</v>
       </c>
       <c r="R16" t="n">
-        <v>21529.86494447415</v>
+        <v>9517.219847615865</v>
       </c>
       <c r="S16" t="n">
-        <v>4296.234282438452</v>
+        <v>1017.535368417833</v>
       </c>
       <c r="T16" t="n">
-        <v>405.1574997478372</v>
+        <v>6076.062238315156</v>
       </c>
       <c r="U16" t="n">
-        <v>59990.6784146045</v>
+        <v>-4362.850366605891</v>
       </c>
     </row>
     <row r="17">
@@ -1529,55 +1531,55 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>504.7307064210398</v>
+        <v>157.613446828585</v>
       </c>
       <c r="F17" t="n">
-        <v>81.18303098201643</v>
+        <v>100.52236231831</v>
       </c>
       <c r="G17" t="n">
-        <v>1191.915473540568</v>
+        <v>2861.827464493227</v>
       </c>
       <c r="H17" t="n">
-        <v>35.70422641550921</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1319.71301585968</v>
+        <v>1515.690586268367</v>
       </c>
       <c r="J17" t="n">
-        <v>22.52496950209115</v>
+        <v>243.9615293220854</v>
       </c>
       <c r="K17" t="n">
-        <v>34.83746869065452</v>
+        <v>87.18905355627015</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5616031531418079</v>
+        <v>226.2908636683623</v>
       </c>
       <c r="M17" t="n">
-        <v>12.10826136463266</v>
+        <v>8.101013112334574</v>
       </c>
       <c r="N17" t="n">
-        <v>184.0076075880406</v>
+        <v>219.5932182428305</v>
       </c>
       <c r="O17" t="n">
-        <v>1222.865309804581</v>
+        <v>994.5359896319285</v>
       </c>
       <c r="P17" t="n">
-        <v>83886.17308539651</v>
+        <v>9690.779660236672</v>
       </c>
       <c r="Q17" t="n">
-        <v>41027.54236926968</v>
+        <v>31641.21430761137</v>
       </c>
       <c r="R17" t="n">
-        <v>22275.89016615523</v>
+        <v>11802.60114882309</v>
       </c>
       <c r="S17" t="n">
-        <v>3889.842150272857</v>
+        <v>3992.042637510299</v>
       </c>
       <c r="T17" t="n">
-        <v>2543.391923771011</v>
+        <v>122.0356415533452</v>
       </c>
       <c r="U17" t="n">
-        <v>74408.37730676963</v>
+        <v>3490.744666769025</v>
       </c>
     </row>
     <row r="18">
@@ -1594,55 +1596,55 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>566.636173671261</v>
+        <v>471.3830844193546</v>
       </c>
       <c r="F18" t="n">
-        <v>131.0034798439669</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8714.394434633512</v>
+        <v>1198.33670605368</v>
       </c>
       <c r="H18" t="n">
-        <v>166.0377234262923</v>
+        <v>334.9835574741318</v>
       </c>
       <c r="I18" t="n">
-        <v>2605.483764774643</v>
+        <v>705.5413584683504</v>
       </c>
       <c r="J18" t="n">
-        <v>321.2319541934136</v>
+        <v>232.3911579131549</v>
       </c>
       <c r="K18" t="n">
-        <v>42.38482630271882</v>
+        <v>92.43527127648065</v>
       </c>
       <c r="L18" t="n">
-        <v>48.74642283259379</v>
+        <v>9.588952223201465</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1245203777161521</v>
+        <v>8.686844258442699</v>
       </c>
       <c r="N18" t="n">
-        <v>731.6671474892</v>
+        <v>13.81897573751945</v>
       </c>
       <c r="O18" t="n">
-        <v>79.29302668510806</v>
+        <v>553.1842618380952</v>
       </c>
       <c r="P18" t="n">
-        <v>88253.07458249878</v>
+        <v>5793.915638866699</v>
       </c>
       <c r="Q18" t="n">
-        <v>41054.16542779815</v>
+        <v>32489.93348201487</v>
       </c>
       <c r="R18" t="n">
-        <v>23798.31352924216</v>
+        <v>14221.76516531955</v>
       </c>
       <c r="S18" t="n">
-        <v>2479.770569215619</v>
+        <v>1096.970732492583</v>
       </c>
       <c r="T18" t="n">
-        <v>11658.45760660744</v>
+        <v>7281.459091550321</v>
       </c>
       <c r="U18" t="n">
-        <v>78471.7010477694</v>
+        <v>308.9648130568357</v>
       </c>
     </row>
     <row r="19">
@@ -1659,60 +1661,60 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>54.50591660870695</v>
+        <v>232.3607715050861</v>
       </c>
       <c r="F19" t="n">
-        <v>10.09838979275647</v>
+        <v>7.104223235484515</v>
       </c>
       <c r="G19" t="n">
-        <v>3394.040148357804</v>
+        <v>842.0095012258664</v>
       </c>
       <c r="H19" t="n">
-        <v>19.7253363107276</v>
+        <v>301.5291074089901</v>
       </c>
       <c r="I19" t="n">
-        <v>654.2415503960474</v>
+        <v>560.1286736167988</v>
       </c>
       <c r="J19" t="n">
-        <v>18.52014819930241</v>
+        <v>245.7580569867571</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1306165409438634</v>
+        <v>199.6365475216101</v>
       </c>
       <c r="L19" t="n">
-        <v>4.580033764260345</v>
+        <v>1.523496100560249</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005169244605439353</v>
+        <v>1.391925038264183</v>
       </c>
       <c r="N19" t="n">
-        <v>734.3876400560265</v>
+        <v>35.67034991093097</v>
       </c>
       <c r="O19" t="n">
-        <v>583.7202958129153</v>
+        <v>141.1354420366869</v>
       </c>
       <c r="P19" t="n">
-        <v>94051.87998277986</v>
+        <v>5454.330982164164</v>
       </c>
       <c r="Q19" t="n">
-        <v>49125.78102978975</v>
+        <v>32586.99694207208</v>
       </c>
       <c r="R19" t="n">
-        <v>26394.52000608072</v>
+        <v>14665.88084299356</v>
       </c>
       <c r="S19" t="n">
-        <v>5067.705797882517</v>
+        <v>6492.125592922827</v>
       </c>
       <c r="T19" t="n">
-        <v>6824.057641941125</v>
+        <v>-593.188578548187</v>
       </c>
       <c r="U19" t="n">
-        <v>82478.20010588781</v>
+        <v>-2433.064498944035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>181.93</v>
@@ -1724,60 +1726,60 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.478761951446512</v>
+        <v>212.2505053829191</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>140.9620210861142</v>
       </c>
       <c r="G20" t="n">
-        <v>209.4358602268158</v>
+        <v>6291.547126249418</v>
       </c>
       <c r="H20" t="n">
-        <v>293.4941328100664</v>
+        <v>0.8617275131487624</v>
       </c>
       <c r="I20" t="n">
-        <v>24.21981245769597</v>
+        <v>85.7150613071406</v>
       </c>
       <c r="J20" t="n">
-        <v>181.8731673505304</v>
+        <v>103.3986573913432</v>
       </c>
       <c r="K20" t="n">
-        <v>18.50507144903038</v>
+        <v>50.37396144580345</v>
       </c>
       <c r="L20" t="n">
-        <v>72.19828207061963</v>
+        <v>1.44064761182545</v>
       </c>
       <c r="M20" t="n">
-        <v>6.093325141761512</v>
+        <v>0.7678488188936579</v>
       </c>
       <c r="N20" t="n">
-        <v>2069.070742660192</v>
+        <v>20.78367093377589</v>
       </c>
       <c r="O20" t="n">
-        <v>1332.955849832568</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>100005.8052535859</v>
+        <v>7198.451900318361</v>
       </c>
       <c r="Q20" t="n">
-        <v>50848.63169914932</v>
+        <v>32990.07406239679</v>
       </c>
       <c r="R20" t="n">
-        <v>29247.03523815116</v>
+        <v>14777.08464140436</v>
       </c>
       <c r="S20" t="n">
-        <v>1463.145333903831</v>
+        <v>4617.351794560743</v>
       </c>
       <c r="T20" t="n">
-        <v>972.8583720411618</v>
+        <v>3686.565415435503</v>
       </c>
       <c r="U20" t="n">
-        <v>73632.39114999936</v>
+        <v>3328.444679206959</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
         <v>181.68</v>
@@ -1789,60 +1791,60 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>174.5654558392924</v>
+        <v>546.2622852512173</v>
       </c>
       <c r="F21" t="n">
-        <v>161.7867930575338</v>
+        <v>43.19821537649138</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>5162.966813130975</v>
       </c>
       <c r="H21" t="n">
-        <v>163.7356173035035</v>
+        <v>330.434368120368</v>
       </c>
       <c r="I21" t="n">
-        <v>1265.677754129233</v>
+        <v>257.7205640309522</v>
       </c>
       <c r="J21" t="n">
-        <v>8.922417501470855</v>
+        <v>933.1180937378178</v>
       </c>
       <c r="K21" t="n">
-        <v>13.53850217639159</v>
+        <v>7.596491144155827</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6595541097789449</v>
+        <v>0.7267597175502064</v>
       </c>
       <c r="M21" t="n">
-        <v>1.247522629384515</v>
+        <v>0.3280592232198157</v>
       </c>
       <c r="N21" t="n">
-        <v>795.1972613573621</v>
+        <v>2.051482149216127</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>111923.6613601347</v>
+        <v>8554.249832766391</v>
       </c>
       <c r="Q21" t="n">
-        <v>56466.84314269588</v>
+        <v>34084.32981432121</v>
       </c>
       <c r="R21" t="n">
-        <v>37699.89862298818</v>
+        <v>14709.26677675933</v>
       </c>
       <c r="S21" t="n">
-        <v>958.7990434971755</v>
+        <v>1855.615114569036</v>
       </c>
       <c r="T21" t="n">
-        <v>273.5026748820433</v>
+        <v>4781.876263237096</v>
       </c>
       <c r="U21" t="n">
-        <v>98196.81740341394</v>
+        <v>7283.235654765496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
         <v>181.41</v>
@@ -1854,60 +1856,60 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>160.0864560715501</v>
+        <v>369.3427828841606</v>
       </c>
       <c r="F22" t="n">
-        <v>56.70344727883177</v>
+        <v>72.78047340635594</v>
       </c>
       <c r="G22" t="n">
-        <v>2270.957550332146</v>
+        <v>316.6251821574862</v>
       </c>
       <c r="H22" t="n">
-        <v>4.758044792578512</v>
+        <v>258.9006852950715</v>
       </c>
       <c r="I22" t="n">
-        <v>968.3821868282414</v>
+        <v>1519.689227661423</v>
       </c>
       <c r="J22" t="n">
-        <v>337.3865509118253</v>
+        <v>438.1547944500873</v>
       </c>
       <c r="K22" t="n">
-        <v>27.35457117286718</v>
+        <v>157.0348638547524</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.013222889293395</v>
+        <v>1.601733615183691</v>
       </c>
       <c r="N22" t="n">
-        <v>687.5339846008451</v>
+        <v>453.0852923760596</v>
       </c>
       <c r="O22" t="n">
-        <v>231.1241118328753</v>
+        <v>509.8528476831884</v>
       </c>
       <c r="P22" t="n">
-        <v>115763.6613601347</v>
+        <v>4380.432699169091</v>
       </c>
       <c r="Q22" t="n">
-        <v>57225.94162005644</v>
+        <v>38637.82141940349</v>
       </c>
       <c r="R22" t="n">
-        <v>40126.52386609422</v>
+        <v>14572.72898559291</v>
       </c>
       <c r="S22" t="n">
-        <v>834.8222246382517</v>
+        <v>1095.575101492711</v>
       </c>
       <c r="T22" t="n">
-        <v>2641.02762400523</v>
+        <v>280.5685816968296</v>
       </c>
       <c r="U22" t="n">
-        <v>101707.2282276305</v>
+        <v>-3686.673280196922</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
         <v>181.14</v>
@@ -1919,60 +1921,60 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>99.02710064791498</v>
+        <v>453.9171237024014</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.774072418235662</v>
       </c>
       <c r="G23" t="n">
-        <v>865.4423600975745</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>210.1939273120379</v>
       </c>
       <c r="I23" t="n">
-        <v>173.053504718611</v>
+        <v>1333.038383377426</v>
       </c>
       <c r="J23" t="n">
-        <v>220.1944117342541</v>
+        <v>298.8390309687698</v>
       </c>
       <c r="K23" t="n">
-        <v>5.31330274381483</v>
+        <v>70.1211742402383</v>
       </c>
       <c r="L23" t="n">
-        <v>22.37930418261254</v>
+        <v>108.7162744895932</v>
       </c>
       <c r="M23" t="n">
-        <v>3.936163779354238</v>
+        <v>6.60445162436251</v>
       </c>
       <c r="N23" t="n">
-        <v>3.711665431164033</v>
+        <v>461.3311686998272</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>147.3543057978938</v>
       </c>
       <c r="P23" t="n">
-        <v>120562.0368146774</v>
+        <v>5701.460398659557</v>
       </c>
       <c r="Q23" t="n">
-        <v>59661.87727541641</v>
+        <v>39686.86226996489</v>
       </c>
       <c r="R23" t="n">
-        <v>42356.70841669782</v>
+        <v>16473.06957690837</v>
       </c>
       <c r="S23" t="n">
-        <v>1170.049965553985</v>
+        <v>777.2428105849722</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.884720195149</v>
+        <v>124.0788361491938</v>
       </c>
       <c r="U23" t="n">
-        <v>109970.2779748054</v>
+        <v>-386.2841208339981</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
         <v>180.9</v>
@@ -1984,60 +1986,60 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>321.3182210607414</v>
+        <v>9.88478261574835</v>
       </c>
       <c r="F24" t="n">
-        <v>70.10343264622301</v>
+        <v>9.960452616002323</v>
       </c>
       <c r="G24" t="n">
-        <v>3435.571735007137</v>
+        <v>12897.4434409567</v>
       </c>
       <c r="H24" t="n">
-        <v>36.78354065935081</v>
+        <v>709.8686327661324</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1229.700363970886</v>
       </c>
       <c r="J24" t="n">
-        <v>108.5663960311668</v>
+        <v>53.99573720807379</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>82.33973338291541</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.702403580090825</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>12.15035064903089</v>
       </c>
       <c r="N24" t="n">
-        <v>395.9935929331565</v>
+        <v>50.34909885405867</v>
       </c>
       <c r="O24" t="n">
-        <v>1756.829995559611</v>
+        <v>155.6828552811598</v>
       </c>
       <c r="P24" t="n">
-        <v>124402.0368146774</v>
+        <v>3843.609814515533</v>
       </c>
       <c r="Q24" t="n">
-        <v>57755.68829171445</v>
+        <v>39907.23272410868</v>
       </c>
       <c r="R24" t="n">
-        <v>42039.09394407012</v>
+        <v>18493.30725026152</v>
       </c>
       <c r="S24" t="n">
-        <v>256.4674274809725</v>
+        <v>679.7293927410008</v>
       </c>
       <c r="T24" t="n">
-        <v>10408.95751854732</v>
+        <v>13238.60593737782</v>
       </c>
       <c r="U24" t="n">
-        <v>112727.7275362823</v>
+        <v>5704.767265453074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
         <v>281.07</v>
@@ -2049,55 +2051,55 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>213.3864257342922</v>
+        <v>77.74290971615507</v>
       </c>
       <c r="F25" t="n">
-        <v>42.56123798029189</v>
+        <v>69.02119287059089</v>
       </c>
       <c r="G25" t="n">
-        <v>180.8844412043</v>
+        <v>67.86498490313789</v>
       </c>
       <c r="H25" t="n">
-        <v>239.2425629036852</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1260.967529501251</v>
+        <v>872.4969399183534</v>
       </c>
       <c r="J25" t="n">
-        <v>89.33226432483015</v>
+        <v>111.9943589341881</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.084574386058066</v>
       </c>
       <c r="L25" t="n">
-        <v>2.710164700812231</v>
+        <v>1.688848667115197</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.03155483475669903</v>
       </c>
       <c r="N25" t="n">
-        <v>413.4607620973123</v>
+        <v>1273.29059930128</v>
       </c>
       <c r="O25" t="n">
-        <v>13.25932906099737</v>
+        <v>1751.294915011601</v>
       </c>
       <c r="P25" t="n">
-        <v>130858.7414339976</v>
+        <v>6795.971746307358</v>
       </c>
       <c r="Q25" t="n">
-        <v>57543.51203140408</v>
+        <v>44460.18622430506</v>
       </c>
       <c r="R25" t="n">
-        <v>44558.61084784658</v>
+        <v>18660.05778046279</v>
       </c>
       <c r="S25" t="n">
-        <v>6777.777162635589</v>
+        <v>288.7014935698454</v>
       </c>
       <c r="T25" t="n">
-        <v>1297.534389850232</v>
+        <v>329.0740701623389</v>
       </c>
       <c r="U25" t="n">
-        <v>117305.2485138987</v>
+        <v>-3025.194377516868</v>
       </c>
     </row>
     <row r="26">
@@ -2114,37 +2116,37 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>342.6981650460955</v>
+        <v>954.9911980783933</v>
       </c>
       <c r="F26" t="n">
-        <v>148.5056025198559</v>
+        <v>59.89896660649014</v>
       </c>
       <c r="G26" t="n">
-        <v>5919.28995176685</v>
+        <v>73.15777784700767</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>368.4460712415782</v>
       </c>
       <c r="I26" t="n">
-        <v>1199.578095912672</v>
+        <v>585.2235036696025</v>
       </c>
       <c r="J26" t="n">
-        <v>146.3904961891776</v>
+        <v>316.3541892429305</v>
       </c>
       <c r="K26" t="n">
-        <v>72.51365200252864</v>
+        <v>97.58536046275086</v>
       </c>
       <c r="L26" t="n">
-        <v>28.14484540433342</v>
+        <v>9.436510815729386</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>16.85806063459457</v>
       </c>
       <c r="N26" t="n">
-        <v>1094.954590663525</v>
+        <v>648.4928229730029</v>
       </c>
       <c r="O26" t="n">
-        <v>11.60387239373391</v>
+        <v>1057.615085580738</v>
       </c>
       <c r="P26" t="n">
         <v>6666.666666666667</v>
@@ -2159,10 +2161,10 @@
         <v>666.6666666666666</v>
       </c>
       <c r="T26" t="n">
-        <v>9324.235512485488</v>
+        <v>104.2684656030367</v>
       </c>
       <c r="U26" t="n">
-        <v>1129.651540446367</v>
+        <v>1671.324005832623</v>
       </c>
     </row>
     <row r="27">
@@ -2179,55 +2181,55 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.643912362700651</v>
+        <v>175.6330987381064</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>63.61857660987067</v>
       </c>
       <c r="G27" t="n">
-        <v>333.4442805178367</v>
+        <v>97.4509764643649</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>224.3411633665369</v>
       </c>
       <c r="I27" t="n">
-        <v>2514.576261859354</v>
+        <v>142.8163763888971</v>
       </c>
       <c r="J27" t="n">
-        <v>266.3636435003101</v>
+        <v>281.6918231345636</v>
       </c>
       <c r="K27" t="n">
-        <v>23.4624683265376</v>
+        <v>63.91921437921199</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.793544729330424</v>
       </c>
       <c r="M27" t="n">
-        <v>1.446635265552279</v>
+        <v>9.277532876234076</v>
       </c>
       <c r="N27" t="n">
-        <v>183.4448652409375</v>
+        <v>710.0449975960199</v>
       </c>
       <c r="O27" t="n">
-        <v>518.5872685565109</v>
+        <v>1186.186501617116</v>
       </c>
       <c r="P27" t="n">
-        <v>10506.66666666667</v>
+        <v>3840</v>
       </c>
       <c r="Q27" t="n">
-        <v>14606.0307946204</v>
+        <v>7735.540259377413</v>
       </c>
       <c r="R27" t="n">
-        <v>4633.428408247672</v>
+        <v>3936.637350099722</v>
       </c>
       <c r="S27" t="n">
-        <v>3862.351299855878</v>
+        <v>308.4610214203224</v>
       </c>
       <c r="T27" t="n">
-        <v>668.2407597564749</v>
+        <v>2544.145520157984</v>
       </c>
       <c r="U27" t="n">
-        <v>885.6952958583345</v>
+        <v>-2353.001510022013</v>
       </c>
     </row>
     <row r="28">
@@ -2244,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>585.8256315588721</v>
+        <v>270.6515424193848</v>
       </c>
       <c r="F28" t="n">
-        <v>84.34444978844427</v>
+        <v>36.34557107766899</v>
       </c>
       <c r="G28" t="n">
-        <v>9994.737198001994</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.30961762630836</v>
+        <v>23.68758583421711</v>
       </c>
       <c r="I28" t="n">
-        <v>225.2440447374343</v>
+        <v>222.0709867129124</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>544.7408787424276</v>
       </c>
       <c r="K28" t="n">
-        <v>56.74954831181682</v>
+        <v>2.502713958617936</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.794383883014282</v>
+        <v>2.05180634718573</v>
       </c>
       <c r="N28" t="n">
-        <v>948.7150785212201</v>
+        <v>5.149828088645972</v>
       </c>
       <c r="O28" t="n">
-        <v>1289.229033586096</v>
+        <v>550.7736017288726</v>
       </c>
       <c r="P28" t="n">
-        <v>15047.60325957705</v>
+        <v>4722.846054138814</v>
       </c>
       <c r="Q28" t="n">
-        <v>18063.87753113629</v>
+        <v>7929.856060512334</v>
       </c>
       <c r="R28" t="n">
-        <v>5691.468316403659</v>
+        <v>7462.113706827699</v>
       </c>
       <c r="S28" t="n">
-        <v>3474.834613756002</v>
+        <v>2395.49976540374</v>
       </c>
       <c r="T28" t="n">
-        <v>13336.1396986965</v>
+        <v>-47.22666703955309</v>
       </c>
       <c r="U28" t="n">
-        <v>13322.72259193955</v>
+        <v>-1118.468051118423</v>
       </c>
     </row>
     <row r="29">
@@ -2309,55 +2311,55 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>108.2749013894704</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>160.5106558869706</v>
+        <v>52.90375900964935</v>
       </c>
       <c r="G29" t="n">
-        <v>4365.386760243669</v>
+        <v>5047.471658173645</v>
       </c>
       <c r="H29" t="n">
-        <v>30.15837471372798</v>
+        <v>226.9928854921338</v>
       </c>
       <c r="I29" t="n">
-        <v>15.56340631424132</v>
+        <v>86.24381047433378</v>
       </c>
       <c r="J29" t="n">
-        <v>27.8196246208374</v>
+        <v>215.6135650157448</v>
       </c>
       <c r="K29" t="n">
-        <v>162.7854065170484</v>
+        <v>42.99416931677814</v>
       </c>
       <c r="L29" t="n">
-        <v>25.33581020452246</v>
+        <v>11.11674301549303</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.1782119363175358</v>
       </c>
       <c r="N29" t="n">
-        <v>1725.575942974999</v>
+        <v>14.60775842676955</v>
       </c>
       <c r="O29" t="n">
-        <v>572.2947516752981</v>
+        <v>194.3746825917907</v>
       </c>
       <c r="P29" t="n">
-        <v>20517.30576257093</v>
+        <v>4765.077655071567</v>
       </c>
       <c r="Q29" t="n">
-        <v>24771.86887147311</v>
+        <v>9556.883113557826</v>
       </c>
       <c r="R29" t="n">
-        <v>10111.39456326078</v>
+        <v>7893.550795406806</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2297.644651597036</v>
       </c>
       <c r="T29" t="n">
-        <v>12166.1300458776</v>
+        <v>3091.702124648594</v>
       </c>
       <c r="U29" t="n">
-        <v>11650.50026565808</v>
+        <v>3941.577987519667</v>
       </c>
     </row>
     <row r="30">
@@ -2374,55 +2376,55 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>316.9024975507604</v>
+        <v>79.99715993988019</v>
       </c>
       <c r="F30" t="n">
-        <v>212.8189404095285</v>
+        <v>34.44906421238331</v>
       </c>
       <c r="G30" t="n">
-        <v>10548.6003677625</v>
+        <v>15128.83030279156</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>11.59171988293211</v>
       </c>
       <c r="I30" t="n">
-        <v>28.25514916222508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>946.208359149117</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.412907686436691</v>
+        <v>13.51885472000159</v>
       </c>
       <c r="L30" t="n">
-        <v>96.29503102132921</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.152448197235737</v>
+        <v>4.455439153450784</v>
       </c>
       <c r="N30" t="n">
-        <v>891.3416311906797</v>
+        <v>120.1390451360174</v>
       </c>
       <c r="O30" t="n">
-        <v>633.2891794301651</v>
+        <v>237.8511755121698</v>
       </c>
       <c r="P30" t="n">
-        <v>24357.30576257093</v>
+        <v>4059.634622558309</v>
       </c>
       <c r="Q30" t="n">
-        <v>31673.37285524465</v>
+        <v>12073.44313153161</v>
       </c>
       <c r="R30" t="n">
-        <v>16686.02757548634</v>
+        <v>8080.410634458858</v>
       </c>
       <c r="S30" t="n">
-        <v>7308.235108720448</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>14068.56438895304</v>
+        <v>16415.85371045082</v>
       </c>
       <c r="U30" t="n">
-        <v>19410.90604382814</v>
+        <v>11527.15357708648</v>
       </c>
     </row>
     <row r="31">
@@ -2439,55 +2441,55 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>463.006339908968</v>
+        <v>90.82435038271007</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>116.6031228093993</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6420.771378009163</v>
       </c>
       <c r="H31" t="n">
-        <v>137.1873752212012</v>
+        <v>89.73655018493143</v>
       </c>
       <c r="I31" t="n">
-        <v>157.2564069150388</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8279950273665</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.13504300650882</v>
+        <v>94.87263586831766</v>
       </c>
       <c r="L31" t="n">
-        <v>19.12931695154168</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>3.573378773720608</v>
+        <v>3.073675784779915</v>
       </c>
       <c r="N31" t="n">
-        <v>511.4372734861532</v>
+        <v>19.28898444888105</v>
       </c>
       <c r="O31" t="n">
-        <v>599.9584447989781</v>
+        <v>1038.771471843422</v>
       </c>
       <c r="P31" t="n">
-        <v>28197.30576257093</v>
+        <v>4396.230392604441</v>
       </c>
       <c r="Q31" t="n">
-        <v>42140.78178556094</v>
+        <v>17098.65068799798</v>
       </c>
       <c r="R31" t="n">
-        <v>20587.08015748022</v>
+        <v>8638.862417062826</v>
       </c>
       <c r="S31" t="n">
-        <v>3566.979725024153</v>
+        <v>1199.54350235363</v>
       </c>
       <c r="T31" t="n">
-        <v>418.3702290356915</v>
+        <v>7614.288473309289</v>
       </c>
       <c r="U31" t="n">
-        <v>18363.18855960063</v>
+        <v>3426.335775107365</v>
       </c>
     </row>
     <row r="32">
@@ -2504,55 +2506,55 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>143.1223587482953</v>
+        <v>1111.66764196041</v>
       </c>
       <c r="F32" t="n">
-        <v>18.02353982834278</v>
+        <v>14.02707379528807</v>
       </c>
       <c r="G32" t="n">
-        <v>6016.063640543972</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>494.3289818995643</v>
+        <v>2.719069953821871</v>
       </c>
       <c r="I32" t="n">
-        <v>186.1370492686671</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>285.0523632595869</v>
+        <v>111.0095802741955</v>
       </c>
       <c r="K32" t="n">
-        <v>51.99985712870374</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>64.48039526701638</v>
+        <v>8.44260680761311</v>
       </c>
       <c r="M32" t="n">
-        <v>10.25624306027209</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>196.3805808869505</v>
+        <v>1257.865507238648</v>
       </c>
       <c r="O32" t="n">
-        <v>2135.660645962384</v>
+        <v>887.9888995471858</v>
       </c>
       <c r="P32" t="n">
-        <v>33366.12695859875</v>
+        <v>5619.495557806362</v>
       </c>
       <c r="Q32" t="n">
-        <v>42664.25041748723</v>
+        <v>17925.88164577667</v>
       </c>
       <c r="R32" t="n">
-        <v>22789.16093721372</v>
+        <v>9539.358615817562</v>
       </c>
       <c r="S32" t="n">
-        <v>3238.287795904074</v>
+        <v>2225.653670010934</v>
       </c>
       <c r="T32" t="n">
-        <v>9586.766028552407</v>
+        <v>-51.31420934284412</v>
       </c>
       <c r="U32" t="n">
-        <v>29645.06277190555</v>
+        <v>-2708.376578179545</v>
       </c>
     </row>
     <row r="33">
@@ -2569,55 +2571,55 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>87.97906620197408</v>
+        <v>43.16315710384837</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>77.07186773170274</v>
       </c>
       <c r="G33" t="n">
-        <v>2964.76962739383</v>
+        <v>5885.523152230621</v>
       </c>
       <c r="H33" t="n">
-        <v>47.86297149073728</v>
+        <v>188.895461360255</v>
       </c>
       <c r="I33" t="n">
-        <v>1332.407555527329</v>
+        <v>85.4372175728231</v>
       </c>
       <c r="J33" t="n">
-        <v>176.3505676625905</v>
+        <v>60.32175910369517</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>11.87857591220507</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.8976535428552114</v>
       </c>
       <c r="N33" t="n">
-        <v>279.5835605541894</v>
+        <v>807.5898951979127</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>86.42700954394535</v>
       </c>
       <c r="P33" t="n">
-        <v>37358.45853628057</v>
+        <v>7216.685258342793</v>
       </c>
       <c r="Q33" t="n">
-        <v>45517.88556160262</v>
+        <v>16470.76331229169</v>
       </c>
       <c r="R33" t="n">
-        <v>25397.82432049191</v>
+        <v>14685.77162030003</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2147.088768570088</v>
       </c>
       <c r="T33" t="n">
-        <v>3272.505859064423</v>
+        <v>4034.684283449293</v>
       </c>
       <c r="U33" t="n">
-        <v>29039.28940415752</v>
+        <v>3679.489618645609</v>
       </c>
     </row>
     <row r="34">
@@ -2634,55 +2636,55 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>182.5783011311372</v>
+        <v>165.4587892636993</v>
       </c>
       <c r="F34" t="n">
-        <v>12.29665004190975</v>
+        <v>173.9588871268971</v>
       </c>
       <c r="G34" t="n">
-        <v>3141.349995657273</v>
+        <v>4005.284232179002</v>
       </c>
       <c r="H34" t="n">
-        <v>188.4526605769864</v>
+        <v>117.2564001863947</v>
       </c>
       <c r="I34" t="n">
-        <v>193.4691714032587</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>132.9395971268667</v>
       </c>
       <c r="K34" t="n">
-        <v>1.070268294418251</v>
+        <v>29.7234969701578</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>7.497114173239715</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1464838412927088</v>
+        <v>0.1139424295996251</v>
       </c>
       <c r="N34" t="n">
-        <v>131.1652113613277</v>
+        <v>517.891555269392</v>
       </c>
       <c r="O34" t="n">
-        <v>1144.959666784745</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>42652.32462758834</v>
+        <v>6817.733574707388</v>
       </c>
       <c r="Q34" t="n">
-        <v>47102.58884136792</v>
+        <v>18231.01622283068</v>
       </c>
       <c r="R34" t="n">
-        <v>26127.98021043773</v>
+        <v>17459.10798680424</v>
       </c>
       <c r="S34" t="n">
-        <v>244.4108011991548</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3378.491326820747</v>
+        <v>7484.217572035459</v>
       </c>
       <c r="U34" t="n">
-        <v>36029.44042179932</v>
+        <v>5178.85477910193</v>
       </c>
     </row>
     <row r="35">
@@ -2699,55 +2701,55 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>77.49521538383136</v>
+        <v>216.1940089824855</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>41.55906710886985</v>
       </c>
       <c r="G35" t="n">
-        <v>427.2194986961508</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>100.6159170095417</v>
+        <v>73.46099895802575</v>
       </c>
       <c r="I35" t="n">
-        <v>908.1456259756782</v>
+        <v>44.71147400644828</v>
       </c>
       <c r="J35" t="n">
-        <v>701.238743364928</v>
+        <v>39.16495459817358</v>
       </c>
       <c r="K35" t="n">
-        <v>152.5444542816731</v>
+        <v>46.5822632709185</v>
       </c>
       <c r="L35" t="n">
-        <v>64.54211910052655</v>
+        <v>2.53214908800805</v>
       </c>
       <c r="M35" t="n">
-        <v>24.16190858606638</v>
+        <v>18.6130441787403</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>228.2333535738125</v>
+        <v>106.1225969438291</v>
       </c>
       <c r="P35" t="n">
-        <v>48820.6816190176</v>
+        <v>3840</v>
       </c>
       <c r="Q35" t="n">
-        <v>46337.32450742818</v>
+        <v>19437.24322675103</v>
       </c>
       <c r="R35" t="n">
-        <v>27336.19848950041</v>
+        <v>19136.70449237173</v>
       </c>
       <c r="S35" t="n">
-        <v>191.2279733128237</v>
+        <v>3161.657161759694</v>
       </c>
       <c r="T35" t="n">
-        <v>643.4459005821152</v>
+        <v>-56.08247862910861</v>
       </c>
       <c r="U35" t="n">
-        <v>37460.03455797653</v>
+        <v>-535.9018616825124</v>
       </c>
     </row>
     <row r="36">
@@ -2764,55 +2766,55 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>59.52739109675146</v>
+        <v>322.4001308054703</v>
       </c>
       <c r="F36" t="n">
-        <v>11.77126561447186</v>
+        <v>12.98638400506671</v>
       </c>
       <c r="G36" t="n">
-        <v>9999.618709405102</v>
+        <v>3982.333517488136</v>
       </c>
       <c r="H36" t="n">
-        <v>252.3889968190571</v>
+        <v>27.83678168075042</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.04633071363074</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>12.77351554595914</v>
       </c>
       <c r="K36" t="n">
-        <v>37.21427577890743</v>
+        <v>17.40324396471567</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>4.883348945486783</v>
       </c>
       <c r="M36" t="n">
-        <v>8.90529005249166</v>
+        <v>2.408741137333491</v>
       </c>
       <c r="N36" t="n">
-        <v>539.9362354291999</v>
+        <v>105.5184979305355</v>
       </c>
       <c r="O36" t="n">
-        <v>39.93790143747034</v>
+        <v>1749.93540791096</v>
       </c>
       <c r="P36" t="n">
-        <v>52719.7061956679</v>
+        <v>3840</v>
       </c>
       <c r="Q36" t="n">
-        <v>48511.95914256169</v>
+        <v>18531.74574640581</v>
       </c>
       <c r="R36" t="n">
-        <v>27551.86140410793</v>
+        <v>19078.01287600647</v>
       </c>
       <c r="S36" t="n">
-        <v>68.83739881373916</v>
+        <v>2995.042650340768</v>
       </c>
       <c r="T36" t="n">
-        <v>13739.31856843649</v>
+        <v>3639.620751145124</v>
       </c>
       <c r="U36" t="n">
-        <v>51945.52005603287</v>
+        <v>-2272.363226909364</v>
       </c>
     </row>
     <row r="37">
@@ -2829,55 +2831,55 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.14810621990654</v>
+        <v>19.33855512701091</v>
       </c>
       <c r="F37" t="n">
-        <v>19.93480787397746</v>
+        <v>183.9114551359755</v>
       </c>
       <c r="G37" t="n">
-        <v>952.9125078279122</v>
+        <v>3136.524129149875</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>334.9063989462483</v>
       </c>
       <c r="I37" t="n">
-        <v>238.2077009396363</v>
+        <v>263.6145617570679</v>
       </c>
       <c r="J37" t="n">
-        <v>129.086612879491</v>
+        <v>183.0889631932664</v>
       </c>
       <c r="K37" t="n">
-        <v>32.04563617048436</v>
+        <v>48.91991632981718</v>
       </c>
       <c r="L37" t="n">
-        <v>10.21809913389836</v>
+        <v>8.568420139465296</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>24.67681280239325</v>
       </c>
       <c r="N37" t="n">
-        <v>2750.480398898339</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1681.887770072084</v>
+        <v>829.3018553727486</v>
       </c>
       <c r="P37" t="n">
-        <v>56559.7061956679</v>
+        <v>8520.978469293621</v>
       </c>
       <c r="Q37" t="n">
-        <v>52028.41693397579</v>
+        <v>17575.02330451054</v>
       </c>
       <c r="R37" t="n">
-        <v>29226.16967148575</v>
+        <v>20821.324792002</v>
       </c>
       <c r="S37" t="n">
-        <v>3347.964890736296</v>
+        <v>2578.940589581018</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.712933643704</v>
+        <v>7263.793882763683</v>
       </c>
       <c r="U37" t="n">
-        <v>38412.80414304317</v>
+        <v>6133.175909064312</v>
       </c>
     </row>
     <row r="38">
@@ -2894,55 +2896,55 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>477.4563529137481</v>
       </c>
       <c r="F38" t="n">
-        <v>153.6608280026882</v>
+        <v>133.3508241296479</v>
       </c>
       <c r="G38" t="n">
-        <v>5032.103023857811</v>
+        <v>4689.387332716518</v>
       </c>
       <c r="H38" t="n">
-        <v>197.4724390722781</v>
+        <v>103.3213874807861</v>
       </c>
       <c r="I38" t="n">
-        <v>1060.039251566012</v>
+        <v>2.277474694727672</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>176.7521525958113</v>
       </c>
       <c r="K38" t="n">
-        <v>17.23665994116877</v>
+        <v>128.1515882932897</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.698085616860656</v>
+        <v>8.564517492894797</v>
       </c>
       <c r="N38" t="n">
-        <v>681.2630219990521</v>
+        <v>467.4322505512101</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>54.26669801659823</v>
       </c>
       <c r="P38" t="n">
-        <v>60399.7061956679</v>
+        <v>3840</v>
       </c>
       <c r="Q38" t="n">
-        <v>59686.99909474506</v>
+        <v>18422.36902868241</v>
       </c>
       <c r="R38" t="n">
-        <v>40135.22469640294</v>
+        <v>21415.162171069</v>
       </c>
       <c r="S38" t="n">
-        <v>2195.472166505107</v>
+        <v>6119.868918750048</v>
       </c>
       <c r="T38" t="n">
-        <v>6125.612426636349</v>
+        <v>17.27787275916762</v>
       </c>
       <c r="U38" t="n">
-        <v>53545.31982421168</v>
+        <v>-2522.347888827994</v>
       </c>
     </row>
     <row r="39">
@@ -2959,55 +2961,55 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>113.9967431370775</v>
+        <v>330.5283906498028</v>
       </c>
       <c r="F39" t="n">
-        <v>42.01378384064731</v>
+        <v>44.9222718795155</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>7056.662344640009</v>
       </c>
       <c r="H39" t="n">
-        <v>14.97700137688257</v>
+        <v>58.53024228065359</v>
       </c>
       <c r="I39" t="n">
-        <v>1243.87800113713</v>
+        <v>140.0447054252517</v>
       </c>
       <c r="J39" t="n">
-        <v>152.2503925328821</v>
+        <v>165.8462153509841</v>
       </c>
       <c r="K39" t="n">
-        <v>31.86622379605084</v>
+        <v>4.07467804024092</v>
       </c>
       <c r="L39" t="n">
-        <v>27.71110042783786</v>
+        <v>83.78661163840496</v>
       </c>
       <c r="M39" t="n">
-        <v>9.046047713480036</v>
+        <v>0.8926211714430813</v>
       </c>
       <c r="N39" t="n">
-        <v>66.56943344668542</v>
+        <v>540.5356087009014</v>
       </c>
       <c r="O39" t="n">
-        <v>1003.919787021614</v>
+        <v>457.1635662287377</v>
       </c>
       <c r="P39" t="n">
-        <v>64413.21089980557</v>
+        <v>9014.102054379127</v>
       </c>
       <c r="Q39" t="n">
-        <v>61793.95204978015</v>
+        <v>20189.37719587081</v>
       </c>
       <c r="R39" t="n">
-        <v>42136.19205449268</v>
+        <v>22907.69296126192</v>
       </c>
       <c r="S39" t="n">
-        <v>1239.752608977743</v>
+        <v>1082.168609600699</v>
       </c>
       <c r="T39" t="n">
-        <v>142.6346276292313</v>
+        <v>7024.828260945784</v>
       </c>
       <c r="U39" t="n">
-        <v>54372.84067980129</v>
+        <v>9148.991277943835</v>
       </c>
     </row>
     <row r="40">
@@ -3024,55 +3026,55 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>77.82810056389914</v>
       </c>
       <c r="F40" t="n">
-        <v>98.84865794586479</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1203.209234766999</v>
       </c>
       <c r="H40" t="n">
-        <v>3.240642058282098</v>
+        <v>76.5685271519196</v>
       </c>
       <c r="I40" t="n">
-        <v>270.2661722505574</v>
+        <v>942.7589660812819</v>
       </c>
       <c r="J40" t="n">
-        <v>59.31980389533</v>
+        <v>71.29062604350345</v>
       </c>
       <c r="K40" t="n">
-        <v>210.7018322799726</v>
+        <v>219.8688348834682</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.532050322140214</v>
       </c>
       <c r="M40" t="n">
-        <v>11.72968769243209</v>
+        <v>4.457058683320914</v>
       </c>
       <c r="N40" t="n">
-        <v>439.8234159275481</v>
+        <v>261.7774403454351</v>
       </c>
       <c r="O40" t="n">
-        <v>49.8845700919931</v>
+        <v>1086.781941656509</v>
       </c>
       <c r="P40" t="n">
-        <v>68660.22530224299</v>
+        <v>4420.846122411422</v>
       </c>
       <c r="Q40" t="n">
-        <v>60291.67806162559</v>
+        <v>22240.59158368546</v>
       </c>
       <c r="R40" t="n">
-        <v>42954.23027269385</v>
+        <v>25309.44098475723</v>
       </c>
       <c r="S40" t="n">
-        <v>1347.417080378299</v>
+        <v>977.1777838045554</v>
       </c>
       <c r="T40" t="n">
-        <v>39.80854163760586</v>
+        <v>4589.52279541349</v>
       </c>
       <c r="U40" t="n">
-        <v>57263.48037776865</v>
+        <v>-3760.076186317634</v>
       </c>
     </row>
     <row r="41">
@@ -3089,55 +3091,55 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5900537065822</v>
+        <v>391.4714549163934</v>
       </c>
       <c r="F41" t="n">
-        <v>229.1953478460761</v>
+        <v>101.7575700652844</v>
       </c>
       <c r="G41" t="n">
-        <v>902.1039321101026</v>
+        <v>714.3618086245347</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>48.84610970379648</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>677.1523764813838</v>
       </c>
       <c r="J41" t="n">
-        <v>25.07634329472172</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>72.9755970851712</v>
+        <v>39.09941757146184</v>
       </c>
       <c r="L41" t="n">
-        <v>5.916571686140453</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.360375238917634</v>
+        <v>4.065488958960576</v>
       </c>
       <c r="N41" t="n">
-        <v>41.19563099704095</v>
+        <v>182.3800268736651</v>
       </c>
       <c r="O41" t="n">
-        <v>1512.723998591814</v>
+        <v>557.6161817201017</v>
       </c>
       <c r="P41" t="n">
-        <v>73707.20232418676</v>
+        <v>7001.237231060604</v>
       </c>
       <c r="Q41" t="n">
-        <v>59144.03705876306</v>
+        <v>21986.60712091908</v>
       </c>
       <c r="R41" t="n">
-        <v>44135.34464101765</v>
+        <v>26962.65135338502</v>
       </c>
       <c r="S41" t="n">
-        <v>1368.33501912887</v>
+        <v>4080.221209968154</v>
       </c>
       <c r="T41" t="n">
-        <v>1298.348765652998</v>
+        <v>-9.452804833346249</v>
       </c>
       <c r="U41" t="n">
-        <v>66014.56864704832</v>
+        <v>33.70888982171141</v>
       </c>
     </row>
     <row r="42">
@@ -3154,55 +3156,55 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>834.1595720021382</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.312915260287198</v>
+        <v>37.3996036182843</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1828.611661290002</v>
       </c>
       <c r="H42" t="n">
-        <v>60.65582300750491</v>
+        <v>18.67983956391986</v>
       </c>
       <c r="I42" t="n">
-        <v>295.5728420921978</v>
+        <v>2405.790540855257</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>107.5409041059761</v>
+        <v>38.77358893052409</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>14.44043194757265</v>
+        <v>5.942907750463033</v>
       </c>
       <c r="N42" t="n">
-        <v>1875.164876009662</v>
+        <v>539.3957188900922</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>78149.20134800347</v>
+        <v>6581.394690634542</v>
       </c>
       <c r="Q42" t="n">
-        <v>56298.98483453213</v>
+        <v>21143.93525617324</v>
       </c>
       <c r="R42" t="n">
-        <v>45200.01273442504</v>
+        <v>27832.14450887115</v>
       </c>
       <c r="S42" t="n">
-        <v>941.722842403406</v>
+        <v>3234.225191626303</v>
       </c>
       <c r="T42" t="n">
-        <v>80.25567134783155</v>
+        <v>377.5981870850244</v>
       </c>
       <c r="U42" t="n">
-        <v>63010.51402128006</v>
+        <v>-42.98199302434841</v>
       </c>
     </row>
     <row r="43">
@@ -3219,60 +3221,60 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>113.262231951208</v>
+        <v>222.9927930135537</v>
       </c>
       <c r="F43" t="n">
-        <v>5.641725789066643</v>
+        <v>34.8452126319355</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5181.058417956539</v>
       </c>
       <c r="H43" t="n">
-        <v>3.272360450166222</v>
+        <v>54.53236678538401</v>
       </c>
       <c r="I43" t="n">
-        <v>1376.672576659631</v>
+        <v>581.1174470574251</v>
       </c>
       <c r="J43" t="n">
-        <v>585.8645706470737</v>
+        <v>39.89169412966444</v>
       </c>
       <c r="K43" t="n">
-        <v>110.8707136425224</v>
+        <v>63.89228239619165</v>
       </c>
       <c r="L43" t="n">
-        <v>77.83334943028733</v>
+        <v>31.84753156135737</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>4.762053605784</v>
       </c>
       <c r="N43" t="n">
-        <v>790.6924910842687</v>
+        <v>2293.014059713713</v>
       </c>
       <c r="O43" t="n">
-        <v>58.64230648449999</v>
+        <v>727.3808163639376</v>
       </c>
       <c r="P43" t="n">
-        <v>81989.20134800347</v>
+        <v>4669.936648612863</v>
       </c>
       <c r="Q43" t="n">
-        <v>59997.92992016967</v>
+        <v>22705.16474878536</v>
       </c>
       <c r="R43" t="n">
-        <v>51371.46661483974</v>
+        <v>29461.9095601523</v>
       </c>
       <c r="S43" t="n">
-        <v>911.8805088668211</v>
+        <v>1670.307802203505</v>
       </c>
       <c r="T43" t="n">
-        <v>96.9382590709787</v>
+        <v>10512.44856645954</v>
       </c>
       <c r="U43" t="n">
-        <v>65610.38894431911</v>
+        <v>148.0318843329846</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>161.13</v>
@@ -3284,60 +3286,60 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.368957858573714</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>84.06255516104463</v>
+        <v>41.94768083864057</v>
       </c>
       <c r="G44" t="n">
-        <v>441.0420899125643</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>472.8006503647033</v>
+        <v>27.87246802485359</v>
       </c>
       <c r="I44" t="n">
-        <v>1009.413233573016</v>
+        <v>842.9399563463019</v>
       </c>
       <c r="J44" t="n">
-        <v>205.9523531182247</v>
+        <v>6.720143662934744</v>
       </c>
       <c r="K44" t="n">
-        <v>4.992240798440792</v>
+        <v>94.32430016480987</v>
       </c>
       <c r="L44" t="n">
-        <v>5.774593922212643</v>
+        <v>0.2442201320060686</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.197469974031863</v>
       </c>
       <c r="N44" t="n">
-        <v>1088.617610405254</v>
+        <v>80.348306153382</v>
       </c>
       <c r="O44" t="n">
-        <v>1714.22791097653</v>
+        <v>941.5545125148941</v>
       </c>
       <c r="P44" t="n">
-        <v>86284.27460676274</v>
+        <v>5613.389482922443</v>
       </c>
       <c r="Q44" t="n">
-        <v>63663.83159200857</v>
+        <v>23560.96753776005</v>
       </c>
       <c r="R44" t="n">
-        <v>53993.9654760084</v>
+        <v>38009.65180826045</v>
       </c>
       <c r="S44" t="n">
-        <v>990.854481431027</v>
+        <v>6616.489467886893</v>
       </c>
       <c r="T44" t="n">
-        <v>1788.449635772916</v>
+        <v>-240.6885026034873</v>
       </c>
       <c r="U44" t="n">
-        <v>66618.0448427192</v>
+        <v>-3654.12353727047</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
         <v>161.13</v>
@@ -3349,60 +3351,60 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>430.6419575869883</v>
+        <v>71.96101884749054</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>80.64026810767362</v>
       </c>
       <c r="G45" t="n">
-        <v>106.2813779200157</v>
+        <v>892.050434985209</v>
       </c>
       <c r="H45" t="n">
-        <v>50.7838297129576</v>
+        <v>120.950071273534</v>
       </c>
       <c r="I45" t="n">
-        <v>1313.062544572027</v>
+        <v>240.9789366311414</v>
       </c>
       <c r="J45" t="n">
-        <v>304.3331354478951</v>
+        <v>620.7685177194952</v>
       </c>
       <c r="K45" t="n">
-        <v>120.9606184758129</v>
+        <v>39.22586874866482</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>5.138742934722093</v>
       </c>
       <c r="N45" t="n">
-        <v>1306.276648030347</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>526.7144141910727</v>
+        <v>2226.974833583839</v>
       </c>
       <c r="P45" t="n">
-        <v>95625.20268361652</v>
+        <v>7674.478044973732</v>
       </c>
       <c r="Q45" t="n">
-        <v>66063.23804656864</v>
+        <v>22257.1200431693</v>
       </c>
       <c r="R45" t="n">
-        <v>58816.83959920096</v>
+        <v>38748.54371164085</v>
       </c>
       <c r="S45" t="n">
-        <v>69.51348762651433</v>
+        <v>6270.455772237437</v>
       </c>
       <c r="T45" t="n">
-        <v>4273.117272607529</v>
+        <v>-444.7848266581055</v>
       </c>
       <c r="U45" t="n">
-        <v>77339.27415439881</v>
+        <v>2527.991217732389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="n">
         <v>161.13</v>
@@ -3414,60 +3416,60 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>25.79299140563064</v>
+        <v>116.1780922270488</v>
       </c>
       <c r="F46" t="n">
-        <v>21.98926931235163</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1713.616357654791</v>
+        <v>4262.341501997304</v>
       </c>
       <c r="H46" t="n">
-        <v>82.82357514794408</v>
+        <v>0.009286560547287099</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.639989848981</v>
       </c>
       <c r="J46" t="n">
-        <v>52.13103615847438</v>
+        <v>306.1029696608516</v>
       </c>
       <c r="K46" t="n">
-        <v>96.69141784953581</v>
+        <v>59.10813690416434</v>
       </c>
       <c r="L46" t="n">
-        <v>12.40536552622816</v>
+        <v>24.35397893610373</v>
       </c>
       <c r="M46" t="n">
-        <v>1.21124043158442</v>
+        <v>13.95553225717119</v>
       </c>
       <c r="N46" t="n">
-        <v>535.6028415455415</v>
+        <v>9.478112732523289</v>
       </c>
       <c r="O46" t="n">
-        <v>430.2572535664561</v>
+        <v>1349.536404212526</v>
       </c>
       <c r="P46" t="n">
-        <v>101284.1800866482</v>
+        <v>4636.824259656273</v>
       </c>
       <c r="Q46" t="n">
-        <v>69556.13244019751</v>
+        <v>22410.64723099138</v>
       </c>
       <c r="R46" t="n">
-        <v>63290.27368876392</v>
+        <v>40328.93589688682</v>
       </c>
       <c r="S46" t="n">
-        <v>3939.965319858819</v>
+        <v>4688.585446528032</v>
       </c>
       <c r="T46" t="n">
-        <v>3593.103038090586</v>
+        <v>198.3510710744927</v>
       </c>
       <c r="U46" t="n">
-        <v>91027.16662309457</v>
+        <v>3569.135865218476</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="n">
         <v>161.13</v>
@@ -3479,60 +3481,60 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>129.0321431599201</v>
       </c>
       <c r="F47" t="n">
-        <v>4.533149147962494</v>
+        <v>10.49838284294058</v>
       </c>
       <c r="G47" t="n">
-        <v>2571.654478431561</v>
+        <v>2021.337045508553</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1001767133520385</v>
+        <v>20.65563780689995</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.1791825289384943</v>
       </c>
       <c r="J47" t="n">
-        <v>283.5297058756084</v>
+        <v>10.30169457960165</v>
       </c>
       <c r="K47" t="n">
-        <v>21.70261972641157</v>
+        <v>22.18612060401073</v>
       </c>
       <c r="L47" t="n">
-        <v>35.96145517448165</v>
+        <v>4.736435094616886</v>
       </c>
       <c r="M47" t="n">
-        <v>2.865396550329686</v>
+        <v>1.885026218527828</v>
       </c>
       <c r="N47" t="n">
-        <v>1710.031428520229</v>
+        <v>2.889103243336648</v>
       </c>
       <c r="O47" t="n">
-        <v>178.0042316751928</v>
+        <v>31.89701946151572</v>
       </c>
       <c r="P47" t="n">
-        <v>105173.2361604437</v>
+        <v>3840</v>
       </c>
       <c r="Q47" t="n">
-        <v>68495.43853179376</v>
+        <v>23092.61116647812</v>
       </c>
       <c r="R47" t="n">
-        <v>64971.27151741625</v>
+        <v>41263.00569997941</v>
       </c>
       <c r="S47" t="n">
-        <v>2028.253588518155</v>
+        <v>406.5840970011454</v>
       </c>
       <c r="T47" t="n">
-        <v>4498.59556423716</v>
+        <v>13347.1381352313</v>
       </c>
       <c r="U47" t="n">
-        <v>85088.26422284545</v>
+        <v>1445.511658874348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="n">
         <v>161.13</v>
@@ -3544,60 +3546,60 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>656.5148861954269</v>
       </c>
       <c r="F48" t="n">
-        <v>63.20286955746886</v>
+        <v>15.41893769943464</v>
       </c>
       <c r="G48" t="n">
-        <v>2724.632252162231</v>
+        <v>934.6539842256899</v>
       </c>
       <c r="H48" t="n">
-        <v>359.7459112482119</v>
+        <v>330.4580989775253</v>
       </c>
       <c r="I48" t="n">
-        <v>118.7308074384562</v>
+        <v>71.54131657809681</v>
       </c>
       <c r="J48" t="n">
-        <v>220.8969125036751</v>
+        <v>397.9466729702804</v>
       </c>
       <c r="K48" t="n">
-        <v>19.04076893368635</v>
+        <v>33.1403750399576</v>
       </c>
       <c r="L48" t="n">
-        <v>3.947068978960421</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.2669832950786622</v>
+        <v>6.150121347235943</v>
       </c>
       <c r="N48" t="n">
-        <v>115.3529557542608</v>
+        <v>1690.506146903977</v>
       </c>
       <c r="O48" t="n">
-        <v>733.7944568514501</v>
+        <v>331.4596871547382</v>
       </c>
       <c r="P48" t="n">
-        <v>113600.6405188628</v>
+        <v>3840</v>
       </c>
       <c r="Q48" t="n">
-        <v>72927.60350951311</v>
+        <v>22572.19538117494</v>
       </c>
       <c r="R48" t="n">
-        <v>70641.29469707877</v>
+        <v>40909.9400217388</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>11035.00755355798</v>
       </c>
       <c r="T48" t="n">
-        <v>3084.378163410443</v>
+        <v>-2473.643297777443</v>
       </c>
       <c r="U48" t="n">
-        <v>104224.300648029</v>
+        <v>-6261.855753595142</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="n">
         <v>224.61</v>
@@ -3609,55 +3611,55 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>18.47410047082279</v>
+        <v>223.4107597466317</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>25.12371231977227</v>
       </c>
       <c r="G49" t="n">
-        <v>908.744819466295</v>
+        <v>4793.9202752439</v>
       </c>
       <c r="H49" t="n">
-        <v>76.44403602525618</v>
+        <v>123.4358472622947</v>
       </c>
       <c r="I49" t="n">
-        <v>371.9309518920634</v>
+        <v>370.9989997861109</v>
       </c>
       <c r="J49" t="n">
-        <v>16.53652596849043</v>
+        <v>172.6339236468293</v>
       </c>
       <c r="K49" t="n">
-        <v>29.27607353394956</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7799767589388438</v>
+        <v>5.359404208536763</v>
       </c>
       <c r="M49" t="n">
-        <v>2.496097097010557</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>327.6126429956475</v>
+        <v>524.7560922558743</v>
       </c>
       <c r="O49" t="n">
-        <v>664.3690884598833</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>117766.8697436403</v>
+        <v>8564.813629420694</v>
       </c>
       <c r="Q49" t="n">
-        <v>71590.48893270202</v>
+        <v>23432.01530846512</v>
       </c>
       <c r="R49" t="n">
-        <v>71002.36922901821</v>
+        <v>46752.8485755336</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>7028.480817842559</v>
       </c>
       <c r="T49" t="n">
-        <v>3557.557629558733</v>
+        <v>0.4819775551422936</v>
       </c>
       <c r="U49" t="n">
-        <v>103669.9065827207</v>
+        <v>6439.125394722928</v>
       </c>
     </row>
     <row r="50">
@@ -3674,37 +3676,37 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>310.4980004297483</v>
+        <v>101.2009057219943</v>
       </c>
       <c r="F50" t="n">
-        <v>164.2225082548343</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>12516.99969665815</v>
+        <v>7991.138408106798</v>
       </c>
       <c r="H50" t="n">
-        <v>26.2650190348583</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>617.5182819074947</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>613.4755180258808</v>
+        <v>345.8035862153402</v>
       </c>
       <c r="K50" t="n">
-        <v>5.945630863075285</v>
+        <v>64.78898526957559</v>
       </c>
       <c r="L50" t="n">
-        <v>17.60769550544161</v>
+        <v>124.8570867148023</v>
       </c>
       <c r="M50" t="n">
-        <v>4.420170998822942</v>
+        <v>1.843976199041513</v>
       </c>
       <c r="N50" t="n">
-        <v>573.5919253665245</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>3107.970775899848</v>
+        <v>1845.50196090435</v>
       </c>
       <c r="P50" t="n">
         <v>6666.666666666667</v>
@@ -3719,10 +3721,10 @@
         <v>666.6666666666666</v>
       </c>
       <c r="T50" t="n">
-        <v>15366.39136087204</v>
+        <v>10246.3037417897</v>
       </c>
       <c r="U50" t="n">
-        <v>6884.173082204628</v>
+        <v>8300.150981690404</v>
       </c>
     </row>
     <row r="51">
@@ -3739,55 +3741,55 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>88.26267569670514</v>
       </c>
       <c r="F51" t="n">
-        <v>13.87703991942004</v>
+        <v>5.377038584596514</v>
       </c>
       <c r="G51" t="n">
-        <v>393.6151386151768</v>
+        <v>6277.091804901136</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>225.1883898576646</v>
       </c>
       <c r="I51" t="n">
-        <v>988.6038578433779</v>
+        <v>1648.730838154755</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>172.6443946864435</v>
       </c>
       <c r="K51" t="n">
-        <v>4.794454742602515</v>
+        <v>5.157854058307895</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>103.1434624196873</v>
       </c>
       <c r="M51" t="n">
-        <v>1.177728462307623</v>
+        <v>1.501105979127624</v>
       </c>
       <c r="N51" t="n">
-        <v>3208.740190382738</v>
+        <v>287.7738722780915</v>
       </c>
       <c r="O51" t="n">
-        <v>224.5140309840224</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>10615.03657310454</v>
+        <v>3922.908128028436</v>
       </c>
       <c r="Q51" t="n">
-        <v>13611.85553857481</v>
+        <v>6366.565481859486</v>
       </c>
       <c r="R51" t="n">
-        <v>5489.236407941238</v>
+        <v>2770.409223654824</v>
       </c>
       <c r="S51" t="n">
-        <v>3315.15060979087</v>
+        <v>2780.982996328764</v>
       </c>
       <c r="T51" t="n">
-        <v>787.2302772303536</v>
+        <v>11046.58667542301</v>
       </c>
       <c r="U51" t="n">
-        <v>-8377.261747942694</v>
+        <v>2131.626092905215</v>
       </c>
     </row>
     <row r="52">
@@ -3804,55 +3806,55 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>183.3944229993742</v>
+        <v>208.0016824920764</v>
       </c>
       <c r="F52" t="n">
-        <v>60.17108482557578</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3647.48487740435</v>
       </c>
       <c r="H52" t="n">
-        <v>24.65825809359479</v>
+        <v>1.50231538219372</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2172.509441366008</v>
       </c>
       <c r="J52" t="n">
-        <v>133.3648336443684</v>
+        <v>101.4938050656911</v>
       </c>
       <c r="K52" t="n">
-        <v>79.53129390419238</v>
+        <v>37.84329695500698</v>
       </c>
       <c r="L52" t="n">
-        <v>5.92167001520069</v>
+        <v>8.350790093664749</v>
       </c>
       <c r="M52" t="n">
-        <v>29.91027268037967</v>
+        <v>0.06525522653146576</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>182.9858003275781</v>
       </c>
       <c r="O52" t="n">
-        <v>801.6842225147409</v>
+        <v>313.0725085117193</v>
       </c>
       <c r="P52" t="n">
-        <v>15296.82396477339</v>
+        <v>4303.668965090565</v>
       </c>
       <c r="Q52" t="n">
-        <v>25458.5254389536</v>
+        <v>7812.960331009162</v>
       </c>
       <c r="R52" t="n">
-        <v>16928.5473831593</v>
+        <v>4157.418400197125</v>
       </c>
       <c r="S52" t="n">
-        <v>2871.810696083461</v>
+        <v>7027.093411430167</v>
       </c>
       <c r="T52" t="n">
-        <v>49.31651618718958</v>
+        <v>-41.0638972074712</v>
       </c>
       <c r="U52" t="n">
-        <v>8918.78353646737</v>
+        <v>-3034.826702718819</v>
       </c>
     </row>
     <row r="53">
@@ -3869,55 +3871,55 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>37.58303428793852</v>
+        <v>419.74971043831</v>
       </c>
       <c r="F53" t="n">
-        <v>121.526250677589</v>
+        <v>56.35474183573385</v>
       </c>
       <c r="G53" t="n">
-        <v>3527.122866209</v>
+        <v>11162.79009837568</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>184.5752233755369</v>
       </c>
       <c r="I53" t="n">
-        <v>414.7689870582473</v>
+        <v>234.7500184650944</v>
       </c>
       <c r="J53" t="n">
-        <v>43.59421094856489</v>
+        <v>404.8055433584422</v>
       </c>
       <c r="K53" t="n">
-        <v>7.591056881024759</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>2.302371875398446</v>
+        <v>35.44219662307314</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6182088367991423</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>951.6627571204111</v>
+        <v>241.4186173339094</v>
       </c>
       <c r="O53" t="n">
-        <v>1159.782348829112</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>19884.68836188043</v>
+        <v>7192.26939579983</v>
       </c>
       <c r="Q53" t="n">
-        <v>22075.02917328789</v>
+        <v>8143.70207893597</v>
       </c>
       <c r="R53" t="n">
-        <v>17535.05060336525</v>
+        <v>5067.895664360038</v>
       </c>
       <c r="S53" t="n">
-        <v>2817.396088582986</v>
+        <v>3111.400815111576</v>
       </c>
       <c r="T53" t="n">
-        <v>6029.36045160542</v>
+        <v>11868.39341583569</v>
       </c>
       <c r="U53" t="n">
-        <v>11173.67946454508</v>
+        <v>9082.19948203328</v>
       </c>
     </row>
     <row r="54">
@@ -3934,55 +3936,55 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>172.1880899257743</v>
       </c>
       <c r="F54" t="n">
-        <v>183.797282672197</v>
+        <v>12.63173094793796</v>
       </c>
       <c r="G54" t="n">
-        <v>36.78783763547558</v>
+        <v>2933.711093838708</v>
       </c>
       <c r="H54" t="n">
-        <v>114.5199202539207</v>
+        <v>35.29848119078972</v>
       </c>
       <c r="I54" t="n">
-        <v>62.07517037812186</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>165.8689241420167</v>
+        <v>292.4128790190093</v>
       </c>
       <c r="K54" t="n">
-        <v>123.044667956512</v>
+        <v>0.4809592621412938</v>
       </c>
       <c r="L54" t="n">
-        <v>31.36841385361957</v>
+        <v>3.162551965116396</v>
       </c>
       <c r="M54" t="n">
-        <v>2.319725299739873</v>
+        <v>0.2547321377068215</v>
       </c>
       <c r="N54" t="n">
-        <v>242.8980870503347</v>
+        <v>704.794735073962</v>
       </c>
       <c r="O54" t="n">
-        <v>2157.215635706577</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>25833.08322493995</v>
+        <v>6176.003673723176</v>
       </c>
       <c r="Q54" t="n">
-        <v>24608.10827240891</v>
+        <v>11495.09117624252</v>
       </c>
       <c r="R54" t="n">
-        <v>21740.0554960641</v>
+        <v>6004.242426056338</v>
       </c>
       <c r="S54" t="n">
-        <v>181.6271702840434</v>
+        <v>3570.313729446913</v>
       </c>
       <c r="T54" t="n">
-        <v>550.7500358361252</v>
+        <v>210.2223341552949</v>
       </c>
       <c r="U54" t="n">
-        <v>18129.59668656202</v>
+        <v>277.503219207533</v>
       </c>
     </row>
     <row r="55">
@@ -3999,55 +4001,55 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>139.1091395990085</v>
+        <v>716.0552630626011</v>
       </c>
       <c r="F55" t="n">
-        <v>31.96206997798553</v>
+        <v>56.09431002787969</v>
       </c>
       <c r="G55" t="n">
-        <v>1.817306929075263</v>
+        <v>1525.406467312132</v>
       </c>
       <c r="H55" t="n">
-        <v>288.2713222443316</v>
+        <v>189.9537412010048</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1067.501358704661</v>
       </c>
       <c r="J55" t="n">
-        <v>393.4780263721622</v>
+        <v>42.30451410575078</v>
       </c>
       <c r="K55" t="n">
-        <v>94.62385810657003</v>
+        <v>175.0214499336559</v>
       </c>
       <c r="L55" t="n">
-        <v>13.96796521741148</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>8.177030618297154</v>
+        <v>43.54510418751471</v>
       </c>
       <c r="N55" t="n">
-        <v>854.2761485354473</v>
+        <v>74.75005014904609</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>531.92980633791</v>
       </c>
       <c r="P55" t="n">
-        <v>29755.46923095652</v>
+        <v>6700.507275084315</v>
       </c>
       <c r="Q55" t="n">
-        <v>23233.1198177494</v>
+        <v>10595.27626548123</v>
       </c>
       <c r="R55" t="n">
-        <v>24401.13891025843</v>
+        <v>8437.726366171179</v>
       </c>
       <c r="S55" t="n">
-        <v>555.4863609901016</v>
+        <v>659.6638885045902</v>
       </c>
       <c r="T55" t="n">
-        <v>580.1772583468137</v>
+        <v>3394.094000671277</v>
       </c>
       <c r="U55" t="n">
-        <v>17296.3292997922</v>
+        <v>1061.210381195083</v>
       </c>
     </row>
     <row r="56">
@@ -4064,55 +4066,55 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>618.8554490394883</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>55.31802892059861</v>
+        <v>79.70421074846541</v>
       </c>
       <c r="G56" t="n">
-        <v>674.6670456936</v>
+        <v>4034.479627266926</v>
       </c>
       <c r="H56" t="n">
-        <v>10.45909854177097</v>
+        <v>84.56830043621746</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>161.1188697844522</v>
       </c>
       <c r="J56" t="n">
-        <v>623.1560328314133</v>
+        <v>129.8699880421975</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>39.17251071388909</v>
       </c>
       <c r="L56" t="n">
-        <v>12.70393026170583</v>
+        <v>5.260211724043195</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>2.262910529626244</v>
       </c>
       <c r="N56" t="n">
-        <v>542.9868123415317</v>
+        <v>736.9350434596535</v>
       </c>
       <c r="O56" t="n">
-        <v>765.5280608299263</v>
+        <v>2032.607912356848</v>
       </c>
       <c r="P56" t="n">
-        <v>34806.91435061226</v>
+        <v>5501.493215003557</v>
       </c>
       <c r="Q56" t="n">
-        <v>25405.18017675408</v>
+        <v>8830.684555636428</v>
       </c>
       <c r="R56" t="n">
-        <v>27231.21594182182</v>
+        <v>9153.542953644494</v>
       </c>
       <c r="S56" t="n">
-        <v>247.6286101363345</v>
+        <v>2231.916381144276</v>
       </c>
       <c r="T56" t="n">
-        <v>909.1710590031281</v>
+        <v>2594.753746838281</v>
       </c>
       <c r="U56" t="n">
-        <v>24661.89105229272</v>
+        <v>-822.7850648081628</v>
       </c>
     </row>
     <row r="57">
@@ -4129,55 +4131,55 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>229.3443739273984</v>
+        <v>28.79200012101008</v>
       </c>
       <c r="F57" t="n">
-        <v>44.2628107910592</v>
+        <v>66.62588460261281</v>
       </c>
       <c r="G57" t="n">
-        <v>3300.955190389063</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>29.09539101094765</v>
+        <v>232.2449785378714</v>
       </c>
       <c r="I57" t="n">
-        <v>951.3840545519771</v>
+        <v>1174.862876758358</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8195393940572656</v>
+        <v>227.8944690296638</v>
       </c>
       <c r="K57" t="n">
-        <v>53.81003405754869</v>
+        <v>60.84019428824575</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1588678780887074</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>14.58466106347488</v>
+        <v>10.74384431884936</v>
       </c>
       <c r="N57" t="n">
-        <v>692.891812575414</v>
+        <v>23.98069692785146</v>
       </c>
       <c r="O57" t="n">
-        <v>885.2120733436907</v>
+        <v>318.2505991306595</v>
       </c>
       <c r="P57" t="n">
-        <v>38646.91435061226</v>
+        <v>7726.76798912751</v>
       </c>
       <c r="Q57" t="n">
-        <v>26303.90102114638</v>
+        <v>5880.586569285794</v>
       </c>
       <c r="R57" t="n">
-        <v>29593.07167334946</v>
+        <v>13468.66583003448</v>
       </c>
       <c r="S57" t="n">
-        <v>455.8665663740466</v>
+        <v>621.1222288526078</v>
       </c>
       <c r="T57" t="n">
-        <v>8647.7270697977</v>
+        <v>14.10429125056353</v>
       </c>
       <c r="U57" t="n">
-        <v>31580.22636938052</v>
+        <v>1626.890702704404</v>
       </c>
     </row>
     <row r="58">
@@ -4194,55 +4196,55 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>394.8744316072913</v>
+        <v>284.7904309586191</v>
       </c>
       <c r="F58" t="n">
-        <v>193.1781966477638</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2348.489689405417</v>
+        <v>4236.894064507896</v>
       </c>
       <c r="H58" t="n">
-        <v>340.3153579721799</v>
+        <v>130.3631046837283</v>
       </c>
       <c r="I58" t="n">
-        <v>36.88382150590941</v>
+        <v>54.68237280885355</v>
       </c>
       <c r="J58" t="n">
-        <v>108.2033509017528</v>
+        <v>360.4555968621393</v>
       </c>
       <c r="K58" t="n">
-        <v>140.1983775328386</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>17.48871565073739</v>
+        <v>42.48167502694776</v>
       </c>
       <c r="M58" t="n">
-        <v>9.503555226107512</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1714.866914821065</v>
+        <v>26.80327732963065</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>220.3400644627152</v>
       </c>
       <c r="P58" t="n">
-        <v>42495.94168490668</v>
+        <v>3844.956318687041</v>
       </c>
       <c r="Q58" t="n">
-        <v>27838.6208595691</v>
+        <v>4904.882528677646</v>
       </c>
       <c r="R58" t="n">
-        <v>32538.82400097237</v>
+        <v>13715.47000155621</v>
       </c>
       <c r="S58" t="n">
-        <v>5452.582638048331</v>
+        <v>387.5854482330977</v>
       </c>
       <c r="T58" t="n">
-        <v>5377.610094755194</v>
+        <v>5459.758100182005</v>
       </c>
       <c r="U58" t="n">
-        <v>29712.51606185822</v>
+        <v>1299.076128378148</v>
       </c>
     </row>
     <row r="59">
@@ -4259,55 +4261,55 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>105.3128375184177</v>
+        <v>100.8673526170359</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>4.546698899463134</v>
       </c>
       <c r="G59" t="n">
-        <v>1866.061637208897</v>
+        <v>915.221114252128</v>
       </c>
       <c r="H59" t="n">
-        <v>85.59601462793565</v>
+        <v>8.583512962068932</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>810.4537075410741</v>
       </c>
       <c r="J59" t="n">
-        <v>347.466458413804</v>
+        <v>430.6734393999947</v>
       </c>
       <c r="K59" t="n">
-        <v>220.7098722926987</v>
+        <v>100.2864759900092</v>
       </c>
       <c r="L59" t="n">
-        <v>65.86657347151402</v>
+        <v>68.02974194755478</v>
       </c>
       <c r="M59" t="n">
-        <v>19.17555852319086</v>
+        <v>8.102524608224154</v>
       </c>
       <c r="N59" t="n">
-        <v>138.0990564996174</v>
+        <v>16.22823846906925</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>30.30363095263531</v>
       </c>
       <c r="P59" t="n">
-        <v>47421.46156897405</v>
+        <v>5065.4631360737</v>
       </c>
       <c r="Q59" t="n">
-        <v>33605.43934084888</v>
+        <v>5329.857948967807</v>
       </c>
       <c r="R59" t="n">
-        <v>38332.5372396106</v>
+        <v>14031.05114017248</v>
       </c>
       <c r="S59" t="n">
-        <v>2596.038920190141</v>
+        <v>1411.206719347221</v>
       </c>
       <c r="T59" t="n">
-        <v>3807.393604050904</v>
+        <v>386.4618984941729</v>
       </c>
       <c r="U59" t="n">
-        <v>39338.05529565786</v>
+        <v>-227.3530533890843</v>
       </c>
     </row>
     <row r="60">
@@ -4324,55 +4326,55 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>70.56348868078324</v>
+        <v>544.7933133190093</v>
       </c>
       <c r="F60" t="n">
-        <v>122.1680756673442</v>
+        <v>24.25259062678778</v>
       </c>
       <c r="G60" t="n">
-        <v>1350.188482746885</v>
+        <v>3667.014531168459</v>
       </c>
       <c r="H60" t="n">
-        <v>225.7408620518848</v>
+        <v>7.221871686258459</v>
       </c>
       <c r="I60" t="n">
-        <v>1051.383582234145</v>
+        <v>125.6147614484992</v>
       </c>
       <c r="J60" t="n">
-        <v>12.63478306376658</v>
+        <v>419.5939638714306</v>
       </c>
       <c r="K60" t="n">
-        <v>205.999273590738</v>
+        <v>26.26166385571355</v>
       </c>
       <c r="L60" t="n">
-        <v>0.6575384153013594</v>
+        <v>69.03455663794996</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1.67503519535963</v>
       </c>
       <c r="N60" t="n">
-        <v>279.9104036170839</v>
+        <v>286.2245607159496</v>
       </c>
       <c r="O60" t="n">
-        <v>480.4332403669656</v>
+        <v>26.87083495964058</v>
       </c>
       <c r="P60" t="n">
-        <v>51261.46156897405</v>
+        <v>4001.498759796822</v>
       </c>
       <c r="Q60" t="n">
-        <v>32605.97010565766</v>
+        <v>5615.986349014159</v>
       </c>
       <c r="R60" t="n">
-        <v>38720.73000327558</v>
+        <v>14250.77678322055</v>
       </c>
       <c r="S60" t="n">
-        <v>636.2063281546283</v>
+        <v>837.1269664349871</v>
       </c>
       <c r="T60" t="n">
-        <v>5061.466945372224</v>
+        <v>11213.78945027953</v>
       </c>
       <c r="U60" t="n">
-        <v>42552.71124927932</v>
+        <v>1029.852757673292</v>
       </c>
     </row>
     <row r="61">
@@ -4389,55 +4391,55 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>41.62228459885934</v>
+        <v>854.243629571765</v>
       </c>
       <c r="F61" t="n">
-        <v>24.20336888441294</v>
+        <v>8.747123335778577</v>
       </c>
       <c r="G61" t="n">
-        <v>13.92781502240275</v>
+        <v>431.7196455737761</v>
       </c>
       <c r="H61" t="n">
-        <v>45.98664331572025</v>
+        <v>10.0089788468171</v>
       </c>
       <c r="I61" t="n">
-        <v>505.0952737874338</v>
+        <v>1575.640976180904</v>
       </c>
       <c r="J61" t="n">
-        <v>567.8956060373234</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>20.50885859701325</v>
+        <v>23.20510368784999</v>
       </c>
       <c r="L61" t="n">
-        <v>0.004675828786531453</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1.804712579237793</v>
+        <v>2.13202668792985</v>
       </c>
       <c r="N61" t="n">
-        <v>480.8216666497946</v>
+        <v>632.2908646448288</v>
       </c>
       <c r="O61" t="n">
-        <v>1287.814065006728</v>
+        <v>707.1689083593712</v>
       </c>
       <c r="P61" t="n">
-        <v>55658.85366212199</v>
+        <v>4903.44517626564</v>
       </c>
       <c r="Q61" t="n">
-        <v>31545.15443838663</v>
+        <v>6190.393094113972</v>
       </c>
       <c r="R61" t="n">
-        <v>39744.13456424193</v>
+        <v>15409.38086292457</v>
       </c>
       <c r="S61" t="n">
-        <v>3907.992378212415</v>
+        <v>7919.705337873673</v>
       </c>
       <c r="T61" t="n">
-        <v>610.2673959049206</v>
+        <v>-434.3512678042756</v>
       </c>
       <c r="U61" t="n">
-        <v>43397.98283312484</v>
+        <v>-4008.428430855552</v>
       </c>
     </row>
     <row r="62">
@@ -4454,55 +4456,55 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>15.01766100255022</v>
+        <v>975.9851185087889</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>73.26475999998648</v>
       </c>
       <c r="G62" t="n">
-        <v>1401.434698605463</v>
+        <v>1382.543814291956</v>
       </c>
       <c r="H62" t="n">
-        <v>39.60248337228925</v>
+        <v>158.8006368352494</v>
       </c>
       <c r="I62" t="n">
-        <v>37.54062137851606</v>
+        <v>162.2911176706384</v>
       </c>
       <c r="J62" t="n">
-        <v>663.9600814772033</v>
+        <v>48.29751069270735</v>
       </c>
       <c r="K62" t="n">
-        <v>146.8423260530834</v>
+        <v>86.0929193672536</v>
       </c>
       <c r="L62" t="n">
-        <v>198.1940762398333</v>
+        <v>0.4652855035612593</v>
       </c>
       <c r="M62" t="n">
-        <v>23.39118677605314</v>
+        <v>5.069592495873915</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>430.7419658282751</v>
       </c>
       <c r="O62" t="n">
-        <v>3091.948088370804</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>59498.85366212199</v>
+        <v>7022.107025984703</v>
       </c>
       <c r="Q62" t="n">
-        <v>31761.84285009437</v>
+        <v>3756.964755900261</v>
       </c>
       <c r="R62" t="n">
-        <v>42175.33863194728</v>
+        <v>18106.63666747505</v>
       </c>
       <c r="S62" t="n">
-        <v>3295.386761597523</v>
+        <v>6927.540817860599</v>
       </c>
       <c r="T62" t="n">
-        <v>2877.178878059755</v>
+        <v>-949.4744485770077</v>
       </c>
       <c r="U62" t="n">
-        <v>48921.88190597947</v>
+        <v>1292.837489159485</v>
       </c>
     </row>
     <row r="63">
@@ -4519,55 +4521,55 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>434.1434788577708</v>
+        <v>169.692859158819</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>93.22692779802409</v>
       </c>
       <c r="G63" t="n">
-        <v>193.090556081473</v>
+        <v>622.8572623898734</v>
       </c>
       <c r="H63" t="n">
-        <v>331.2496113055966</v>
+        <v>1.106370072511599</v>
       </c>
       <c r="I63" t="n">
-        <v>496.8825798153842</v>
+        <v>1221.681600294732</v>
       </c>
       <c r="J63" t="n">
-        <v>61.06087454163514</v>
+        <v>216.0153411100833</v>
       </c>
       <c r="K63" t="n">
-        <v>7.066677416223642</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>48.13487780953289</v>
+        <v>115.7433031611225</v>
       </c>
       <c r="M63" t="n">
-        <v>2.243542304920084</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>12.20737473608354</v>
+        <v>27.79195563231719</v>
       </c>
       <c r="O63" t="n">
-        <v>258.1772842880118</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>63338.85366212199</v>
+        <v>6493.426901900232</v>
       </c>
       <c r="Q63" t="n">
-        <v>34495.95214161577</v>
+        <v>4707.822653302763</v>
       </c>
       <c r="R63" t="n">
-        <v>45278.95866644802</v>
+        <v>19451.61384049908</v>
       </c>
       <c r="S63" t="n">
-        <v>1765.822073853987</v>
+        <v>4262.569924727076</v>
       </c>
       <c r="T63" t="n">
-        <v>931.3518166253625</v>
+        <v>-371.6902777680375</v>
       </c>
       <c r="U63" t="n">
-        <v>55524.2321453387</v>
+        <v>-2218.63930018203</v>
       </c>
     </row>
     <row r="64">
@@ -4584,55 +4586,55 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>401.8668601866083</v>
+        <v>852.932762410259</v>
       </c>
       <c r="F64" t="n">
-        <v>64.66128927176003</v>
+        <v>0.4372049773110084</v>
       </c>
       <c r="G64" t="n">
-        <v>2380.612686703829</v>
+        <v>3341.028774443175</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>213.4149767157259</v>
       </c>
       <c r="I64" t="n">
-        <v>151.22019975807</v>
+        <v>239.4520850582302</v>
       </c>
       <c r="J64" t="n">
-        <v>5.618714815701615</v>
+        <v>88.90304042144443</v>
       </c>
       <c r="K64" t="n">
-        <v>48.93837851455594</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1.084620298638272</v>
+        <v>0.941056592500048</v>
       </c>
       <c r="M64" t="n">
-        <v>1.859619148214074</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>290.4107541239075</v>
+        <v>333.1396531493629</v>
       </c>
       <c r="O64" t="n">
-        <v>485.9779827946545</v>
+        <v>2993.091715100537</v>
       </c>
       <c r="P64" t="n">
-        <v>67186.18230885806</v>
+        <v>7189.956860052705</v>
       </c>
       <c r="Q64" t="n">
-        <v>33784.75890681821</v>
+        <v>6640.808290610905</v>
       </c>
       <c r="R64" t="n">
-        <v>45286.2670669175</v>
+        <v>19803.08345575971</v>
       </c>
       <c r="S64" t="n">
-        <v>1324.014871277647</v>
+        <v>3182.368045344944</v>
       </c>
       <c r="T64" t="n">
-        <v>3108.075693940047</v>
+        <v>676.6619075724338</v>
       </c>
       <c r="U64" t="n">
-        <v>60695.00328768833</v>
+        <v>4718.865262259758</v>
       </c>
     </row>
     <row r="65">
@@ -4649,55 +4651,55 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>308.6582029462921</v>
+        <v>972.6808495793908</v>
       </c>
       <c r="F65" t="n">
-        <v>51.19749231420338</v>
+        <v>32.81997909904528</v>
       </c>
       <c r="G65" t="n">
-        <v>9949.791597372672</v>
+        <v>2913.400552576531</v>
       </c>
       <c r="H65" t="n">
-        <v>40.56493677247471</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>14.68513092252674</v>
+        <v>425.9135529239682</v>
       </c>
       <c r="J65" t="n">
-        <v>105.2554431282182</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>63.17022924925959</v>
+        <v>149.3184906410881</v>
       </c>
       <c r="L65" t="n">
-        <v>0.547574238308614</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>4.650945659491139</v>
+        <v>39.2070766171175</v>
       </c>
       <c r="N65" t="n">
-        <v>610.2464987578171</v>
+        <v>314.1679164205442</v>
       </c>
       <c r="O65" t="n">
-        <v>239.8775418326523</v>
+        <v>25.12375384333171</v>
       </c>
       <c r="P65" t="n">
-        <v>71026.18230885806</v>
+        <v>4793.625367320433</v>
       </c>
       <c r="Q65" t="n">
-        <v>34004.64228391027</v>
+        <v>5553.359718149333</v>
       </c>
       <c r="R65" t="n">
-        <v>46290.45616215088</v>
+        <v>23415.26868070251</v>
       </c>
       <c r="S65" t="n">
-        <v>552.6816939713383</v>
+        <v>151.5927594698075</v>
       </c>
       <c r="T65" t="n">
-        <v>10104.99221999535</v>
+        <v>6831.932523000499</v>
       </c>
       <c r="U65" t="n">
-        <v>68879.1263007215</v>
+        <v>2708.687085134434</v>
       </c>
     </row>
     <row r="66">
@@ -4714,55 +4716,55 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>378.1300767379608</v>
+        <v>159.4834700071862</v>
       </c>
       <c r="F66" t="n">
-        <v>66.52734554475137</v>
+        <v>32.60940990577878</v>
       </c>
       <c r="G66" t="n">
-        <v>262.6831288294145</v>
+        <v>154.4501554030691</v>
       </c>
       <c r="H66" t="n">
-        <v>73.66480924766329</v>
+        <v>34.17270522371771</v>
       </c>
       <c r="I66" t="n">
-        <v>46.62086423053816</v>
+        <v>1612.316176184881</v>
       </c>
       <c r="J66" t="n">
-        <v>430.5061728770343</v>
+        <v>89.05912635333658</v>
       </c>
       <c r="K66" t="n">
-        <v>71.51035799327482</v>
+        <v>76.10774765569703</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>23.94511988841568</v>
       </c>
       <c r="M66" t="n">
-        <v>17.10538330428236</v>
+        <v>1.81182996578371</v>
       </c>
       <c r="N66" t="n">
-        <v>217.6272110732014</v>
+        <v>22.06038880179146</v>
       </c>
       <c r="O66" t="n">
-        <v>206.4583164227802</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>74893.09296698564</v>
+        <v>4114.462246266155</v>
       </c>
       <c r="Q66" t="n">
-        <v>38954.35303203273</v>
+        <v>6958.139406578416</v>
       </c>
       <c r="R66" t="n">
-        <v>48196.19881834499</v>
+        <v>24371.19997243944</v>
       </c>
       <c r="S66" t="n">
-        <v>427.6924254614137</v>
+        <v>3835.456150058851</v>
       </c>
       <c r="T66" t="n">
-        <v>423.7069484708362</v>
+        <v>-52.68573474706625</v>
       </c>
       <c r="U66" t="n">
-        <v>63522.47368062982</v>
+        <v>-8268.681957234965</v>
       </c>
     </row>
     <row r="67">
@@ -4779,60 +4781,60 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>212.4247348807519</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>23.43193221961119</v>
+        <v>0.6520822329452274</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2849.205306977498</v>
       </c>
       <c r="H67" t="n">
-        <v>39.18562064293229</v>
+        <v>19.16734260205715</v>
       </c>
       <c r="I67" t="n">
-        <v>428.7274146494904</v>
+        <v>800.6483060243245</v>
       </c>
       <c r="J67" t="n">
-        <v>28.97979745545068</v>
+        <v>139.8772619717355</v>
       </c>
       <c r="K67" t="n">
-        <v>159.485739239417</v>
+        <v>8.728769633742399</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>99.81209470350642</v>
       </c>
       <c r="M67" t="n">
-        <v>12.82258604650957</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1588.35490679842</v>
       </c>
       <c r="O67" t="n">
-        <v>1113.302465192756</v>
+        <v>435.6044153048425</v>
       </c>
       <c r="P67" t="n">
-        <v>79790.49426817484</v>
+        <v>9935.775762897214</v>
       </c>
       <c r="Q67" t="n">
-        <v>39767.45676649289</v>
+        <v>8511.316833208995</v>
       </c>
       <c r="R67" t="n">
-        <v>48689.06285874524</v>
+        <v>24300.7259841711</v>
       </c>
       <c r="S67" t="n">
-        <v>332.3782166911988</v>
+        <v>3545.632631273931</v>
       </c>
       <c r="T67" t="n">
-        <v>288.3531531518377</v>
+        <v>551.3649937733339</v>
       </c>
       <c r="U67" t="n">
-        <v>70432.00318733063</v>
+        <v>2761.679943404618</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
         <v>136.97</v>
@@ -4844,60 +4846,60 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>249.0136576591449</v>
+        <v>552.7523700749471</v>
       </c>
       <c r="F68" t="n">
-        <v>24.58770550964505</v>
+        <v>16.08993920271062</v>
       </c>
       <c r="G68" t="n">
-        <v>1173.754277708891</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>95.56857798766103</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>24.23948893810351</v>
+        <v>219.2664937752768</v>
       </c>
       <c r="J68" t="n">
-        <v>127.9512485182736</v>
+        <v>180.1282005077649</v>
       </c>
       <c r="K68" t="n">
-        <v>28.75899297051082</v>
+        <v>34.60805653755275</v>
       </c>
       <c r="L68" t="n">
-        <v>30.54000235296268</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>6.195578469005514</v>
+        <v>1.010797312556095</v>
       </c>
       <c r="N68" t="n">
-        <v>1931.773812637289</v>
+        <v>15.1393055239748</v>
       </c>
       <c r="O68" t="n">
-        <v>1451.357933332517</v>
+        <v>50.18367841456202</v>
       </c>
       <c r="P68" t="n">
-        <v>84403.58360377334</v>
+        <v>6334.391423232278</v>
       </c>
       <c r="Q68" t="n">
-        <v>38187.34473558114</v>
+        <v>10053.12270184041</v>
       </c>
       <c r="R68" t="n">
-        <v>49202.18937582508</v>
+        <v>30418.53231242007</v>
       </c>
       <c r="S68" t="n">
-        <v>563.3964988489124</v>
+        <v>1095.610432068393</v>
       </c>
       <c r="T68" t="n">
-        <v>5731.781548322781</v>
+        <v>179.5214263931978</v>
       </c>
       <c r="U68" t="n">
-        <v>65720.3881371941</v>
+        <v>1641.96402168924</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="n">
         <v>136.97</v>
@@ -4909,60 +4911,60 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>260.0784354667726</v>
+        <v>69.46798344523435</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04513500783416276</v>
+        <v>190.6699519976768</v>
       </c>
       <c r="G69" t="n">
-        <v>382.7332665855977</v>
+        <v>3220.827689001199</v>
       </c>
       <c r="H69" t="n">
-        <v>8.707426135076638</v>
+        <v>301.4264926832834</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>594.9368529024173</v>
       </c>
       <c r="J69" t="n">
-        <v>43.96956766466381</v>
+        <v>223.4269396732988</v>
       </c>
       <c r="K69" t="n">
-        <v>10.94106744476576</v>
+        <v>38.66511335280602</v>
       </c>
       <c r="L69" t="n">
-        <v>2.462243528714143</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>5.063245028753181</v>
+        <v>3.580889925142704</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>120.9809511286819</v>
       </c>
       <c r="O69" t="n">
-        <v>229.9056354422625</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>91457.51593062031</v>
+        <v>4403.294941644082</v>
       </c>
       <c r="Q69" t="n">
-        <v>43907.56313259383</v>
+        <v>10435.09022419039</v>
       </c>
       <c r="R69" t="n">
-        <v>56915.27096928828</v>
+        <v>30213.40008468816</v>
       </c>
       <c r="S69" t="n">
-        <v>4754.704934275392</v>
+        <v>1253.494229270511</v>
       </c>
       <c r="T69" t="n">
-        <v>1197.539053015564</v>
+        <v>2809.036035939374</v>
       </c>
       <c r="U69" t="n">
-        <v>83022.72674179618</v>
+        <v>1667.931809166951</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" t="n">
         <v>136.97</v>
@@ -4974,60 +4976,60 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>351.4836469572512</v>
+        <v>1047.48725251305</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>30.67960019577349</v>
       </c>
       <c r="G70" t="n">
-        <v>402.2693920373582</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>78.38618099364678</v>
+        <v>339.8603607016356</v>
       </c>
       <c r="I70" t="n">
-        <v>745.3645110835723</v>
+        <v>1370.134764831581</v>
       </c>
       <c r="J70" t="n">
-        <v>472.4926657241632</v>
+        <v>85.96625214624697</v>
       </c>
       <c r="K70" t="n">
-        <v>27.4284999779853</v>
+        <v>38.68382026595895</v>
       </c>
       <c r="L70" t="n">
-        <v>62.01295342036531</v>
+        <v>62.85186643662738</v>
       </c>
       <c r="M70" t="n">
-        <v>1.655206575637549</v>
+        <v>3.607209652977275</v>
       </c>
       <c r="N70" t="n">
-        <v>350.370215105894</v>
+        <v>773.9160711124395</v>
       </c>
       <c r="O70" t="n">
-        <v>237.907854561143</v>
+        <v>1488.998386374104</v>
       </c>
       <c r="P70" t="n">
-        <v>95541.11127031832</v>
+        <v>4361.165457360443</v>
       </c>
       <c r="Q70" t="n">
-        <v>41671.67778725295</v>
+        <v>12873.43159459448</v>
       </c>
       <c r="R70" t="n">
-        <v>56565.98920585331</v>
+        <v>30342.79116145567</v>
       </c>
       <c r="S70" t="n">
-        <v>3867.118541046385</v>
+        <v>497.7109035171133</v>
       </c>
       <c r="T70" t="n">
-        <v>1152.201464342707</v>
+        <v>312.4985147883215</v>
       </c>
       <c r="U70" t="n">
-        <v>81373.73685630799</v>
+        <v>-1050.855947244587</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="n">
         <v>136.97</v>
@@ -5039,60 +5041,60 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>922.6370124013572</v>
       </c>
       <c r="F71" t="n">
-        <v>25.13698294568405</v>
+        <v>26.32140879296127</v>
       </c>
       <c r="G71" t="n">
-        <v>234.1710546003779</v>
+        <v>9610.71111930113</v>
       </c>
       <c r="H71" t="n">
-        <v>74.88269814077402</v>
+        <v>109.2254362919358</v>
       </c>
       <c r="I71" t="n">
-        <v>387.7521192195059</v>
+        <v>1718.714863706981</v>
       </c>
       <c r="J71" t="n">
-        <v>228.0891071926687</v>
+        <v>308.6801219932786</v>
       </c>
       <c r="K71" t="n">
-        <v>18.96148819213636</v>
+        <v>21.30299360467616</v>
       </c>
       <c r="L71" t="n">
-        <v>71.94193270517498</v>
+        <v>6.3675122969215</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1966046807669505</v>
+        <v>3.085835650098496</v>
       </c>
       <c r="N71" t="n">
-        <v>457.0707196562107</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>731.5797579076649</v>
+        <v>414.6443668731129</v>
       </c>
       <c r="P71" t="n">
-        <v>100716.092283747</v>
+        <v>3840</v>
       </c>
       <c r="Q71" t="n">
-        <v>43809.73699099162</v>
+        <v>12698.79538872407</v>
       </c>
       <c r="R71" t="n">
-        <v>57685.72738584079</v>
+        <v>34322.94264709904</v>
       </c>
       <c r="S71" t="n">
-        <v>3128.625847847937</v>
+        <v>464.2198708459622</v>
       </c>
       <c r="T71" t="n">
-        <v>680.7089381661867</v>
+        <v>9278.927678289401</v>
       </c>
       <c r="U71" t="n">
-        <v>87126.56028186122</v>
+        <v>1792.401342526043</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" t="n">
         <v>136.97</v>
@@ -5104,60 +5106,60 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>277.9985897349359</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>161.1496289867536</v>
+        <v>85.35918846011585</v>
       </c>
       <c r="G72" t="n">
-        <v>9931.83106646439</v>
+        <v>12894.77968151665</v>
       </c>
       <c r="H72" t="n">
-        <v>175.021960383001</v>
+        <v>2.952752628124025</v>
       </c>
       <c r="I72" t="n">
-        <v>516.904838957689</v>
+        <v>189.1783549247262</v>
       </c>
       <c r="J72" t="n">
-        <v>421.5085469945675</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>88.04566950025733</v>
+        <v>18.96471127075462</v>
       </c>
       <c r="L72" t="n">
-        <v>24.63468254078476</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>3.372480356320658</v>
+        <v>21.11304388092541</v>
       </c>
       <c r="N72" t="n">
-        <v>7.124389072988532</v>
+        <v>190.7600122632083</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>2132.41495231201</v>
       </c>
       <c r="P72" t="n">
-        <v>105704.643364524</v>
+        <v>8190.153294157869</v>
       </c>
       <c r="Q72" t="n">
-        <v>44626.91277046708</v>
+        <v>18263.99581202662</v>
       </c>
       <c r="R72" t="n">
-        <v>59640.41981737976</v>
+        <v>34374.14323475982</v>
       </c>
       <c r="S72" t="n">
-        <v>2710.035764558106</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>12635.85515703923</v>
+        <v>16852.26932286521</v>
       </c>
       <c r="U72" t="n">
-        <v>102237.0168083098</v>
+        <v>13465.34778675967</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B73" t="n">
         <v>263.4</v>
@@ -5169,55 +5171,3220 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>104.5650072391676</v>
+        <v>489.1198069872991</v>
       </c>
       <c r="F73" t="n">
-        <v>141.4501461512545</v>
+        <v>72.50148006316319</v>
       </c>
       <c r="G73" t="n">
-        <v>796.7672088990209</v>
+        <v>4852.179716024529</v>
       </c>
       <c r="H73" t="n">
-        <v>56.2809993820972</v>
+        <v>63.44106946016871</v>
       </c>
       <c r="I73" t="n">
-        <v>680.3299476079161</v>
+        <v>1587.189056832569</v>
       </c>
       <c r="J73" t="n">
-        <v>378.5443240553344</v>
+        <v>196.1635603830221</v>
       </c>
       <c r="K73" t="n">
-        <v>26.05874896387958</v>
+        <v>44.44565349861886</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>14.37882386563515</v>
       </c>
       <c r="M73" t="n">
-        <v>1.366675861179867</v>
+        <v>2.407834973096409</v>
       </c>
       <c r="N73" t="n">
-        <v>727.5664089512019</v>
+        <v>721.3804456064404</v>
       </c>
       <c r="O73" t="n">
-        <v>2150.583690304486</v>
+        <v>701.9752384684073</v>
       </c>
       <c r="P73" t="n">
-        <v>109544.643364524</v>
+        <v>4594.194234411403</v>
       </c>
       <c r="Q73" t="n">
-        <v>49057.2887927882</v>
+        <v>20556.47640622589</v>
       </c>
       <c r="R73" t="n">
-        <v>59169.82096842521</v>
+        <v>36611.84526512068</v>
       </c>
       <c r="S73" t="n">
-        <v>47.44897650207828</v>
+        <v>3719.241943841573</v>
       </c>
       <c r="T73" t="n">
-        <v>4037.82715692064</v>
+        <v>1602.589607344969</v>
       </c>
       <c r="U73" t="n">
-        <v>93790.2576344985</v>
+        <v>585.4202455163481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>热电联产</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>燃气锅炉</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>电锅炉</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>地源热泵</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>空气源热泵</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>电制冷机</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>吸收式制冷机</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>地源热泵制冷比例</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>空气源热泵制冷比例</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>充放然气</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>充放电</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.1180130433730741</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04517241179575334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2236968382074477</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04755090611633836</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1217964743078177</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1139767671705375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04118548273655118</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1518971342618421</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1330549959147429</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1297394278922885</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02269027909107382</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1403393817143368</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09314048270638396</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2029476456395344</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4266385284379591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1872004227512855</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00308548355318857</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07951023400853427</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04808504859483076</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03247480410908948</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1098183692672027</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1150029911615409</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01610568245329122</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.04927833067934235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.4057944432398755</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04443087468378438</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.08431154648237416</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02457439300888588</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1224104170960437</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1567631234805873</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2105284292722641</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1334884619344056</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.005260999391138206</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2963542209617392</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1220444246227716</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05805443161177413</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.311451948299255</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5034359141912054</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3200255471200047</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.008161750341720701</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2185695505407382</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1600459219143196</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08767297836737695</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1388968165301058</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2211984630112689</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2941387122251377</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1076011898432686</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.05589991996357178</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2518129857898209</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06750079268252791</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2307470678344987</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2043503073190945</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2751511111021298</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1392682170792579</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.03423115435027468</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0310000605528196</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0964234600329176</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0195073082702313</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05456520984457527</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1234234871005314</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3729507743738473</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1237475956750769</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1561692757456641</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.214730280710516</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06262629095285743</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4431912163705817</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0177042806582201</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2339492611555267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.324687599289058</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01137312107131186</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.066277280988598</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.121203031423849</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1015804321292916</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03350034819786338</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.009679324941699598</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04023748564345228</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07864436158049389</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1191330609174515</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.1994291822068291</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1905227961484176</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07628912018559837</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.003295470846564989</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04440529852517973</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08083689492280019</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2686528928314241</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1695685240980524</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0109502404599167</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.06285951061371074</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03505815363184055</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1532765998895938</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.003233143298550969</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2176988924091035</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01237559516507037</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1289216819123811</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04167736837716122</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3949589187060655</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01070200542664389</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.09704069219927298</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.001067844464439558</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.04973874390734509</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.07365910898514627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.08911386268772516</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04786443448270955</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0402915421294435</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04813420973905654</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2064988345945891</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.110166659576778</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1613714748834843</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1825130691555827</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1337283376595948</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1801122156771111</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.06301472887913953</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3134364353053209</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05034156890559771</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04567833934769655</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.02819971306880362</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.005925693970303713</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1288342449411833</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1469286499527815</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.02588808988352737</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.03188047906721168</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6603842629108208</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1006820214157185</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2437885318907519</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03701154428060638</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4844360693601436</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1955131102089759</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5937655121419765</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5740120720319252</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.02662854317895091</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2307893501394389</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2696968775039081</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2238087295940655</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3323911825559611</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.236695798048668</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3357437818997896</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1751544823443776</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01709934378517833</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03018629456104416</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2903952150757099</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1225032615687405</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0509506331702276</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1975629089113891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.02451107513747083</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2883506561954913</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0005038558824120956</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03652872090186655</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2009111173158885</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3737769610639222</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.07256187076600094</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1142044115416871</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08271733060877379</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01554183608864737</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.07015847424400146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.07738877151606031</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.01006147809864322</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2029367848750877</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09565245721845272</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03298227744828881</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.09366172593053204</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3049061104141889</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2209953712007982</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01002547412681852</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2515743543242587</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2700420307957753</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2929845834984213</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2016183150257727</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3809101341299916</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.07880672341429247</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2185268746050218</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.09539424881644089</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3368201302818593</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2351261964952239</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1905801333372095</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0439186436485661</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1453110556548129</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4812115090564972</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.08501424540406601</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1258895020591728</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.127208049405384</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.2356915422096773</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03994455686845601</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3349835574741318</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1567869685485223</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1209900550681782</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2022442310698467</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.00276379514750389</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.08082541999216296</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03962702644361171</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.08590449490193494</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3278851309556983</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1050996733179794</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.116180385752543</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01544396355540112</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02806698337419555</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3015291074089901</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1244730385815108</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1236407765436587</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4020569451197486</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.007134069982186195</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02062121460305295</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.006160977563992771</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.006924019371681849</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1898822798958988</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2186492122603099</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1061252526914595</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3064391762741614</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2097182375416473</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0008617275131487624</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0190477914015868</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05241965250158432</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1022836205293942</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004156734186755178</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01374148380497094</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01501411105550363</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.09371793507924425</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3069173068207284</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.2731311426256087</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.09390916386193777</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1720988937710325</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.330434368120368</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05727123645132272</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.466922426727684</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01584910073475129</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0004102964298432253</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0007782446033311474</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.04139783432639831</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.05533207583296519</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.03518442051882105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1846713914420803</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1582184204485999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01055417273858287</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2589006852950715</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.337708717258094</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2190773972250437</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3172731949398722</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.09061705847521193</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.07449429311540136</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01009687323561792</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1955550349967925</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1211888280377316</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2269585618512007</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01472624438746883</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2101939273120379</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2962307518616502</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2037776527291815</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1534512517292016</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.09226623373996544</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02152984904920192</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2667522003359123</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.08607882372986456</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.09044878046838302</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0002350139658550663</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.004942391307874175</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02165315786087461</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4299147813652233</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7098686327661323</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2732667475490857</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02934907039408231</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1889801680638926</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01006981977081173</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02274672840812249</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.08011162733520474</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1285886320613596</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.01458088351362855</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1924460772335519</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.03887145485807753</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1500460714578063</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.00226216616343793</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1938882088707452</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05684160380065166</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.002232258441629529</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.254658119860256</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2558806473734791</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01485574433330675</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02827166798273078</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1792669115589309</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2155168631726407</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4774955990391966</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1302151447967177</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.002438592594900256</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3684460712415782</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1300496674821339</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1628953500293299</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2288868421946909</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1296985645946006</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.154527504448652</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02896494839794478</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1473047596178999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.06103744380142161</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.08781654936905318</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1383012534997188</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.003248365882145496</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2243411633665369</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03173697253086603</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.141742683931947</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1463934945108921</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.142008999519204</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1733129967647166</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.006326762974911405</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1267478846273978</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1209848366365525</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.05747695664966236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1353257712096924</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.07901211103841084</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.02368758583421711</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.04934910815842497</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2723704393712138</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.009109040611607331</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.001029965617729194</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.08047319989259097</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4504988910843551</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1341524935625238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.06022640983538852</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1150081717601073</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1682490552724548</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2269928854921338</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01916529121651862</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1133651540156189</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.08634476250619136</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.00292155168535391</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02839996803980468</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.04903068809822025</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.004127915374247677</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.01429912907280656</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.03999857996994009</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07488927002692024</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5042943434263855</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01159171988293211</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03594858774690475</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02402780902720348</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.03475229228778631</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.018707519772869</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2478783970496536</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.06058300516937526</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.036212916185185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.04541217519135504</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2534850495856506</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2140257126003054</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.08973655018493143</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1958926233061951</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.003857796889776209</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1517742753719101</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.05735702947237256</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.03138123052214707</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.1124067510106532</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1158525753780183</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.555833820980205</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.03049363868540884</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.002719069953821871</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05972609354090429</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.2515731014477295</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1297435243652792</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0706777080760444</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2695935053684855</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2424462304792318</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2198362798400255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.02158157855192418</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1675475385471799</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.196184105074354</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.188895461360255</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01898604834951624</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.03016087955184759</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02555245891012056</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1615179790395825</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01262779841538688</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.07025966041175614</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.1938628629366789</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.08272939463184964</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3781714937541241</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1335094744059667</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1172564001863947</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.07021835565005319</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.05967487879951484</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1035783110538784</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.05338429035993836</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.003818773724951459</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.159679654634328</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.1080970044912427</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.09034579806276055</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.07346099895802576</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.009935883112544064</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02084855184309082</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1303906148993176</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01550550885186686</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.06072721758003544</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.2854966853728322</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.05444301939648913</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.1612000654027351</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.02823126957623197</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1327444505829379</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.02783678168075042</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002232517936362388</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.008828432245722963</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.03962397020409832</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0211036995861071</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2556820106081697</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2765694298584314</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1215799994259209</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.130249524726314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.3047512024279702</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.009669277563505455</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3998075111651641</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1045508043049958</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3349063989462483</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.05858101372379285</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09582869166636586</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1471934582644209</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.121168795616243</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.04470696609996949</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3352976836519922</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3090842888257599</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.2387281764568741</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.2898930959340172</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1563129110905506</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1033213874807861</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0005061054877172604</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.08837607629790567</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2734322115723691</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.09348645011024202</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.007928874628872129</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.06264453952696084</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0196600126481144</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.3368556024986411</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.1652641953249014</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.09765711278155544</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.235222078154667</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.05853024228065359</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.03112104565005593</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1248164134946945</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.009934598423368005</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1081071217401803</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.06679589387227959</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3356393974658086</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1796994973331729</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.04935241332346239</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.03781550276116031</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.03891405028194957</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.04010697449223329</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0765685271519196</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2095019924625071</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.03841133818282183</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.4486517871335782</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.05235548806908702</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.158789056258427</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.07201064300090222</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0198686768275099</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.2060717782812199</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.2058097155638414</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.1957357274581967</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2212121088375749</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02381206028748449</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.04884610970379648</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.150478305884752</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.08632981306084483</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03647600537473301</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.08147296514220853</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1020222537209954</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.09418505183360559</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.007792899790836681</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1784762168381864</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.081303486126705</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.06095372204300006</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01867983956391986</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5346201201900572</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.08943299336197424</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.1078791437780185</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2614856160675798</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1329019085028162</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5595891217183349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.05403233389406656</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.1114963965067769</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.07575046224333805</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.172701947265218</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.05453236678538401</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1291372104572056</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.03586961284551091</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1373086720039513</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.4586028119427426</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1062771738688119</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4439346989682257</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.06936275089233931</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3341661347417623</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.1154550444610966</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.09119061051878384</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02787246802485359</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1873199902991782</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.003482181897470406</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1970435402776835</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0160696612306764</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1375699638790625</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.03506711297641856</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.04260449206420653</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.05523174890535294</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.249640497719644</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.03598050942374527</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1753049306688557</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02973501449950697</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.120950071273534</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.05355087480692032</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3103842588597476</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.08872922336677382</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3253819543569587</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1158297737709352</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.1461217783131872</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.05187657940470528</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.05808904611352438</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1420780500665768</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.286560547287099e-06</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.02569777552199578</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1652284742984776</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1461273383226711</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.001895622546504658</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1971799528474568</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.07369788724221162</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1910050838858816</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.1161173729313314</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.06451607157996005</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02282257139769691</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.06737790151695176</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.02065563780689995</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.981833976410985e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.007519064837109266</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04814229364507711</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0005778206486673296</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.004660454341034297</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3149617138052122</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.07831061114058846</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5573236138160598</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.3282574430977135</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.03351942978137964</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03115513280752299</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3304580989775253</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01589807035068818</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1989733364851402</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0785809927743871</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3381012293807953</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04842937565818459</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1565294896411777</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3380150661747294</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.307605053998743</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.1117053798733158</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.05461676591254841</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.15979734250813</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1234358472622947</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.08244422217469131</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.08899666392768302</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1049512184511749</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.03011014105479118</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.003435351414028809</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.05438009433211982</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.05060045286099717</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2663712802702266</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2353303364650713</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1332659229372342</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2696451822234076</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2652804746517119</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.02767363416542715</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.1404536866832709</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.005397664585184632</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.04413133784835258</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01168921431434025</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2092363934967045</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2251883898576647</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3663846307010566</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1378939285530654</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01331792007487104</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0575547744556183</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.3739956628329537</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.2254264886241495</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.3549037076479882</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.03018678158141696</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.1040008412460382</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1215828292468117</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.00150231538219372</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4827798758591129</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0549222975796779</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0758171043630769</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.03659716006551561</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.04574283603871888</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.07602367764704247</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.00172138535439096</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.03644450036721231</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2182467054557181</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.209874855219155</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1225103083385518</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.3720930032791892</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1845752233755369</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.05216667077002098</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2201238699907577</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.04828372346678187</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.08050511883277639</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.4559735907714512</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.1803188752245915</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.1520835725080192</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.08609404496288714</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.02746028466943036</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09779036979462361</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.03529848119078972</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1477877154920628</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.00147138279969623</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.1409589470147924</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01069964426537957</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3462486278341862</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.1423102443986862</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1862309423883018</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.3580276315313005</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1219441522345211</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.05084688224373772</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1899537412010048</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2372225241565913</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02115225705287539</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.4371331082423413</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01495001002980922</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.07771994427454394</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1992304099893245</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.1127230495527412</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1081701311851274</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1732700233662292</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1344826542422309</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.08456830043621745</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.03580419328543382</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.06756509988312033</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.08287084248703067</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1473870086919307</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.2969831203254998</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.03892698843887408</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.05461294857670576</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0313698095380105</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.2530447909588223</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.01439600006050504</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1448388795708974</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2322449785378714</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2610806392796351</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1139472345148319</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.1431680772141902</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.004796139385570291</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.04649940374663356</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1500871497041308</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.009145690948096745</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0003226769978542586</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.1423952154793096</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1412298021502632</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1303631046837283</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.01215163840196746</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2014686359445435</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.00536065546592613</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.03219375437783432</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.10542999615742</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.270703629626409</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.07127306663369803</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.07978275625479818</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.05043367630851796</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.009884128042311162</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.03050737047507093</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.008583512962068931</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1801008238980165</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2493515906737747</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2167780011964668</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.003245647693813851</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.004427645303747118</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1364132904942197</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.074754122314107</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.2605668681010543</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01051424217427227</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.2723966566595046</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.05272302310171256</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1222338177056153</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.007221871686258459</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.02791439143299982</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2443142602546903</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.05587339810214635</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.05724491214318993</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.003926081544577088</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1412822906161587</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.05995823602127698</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3999851180744279</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.06923471199646092</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.4271218147858825</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01901548551256212</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0143906548524592</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0100089788468171</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3501424391513119</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.05067426075155967</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.1264581729289658</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.103324024139129</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.08462924661560077</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.08414633608105392</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.08381937181557197</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.2071684261708791</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.4879925592543944</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1592712173912749</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.04608479380973188</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1588006368352494</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.03606469281569741</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0243813980981343</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.182325023726255</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.08614839316565501</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.009541813428592175</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.05561049594032097</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.3023977974665416</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.1727491472591297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.08484642957940949</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2026672343435307</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.02076190874632912</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.001106370072511599</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.271484800065496</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1658793221356029</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.005558391126463438</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3488780327499311</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1565018572802183</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.243654990413989</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.2180961497430147</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.4264663812051295</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0009504456028500182</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1113676258147725</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.2134149767157259</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.05321157445738448</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.04492204850697223</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.06662793062987259</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.4373188314219763</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01047432857335067</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.1454852363044888</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.007656199973222607</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0620849848515907</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.4863404247896954</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.07134778065009845</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.09711335175255104</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.09464745620532627</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3770511345164112</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.06283358328410885</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.003670816572799258</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.07617356480023268</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.207966893760459</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.1937099065686288</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01786863582461948</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.07974173500359312</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.07089002153430168</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.005148338513435637</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.03417270522371771</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3582924835966401</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.05650212312087613</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.1558391552429615</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.004412077760358293</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2118957533435461</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.02325256400368664</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.03388018367086743</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.3968604012302873</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.001417570071620059</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.09497351023258327</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01916734260205715</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1779218457831832</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.119844678337621</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0174575392674848</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.317670981359684</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.06364589928944699</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.4164227235118456</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.3938260482077537</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.162395274950018</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.2763761850374735</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.03497812870154483</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.04872588750561708</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.09006410025388245</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.07123770770021769</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.003027861104794961</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.007332307089017933</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.02837815379488989</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.1885751020587127</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.03667284776328661</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.03473399172261717</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4144998956471235</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1073609229667066</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3014264926832834</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1322081895338705</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1117134698366494</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.08449200655589743</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.02419619022573637</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08476280943271697</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.02513691431904613</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.03393004279690383</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.5237436262565249</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.06669478303429019</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.3398603607016356</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3044743921847958</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.07440905929143718</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.08458205983787245</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.1547832142224879</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.2175566592340319</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.4223401494061102</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.08529491147157216</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.1768490801658659</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.4613185062006786</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.05722045389774189</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.3203570373100377</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1092254362919358</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.381936636379329</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1575238171451001</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.04877765850954931</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0605834392116394</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.02021126840475237</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1265266002669798</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.2832131050884029</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1855634531741649</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4298259893838882</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.002952752628124024</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.04203963442771693</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.08015551030336004</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.03815200245264165</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3115658669418734</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.5268020576756373</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.1878405022142208</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.04910118713615907</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.2445599034936496</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1576119131807895</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1617393238674843</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.06344106946016871</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.3527086792961265</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1052711921243286</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.09370697694343055</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.1442760891212881</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.1025651801531432</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.06829420079452174</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.05139072994639411</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01159203518472455</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.1068519889720462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>风力</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>光伏</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>热电联产</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>燃气锅炉</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>电锅炉</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>地源热泵</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>空气热泵</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>电制冷机</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>吸收制冷</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>储电设备</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>储热设备</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>储冷设备</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>储气设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1111.66764196041</v>
+      </c>
+      <c r="B2" t="n">
+        <v>231.5805205279545</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19811.52788732462</v>
+      </c>
+      <c r="D2" t="n">
+        <v>709.8686327661324</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2405.790540855257</v>
+      </c>
+      <c r="F2" t="n">
+        <v>933.844853455368</v>
+      </c>
+      <c r="G2" t="n">
+        <v>242.2180346800718</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2293.014059713713</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4063.84200132862</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9935.775762897214</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44460.18622430506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46752.8485755336</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11035.00755355798</v>
       </c>
     </row>
   </sheetData>

--- a/example/result/ans.xlsx
+++ b/example/result/ans.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="102025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22505721" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="feature0" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="规划" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
@@ -547,64 +547,64 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>305.91</v>
+        <v>305.9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2354.392</v>
+        <v>2354.4</v>
       </c>
       <c r="E2" t="n">
-        <v>236.0260867461483</v>
+        <v>1972.3</v>
       </c>
       <c r="F2" t="n">
-        <v>20.77930942604654</v>
+        <v>424.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6710.90514622343</v>
+        <v>132.3</v>
       </c>
       <c r="H2" t="n">
-        <v>47.55090611633836</v>
+        <v>51.8</v>
       </c>
       <c r="I2" t="n">
-        <v>548.0841343851797</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>198.3789732096388</v>
+        <v>41.4</v>
       </c>
       <c r="K2" t="n">
-        <v>20.12548631937911</v>
+        <v>-201.4</v>
       </c>
       <c r="L2" t="n">
-        <v>29.57456113143623</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4672550488964744</v>
+        <v>246.4</v>
       </c>
       <c r="N2" t="n">
-        <v>759.4856713092106</v>
+        <v>427.5</v>
       </c>
       <c r="O2" t="n">
-        <v>910.653228973071</v>
+        <v>690</v>
       </c>
       <c r="P2" t="n">
-        <v>6666.666666666667</v>
+        <v>3333.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>6666.666666666667</v>
+        <v>3333.3</v>
       </c>
       <c r="R2" t="n">
-        <v>666.6666666666666</v>
+        <v>3333.3</v>
       </c>
       <c r="S2" t="n">
-        <v>666.6666666666666</v>
+        <v>666.7</v>
       </c>
       <c r="T2" t="n">
-        <v>9011.214965624053</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>5082.428582330198</v>
+        <v>2818.7</v>
       </c>
     </row>
     <row r="3">
@@ -612,64 +612,64 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>330.78</v>
+        <v>330.8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2588.2798</v>
+        <v>2588.3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1954.4</v>
       </c>
       <c r="F3" t="n">
-        <v>93.35591699418582</v>
+        <v>434.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="H3" t="n">
-        <v>426.6385284379591</v>
+        <v>344.3</v>
       </c>
       <c r="I3" t="n">
-        <v>842.4019023807848</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>5.493281561953254</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>35.18315963479938</v>
+        <v>415.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.677685544423886</v>
+        <v>71</v>
       </c>
       <c r="M3" t="n">
-        <v>4.571957369467757</v>
+        <v>139.9</v>
       </c>
       <c r="N3" t="n">
-        <v>240.4252429741538</v>
+        <v>195</v>
       </c>
       <c r="O3" t="n">
-        <v>222.2636212860421</v>
+        <v>810</v>
       </c>
       <c r="P3" t="n">
-        <v>5270.637814370058</v>
+        <v>1937.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>9503.582091193084</v>
+        <v>2324.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2178.152277203097</v>
+        <v>4107.1</v>
       </c>
       <c r="S3" t="n">
-        <v>2778.719757943868</v>
+        <v>471.3</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.043417823109166</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-908.1020151458463</v>
+        <v>1174.3</v>
       </c>
     </row>
     <row r="4">
@@ -677,64 +677,64 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>405.82</v>
+        <v>405.8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2730.55</v>
+        <v>2730.6</v>
       </c>
       <c r="E4" t="n">
-        <v>811.5888864797511</v>
+        <v>1931.1</v>
       </c>
       <c r="F4" t="n">
-        <v>20.43820235454081</v>
+        <v>446</v>
       </c>
       <c r="G4" t="n">
-        <v>2529.346394471225</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>24.57439300888588</v>
+        <v>0.9</v>
       </c>
       <c r="I4" t="n">
-        <v>550.8468769321966</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>220.6114202919378</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>105.2642146361321</v>
+        <v>-104.4</v>
       </c>
       <c r="L4" t="n">
-        <v>92.91482666923675</v>
+        <v>155.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>314.4</v>
       </c>
       <c r="N4" t="n">
-        <v>667.4423096720279</v>
+        <v>480</v>
       </c>
       <c r="O4" t="n">
-        <v>36.00726188616956</v>
+        <v>30</v>
       </c>
       <c r="P4" t="n">
-        <v>4596.915159234699</v>
+        <v>1935.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>9907.190772921858</v>
+        <v>2463.8</v>
       </c>
       <c r="R4" t="n">
-        <v>573.2981781164804</v>
+        <v>3604.3</v>
       </c>
       <c r="S4" t="n">
-        <v>2301.074532155527</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>2701.093377269484</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>539.0578464084176</v>
+        <v>1048.7</v>
       </c>
     </row>
     <row r="5">
@@ -748,58 +748,58 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2933.0834</v>
+        <v>2933.1</v>
       </c>
       <c r="E5" t="n">
-        <v>622.9038965985101</v>
+        <v>1911.6</v>
       </c>
       <c r="F5" t="n">
-        <v>231.5805205279545</v>
+        <v>431.4</v>
       </c>
       <c r="G5" t="n">
-        <v>9600.766413600142</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>8.161750341720701</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>983.5629774333221</v>
+        <v>7.7</v>
       </c>
       <c r="J5" t="n">
-        <v>320.0918438286392</v>
+        <v>0.2</v>
       </c>
       <c r="K5" t="n">
-        <v>30.94248070672717</v>
+        <v>-119.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>209.8</v>
       </c>
       <c r="M5" t="n">
-        <v>12.8940084769613</v>
+        <v>419.3</v>
       </c>
       <c r="N5" t="n">
-        <v>694.4840826505291</v>
+        <v>382.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1513.923571228887</v>
+        <v>30</v>
       </c>
       <c r="P5" t="n">
-        <v>4731.716069556851</v>
+        <v>1923.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>11900.73093523867</v>
+        <v>2083.5</v>
       </c>
       <c r="R5" t="n">
-        <v>905.5307257039676</v>
+        <v>4036.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2416.479607530878</v>
+        <v>71.7</v>
       </c>
       <c r="T5" t="n">
-        <v>9357.695143809633</v>
+        <v>3.7</v>
       </c>
       <c r="U5" t="n">
-        <v>7020.475413397413</v>
+        <v>874.2</v>
       </c>
     </row>
     <row r="6">
@@ -807,64 +807,64 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>468.11</v>
+        <v>468.1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3568.7488</v>
+        <v>3568.7</v>
       </c>
       <c r="E6" t="n">
-        <v>111.7998399271436</v>
+        <v>1984.6</v>
       </c>
       <c r="F6" t="n">
-        <v>115.8339734633176</v>
+        <v>432.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2025.023780475837</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>230.7470678344987</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>919.5763829359253</v>
+        <v>1.2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.755555510649</v>
+        <v>517.5</v>
       </c>
       <c r="O6" t="n">
-        <v>953.1776744242959</v>
+        <v>240</v>
       </c>
       <c r="P6" t="n">
-        <v>3840</v>
+        <v>1952.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>15911.64257961724</v>
+        <v>1692.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2112.622849485717</v>
+        <v>4338</v>
       </c>
       <c r="S6" t="n">
-        <v>2130.503558896719</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>820.7936178620253</v>
+        <v>12.4</v>
       </c>
       <c r="U6" t="n">
-        <v>-2647.433503605043</v>
+        <v>1079.1</v>
       </c>
     </row>
     <row r="7">
@@ -872,64 +872,64 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>467.84</v>
+        <v>467.8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3466.6552</v>
+        <v>3466.7</v>
       </c>
       <c r="E7" t="n">
-        <v>39.0146165404626</v>
+        <v>1868</v>
       </c>
       <c r="F7" t="n">
-        <v>25.09999652850463</v>
+        <v>432.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3702.704613015943</v>
+        <v>244</v>
       </c>
       <c r="H7" t="n">
-        <v>372.9507743738473</v>
+        <v>237.9</v>
       </c>
       <c r="I7" t="n">
-        <v>556.8641805378462</v>
+        <v>91.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>78.08463787283203</v>
+        <v>15.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>145.4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>1073.65140355258</v>
+        <v>90</v>
       </c>
       <c r="O7" t="n">
-        <v>428.6260255223341</v>
+        <v>1830</v>
       </c>
       <c r="P7" t="n">
-        <v>5321.064346105614</v>
+        <v>1956.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>15897.256716723</v>
+        <v>1686.9</v>
       </c>
       <c r="R7" t="n">
-        <v>4632.453585881724</v>
+        <v>3290.4</v>
       </c>
       <c r="S7" t="n">
-        <v>613.8011989458282</v>
+        <v>9.5</v>
       </c>
       <c r="T7" t="n">
-        <v>12759.89025945906</v>
+        <v>483.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1946.82528270433</v>
+        <v>1510.6</v>
       </c>
     </row>
     <row r="8">
@@ -937,64 +937,64 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>467.57</v>
+        <v>467.6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3485.9122</v>
+        <v>3485.9</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1937.1</v>
       </c>
       <c r="F8" t="n">
-        <v>107.6166601315423</v>
+        <v>415.6</v>
       </c>
       <c r="G8" t="n">
-        <v>9740.62797867174</v>
+        <v>281.8</v>
       </c>
       <c r="H8" t="n">
-        <v>11.37312107131186</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="J8" t="n">
-        <v>131.2715232993141</v>
+        <v>102.9</v>
       </c>
       <c r="K8" t="n">
-        <v>58.16306309349451</v>
+        <v>367.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.283038677881938</v>
+        <v>-57.9</v>
       </c>
       <c r="M8" t="n">
-        <v>2.438452618430011</v>
+        <v>82.7</v>
       </c>
       <c r="N8" t="n">
-        <v>507.9021606464581</v>
+        <v>112.5</v>
       </c>
       <c r="O8" t="n">
-        <v>229.2826364645072</v>
+        <v>1470</v>
       </c>
       <c r="P8" t="n">
-        <v>4111.937750910261</v>
+        <v>1958.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>16950.3976530708</v>
+        <v>42.2</v>
       </c>
       <c r="R8" t="n">
-        <v>5691.916316987643</v>
+        <v>2737.4</v>
       </c>
       <c r="S8" t="n">
-        <v>8775.186084137518</v>
+        <v>10.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2909.817189841795</v>
+        <v>382.4</v>
       </c>
       <c r="U8" t="n">
-        <v>5135.087303284074</v>
+        <v>1387.6</v>
       </c>
     </row>
     <row r="9">
@@ -1008,58 +1008,58 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3619.0633</v>
+        <v>3619.1</v>
       </c>
       <c r="E9" t="n">
-        <v>398.8583644136583</v>
+        <v>1840.4</v>
       </c>
       <c r="F9" t="n">
-        <v>87.6404862282721</v>
+        <v>449.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2288.673605567951</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>3.295470846564989</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>199.8238433633088</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>151.511054536842</v>
+        <v>17.1</v>
       </c>
       <c r="K9" t="n">
-        <v>129.6172092204508</v>
+        <v>-274</v>
       </c>
       <c r="L9" t="n">
-        <v>10.16273530875836</v>
+        <v>387.9</v>
       </c>
       <c r="M9" t="n">
-        <v>4.70923719526123</v>
+        <v>799</v>
       </c>
       <c r="N9" t="n">
-        <v>847.842620490262</v>
+        <v>30</v>
       </c>
       <c r="O9" t="n">
-        <v>74.94548975255574</v>
+        <v>210</v>
       </c>
       <c r="P9" t="n">
-        <v>5669.883815692055</v>
+        <v>1952.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>20229.48322527915</v>
+        <v>6.2</v>
       </c>
       <c r="R9" t="n">
-        <v>4254.330862847532</v>
+        <v>-18.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1557.158359293779</v>
+        <v>15.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3879.730801149356</v>
+        <v>8.6</v>
       </c>
       <c r="U9" t="n">
-        <v>2112.377089917924</v>
+        <v>795.6</v>
       </c>
     </row>
     <row r="10">
@@ -1073,58 +1073,58 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3731.1507</v>
+        <v>3731.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1828.2</v>
       </c>
       <c r="F10" t="n">
-        <v>100.1414905081876</v>
+        <v>423</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.9</v>
       </c>
       <c r="I10" t="n">
-        <v>55.69017824281664</v>
+        <v>56.5</v>
       </c>
       <c r="J10" t="n">
-        <v>232.8220653202183</v>
+        <v>5.9</v>
       </c>
       <c r="K10" t="n">
-        <v>20.81643171502363</v>
+        <v>-375.8</v>
       </c>
       <c r="L10" t="n">
-        <v>25.02129850454391</v>
+        <v>361.6</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02225247355697995</v>
+        <v>705.8</v>
       </c>
       <c r="N10" t="n">
-        <v>1974.794593530327</v>
+        <v>120</v>
       </c>
       <c r="O10" t="n">
-        <v>73.24652284763044</v>
+        <v>390</v>
       </c>
       <c r="P10" t="n">
-        <v>3889.661081065743</v>
+        <v>1938.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>20902.63280458719</v>
+        <v>176</v>
       </c>
       <c r="R10" t="n">
-        <v>4098.657251973159</v>
+        <v>7.8</v>
       </c>
       <c r="S10" t="n">
-        <v>3034.876677813957</v>
+        <v>9.5</v>
       </c>
       <c r="T10" t="n">
-        <v>-48.89979275079888</v>
+        <v>85.7</v>
       </c>
       <c r="U10" t="n">
-        <v>-4076.746026853666</v>
+        <v>816.4</v>
       </c>
     </row>
     <row r="11">
@@ -1132,64 +1132,64 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>510.75</v>
+        <v>510.8</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3767.8024</v>
+        <v>3767.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1926.6</v>
       </c>
       <c r="F11" t="n">
-        <v>40.99237683635357</v>
+        <v>417.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1435.933034481287</v>
+        <v>816</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>367.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="J11" t="n">
-        <v>71.70551504769139</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-18.6</v>
       </c>
       <c r="L11" t="n">
-        <v>8.877569211195622</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>240.6710486952827</v>
+        <v>120</v>
       </c>
       <c r="O11" t="n">
-        <v>1413.316570414492</v>
+        <v>2040</v>
       </c>
       <c r="P11" t="n">
-        <v>4971.403914011847</v>
+        <v>1921.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>20680.74387818072</v>
+        <v>272.2</v>
       </c>
       <c r="R11" t="n">
-        <v>7886.909688513802</v>
+        <v>195.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2953.56917964288</v>
+        <v>29.5</v>
       </c>
       <c r="T11" t="n">
-        <v>96.73964947771515</v>
+        <v>1197.6</v>
       </c>
       <c r="U11" t="n">
-        <v>-828.9236412264231</v>
+        <v>2131.6</v>
       </c>
     </row>
     <row r="12">
@@ -1197,64 +1197,64 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>466.56</v>
+        <v>466.6</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3749.8442</v>
+        <v>3749.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1973.3</v>
       </c>
       <c r="F12" t="n">
-        <v>82.85161921147109</v>
+        <v>441</v>
       </c>
       <c r="G12" t="n">
-        <v>1890.441866374186</v>
+        <v>150</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1410.463958873944</v>
+        <v>39.6</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0865203485564</v>
+        <v>6.3</v>
       </c>
       <c r="K12" t="n">
-        <v>19.89670249383446</v>
+        <v>-473.7</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5966174626390585</v>
+        <v>398.7</v>
       </c>
       <c r="M12" t="n">
-        <v>2.942467180013814</v>
+        <v>803.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O12" t="n">
-        <v>193.0041001893315</v>
+        <v>360</v>
       </c>
       <c r="P12" t="n">
-        <v>5894.067266451377</v>
+        <v>1927.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>18970.22208496177</v>
+        <v>34.9</v>
       </c>
       <c r="R12" t="n">
-        <v>6270.835670861487</v>
+        <v>406.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1528.453012947993</v>
+        <v>42.8</v>
       </c>
       <c r="T12" t="n">
-        <v>3374.77869385591</v>
+        <v>145.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1057.23703884225</v>
+        <v>1105.7</v>
       </c>
     </row>
     <row r="13">
@@ -1262,64 +1262,64 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>453.74</v>
+        <v>453.7</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3609.9121</v>
+        <v>3609.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1815.4</v>
       </c>
       <c r="F13" t="n">
-        <v>14.66502037091738</v>
+        <v>453.7</v>
       </c>
       <c r="G13" t="n">
-        <v>19811.52788732462</v>
+        <v>41.3</v>
       </c>
       <c r="H13" t="n">
-        <v>100.6820214157185</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1097.048393508383</v>
+        <v>108.9</v>
       </c>
       <c r="J13" t="n">
-        <v>74.02308856121276</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>103.1819587098631</v>
+        <v>756.6</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="M13" t="n">
-        <v>139.0360759702087</v>
+        <v>23.4</v>
       </c>
       <c r="N13" t="n">
-        <v>977.5655510448795</v>
+        <v>262.5</v>
       </c>
       <c r="O13" t="n">
-        <v>4063.84200132862</v>
+        <v>330</v>
       </c>
       <c r="P13" t="n">
-        <v>4237.64106061098</v>
+        <v>1943.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>20064.49034413405</v>
+        <v>107.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2175.265334549427</v>
+        <v>1057.6</v>
       </c>
       <c r="S13" t="n">
-        <v>2909.187269065074</v>
+        <v>24.6</v>
       </c>
       <c r="T13" t="n">
-        <v>17654.42432352859</v>
+        <v>38.8</v>
       </c>
       <c r="U13" t="n">
-        <v>9976.808055245237</v>
+        <v>580.1</v>
       </c>
     </row>
     <row r="14">
@@ -1327,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>403.27</v>
+        <v>403.3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1336,55 +1336,55 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>539.3937550078161</v>
+        <v>1827.6</v>
       </c>
       <c r="F14" t="n">
-        <v>102.9520156132701</v>
+        <v>418.4</v>
       </c>
       <c r="G14" t="n">
-        <v>9971.735476678834</v>
+        <v>4863.5</v>
       </c>
       <c r="H14" t="n">
-        <v>236.695798048668</v>
+        <v>10.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1510.847018549053</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>248.5809175450149</v>
+        <v>0.2</v>
       </c>
       <c r="K14" t="n">
-        <v>7.502309200404405</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>101.7280471437403</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.047362692184759</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>150.9314728052208</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>7384.924418141783</v>
+        <v>1959.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>24596.22109152754</v>
+        <v>1126.6</v>
       </c>
       <c r="R14" t="n">
-        <v>6214.234878387906</v>
+        <v>166.5</v>
       </c>
       <c r="S14" t="n">
-        <v>527.2451549432277</v>
+        <v>21.7</v>
       </c>
       <c r="T14" t="n">
-        <v>10726.08128363416</v>
+        <v>4904.1</v>
       </c>
       <c r="U14" t="n">
-        <v>6707.701070110479</v>
+        <v>5804.3</v>
       </c>
     </row>
     <row r="15">
@@ -1392,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>346.49</v>
+        <v>346.5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1401,55 +1401,55 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>49.02215027494165</v>
+        <v>1916.7</v>
       </c>
       <c r="F15" t="n">
-        <v>132.641301849926</v>
+        <v>414.5</v>
       </c>
       <c r="G15" t="n">
-        <v>15.11567647236287</v>
+        <v>2159.7</v>
       </c>
       <c r="H15" t="n">
-        <v>36.52872090186655</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>904.1000279214983</v>
+        <v>9.4</v>
       </c>
       <c r="J15" t="n">
-        <v>747.5539221278443</v>
+        <v>0.3</v>
       </c>
       <c r="K15" t="n">
-        <v>35.71706303213507</v>
+        <v>0.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5638723508653999</v>
+        <v>0.1</v>
       </c>
       <c r="N15" t="n">
-        <v>571.0220577084353</v>
+        <v>0.2</v>
       </c>
       <c r="O15" t="n">
-        <v>566.1328512548281</v>
+        <v>10.9</v>
       </c>
       <c r="P15" t="n">
-        <v>6874.566280878937</v>
+        <v>1938.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>29599.69241774105</v>
+        <v>2978.8</v>
       </c>
       <c r="R15" t="n">
-        <v>7078.921334923387</v>
+        <v>185.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1008.822536770506</v>
+        <v>49.4</v>
       </c>
       <c r="T15" t="n">
-        <v>71.63488861828205</v>
+        <v>2132.2</v>
       </c>
       <c r="U15" t="n">
-        <v>-856.7088397529773</v>
+        <v>3668.8</v>
       </c>
     </row>
     <row r="16">
@@ -1457,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>333.66</v>
+        <v>333.7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1466,55 +1466,55 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.12295619728645</v>
+        <v>1950.4</v>
       </c>
       <c r="F16" t="n">
-        <v>93.35092104254034</v>
+        <v>426</v>
       </c>
       <c r="G16" t="n">
-        <v>2869.573716553582</v>
+        <v>2802.3</v>
       </c>
       <c r="H16" t="n">
-        <v>32.98227744828881</v>
+        <v>0.5</v>
       </c>
       <c r="I16" t="n">
-        <v>421.4777666873942</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>445.1372903118008</v>
+        <v>0.3</v>
       </c>
       <c r="K16" t="n">
-        <v>78.12356720722666</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>164.6749305165769</v>
+        <v>0.9</v>
       </c>
       <c r="M16" t="n">
-        <v>32.37411839317243</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>50.1273706340926</v>
+        <v>2.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1721.821841541367</v>
+        <v>9.1</v>
       </c>
       <c r="P16" t="n">
-        <v>5028.691530486686</v>
+        <v>1950.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>31445.85033110343</v>
+        <v>3648</v>
       </c>
       <c r="R16" t="n">
-        <v>9517.219847615865</v>
+        <v>194.4</v>
       </c>
       <c r="S16" t="n">
-        <v>1017.535368417833</v>
+        <v>17.2</v>
       </c>
       <c r="T16" t="n">
-        <v>6076.062238315156</v>
+        <v>2838.3</v>
       </c>
       <c r="U16" t="n">
-        <v>-4362.850366605891</v>
+        <v>4280.4</v>
       </c>
     </row>
     <row r="17">
@@ -1522,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>314.56</v>
+        <v>314.6</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1531,55 +1531,55 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>157.613446828585</v>
+        <v>1974.3</v>
       </c>
       <c r="F17" t="n">
-        <v>100.52236231831</v>
+        <v>438.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2861.827464493227</v>
+        <v>420.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1515.690586268367</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>243.9615293220854</v>
+        <v>0.3</v>
       </c>
       <c r="K17" t="n">
-        <v>87.18905355627015</v>
+        <v>1.2</v>
       </c>
       <c r="L17" t="n">
-        <v>226.2908636683623</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="n">
-        <v>8.101013112334574</v>
+        <v>3.8</v>
       </c>
       <c r="N17" t="n">
-        <v>219.5932182428305</v>
+        <v>0.1</v>
       </c>
       <c r="O17" t="n">
-        <v>994.5359896319285</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>9690.779660236672</v>
+        <v>1942</v>
       </c>
       <c r="Q17" t="n">
-        <v>31641.21430761137</v>
+        <v>4528.9</v>
       </c>
       <c r="R17" t="n">
-        <v>11802.60114882309</v>
+        <v>212.8</v>
       </c>
       <c r="S17" t="n">
-        <v>3992.042637510299</v>
+        <v>50.5</v>
       </c>
       <c r="T17" t="n">
-        <v>122.0356415533452</v>
+        <v>418</v>
       </c>
       <c r="U17" t="n">
-        <v>3490.744666769025</v>
+        <v>2360.6</v>
       </c>
     </row>
     <row r="18">
@@ -1587,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>201.28</v>
+        <v>201.3</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1596,55 +1596,55 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>471.3830844193546</v>
+        <v>1924.1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>441.6</v>
       </c>
       <c r="G18" t="n">
-        <v>1198.33670605368</v>
+        <v>1329.6</v>
       </c>
       <c r="H18" t="n">
-        <v>334.9835574741318</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>705.5413584683504</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>232.3911579131549</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>92.43527127648065</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>9.588952223201465</v>
+        <v>0.1</v>
       </c>
       <c r="M18" t="n">
-        <v>8.686844258442699</v>
+        <v>1.4</v>
       </c>
       <c r="N18" t="n">
-        <v>13.81897573751945</v>
+        <v>2.9</v>
       </c>
       <c r="O18" t="n">
-        <v>553.1842618380952</v>
+        <v>2.9</v>
       </c>
       <c r="P18" t="n">
-        <v>5793.915638866699</v>
+        <v>1933.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>32489.93348201487</v>
+        <v>4435.1</v>
       </c>
       <c r="R18" t="n">
-        <v>14221.76516531955</v>
+        <v>229.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1096.970732492583</v>
+        <v>35.1</v>
       </c>
       <c r="T18" t="n">
-        <v>7281.459091550321</v>
+        <v>1349.5</v>
       </c>
       <c r="U18" t="n">
-        <v>308.9648130568357</v>
+        <v>3159.2</v>
       </c>
     </row>
     <row r="19">
@@ -1652,7 +1652,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>175.65</v>
+        <v>175.7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1661,55 +1661,55 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>232.3607715050861</v>
+        <v>1938.3</v>
       </c>
       <c r="F19" t="n">
-        <v>7.104223235484515</v>
+        <v>448</v>
       </c>
       <c r="G19" t="n">
-        <v>842.0095012258664</v>
+        <v>4910.5</v>
       </c>
       <c r="H19" t="n">
-        <v>301.5291074089901</v>
+        <v>1.6</v>
       </c>
       <c r="I19" t="n">
-        <v>560.1286736167988</v>
+        <v>10.3</v>
       </c>
       <c r="J19" t="n">
-        <v>245.7580569867571</v>
+        <v>0.3</v>
       </c>
       <c r="K19" t="n">
-        <v>199.6365475216101</v>
+        <v>0.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.523496100560249</v>
+        <v>0.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.391925038264183</v>
+        <v>1.9</v>
       </c>
       <c r="N19" t="n">
-        <v>35.67034991093097</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>141.1354420366869</v>
+        <v>9.5</v>
       </c>
       <c r="P19" t="n">
-        <v>5454.330982164164</v>
+        <v>1942.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>32586.99694207208</v>
+        <v>4708.6</v>
       </c>
       <c r="R19" t="n">
-        <v>14665.88084299356</v>
+        <v>242.7</v>
       </c>
       <c r="S19" t="n">
-        <v>6492.125592922827</v>
+        <v>49.7</v>
       </c>
       <c r="T19" t="n">
-        <v>-593.188578548187</v>
+        <v>4891</v>
       </c>
       <c r="U19" t="n">
-        <v>-2433.064498944035</v>
+        <v>6189.3</v>
       </c>
     </row>
     <row r="20">
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>181.93</v>
+        <v>181.9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1726,55 +1726,55 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2505053829191</v>
+        <v>1940.1</v>
       </c>
       <c r="F20" t="n">
-        <v>140.9620210861142</v>
+        <v>445.3</v>
       </c>
       <c r="G20" t="n">
-        <v>6291.547126249418</v>
+        <v>215.9</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8617275131487624</v>
+        <v>5.9</v>
       </c>
       <c r="I20" t="n">
-        <v>85.7150613071406</v>
+        <v>11.6</v>
       </c>
       <c r="J20" t="n">
-        <v>103.3986573913432</v>
+        <v>0.9</v>
       </c>
       <c r="K20" t="n">
-        <v>50.37396144580345</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44064761182545</v>
+        <v>0.7</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7678488188936579</v>
+        <v>0.9</v>
       </c>
       <c r="N20" t="n">
-        <v>20.78367093377589</v>
+        <v>0.9</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="P20" t="n">
-        <v>7198.451900318361</v>
+        <v>1940</v>
       </c>
       <c r="Q20" t="n">
-        <v>32990.07406239679</v>
+        <v>6352.7</v>
       </c>
       <c r="R20" t="n">
-        <v>14777.08464140436</v>
+        <v>258.6</v>
       </c>
       <c r="S20" t="n">
-        <v>4617.351794560743</v>
+        <v>27.2</v>
       </c>
       <c r="T20" t="n">
-        <v>3686.565415435503</v>
+        <v>218.4</v>
       </c>
       <c r="U20" t="n">
-        <v>3328.444679206959</v>
+        <v>2259.1</v>
       </c>
     </row>
     <row r="21">
@@ -1782,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>181.68</v>
+        <v>181.7</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1791,55 +1791,55 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>546.2622852512173</v>
+        <v>1862.3</v>
       </c>
       <c r="F21" t="n">
-        <v>43.19821537649138</v>
+        <v>445.4</v>
       </c>
       <c r="G21" t="n">
-        <v>5162.966813130975</v>
+        <v>1687.6</v>
       </c>
       <c r="H21" t="n">
-        <v>330.434368120368</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>257.7205640309522</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>933.1180937378178</v>
+        <v>0.3</v>
       </c>
       <c r="K21" t="n">
-        <v>7.596491144155827</v>
+        <v>2.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7267597175502064</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3280592232198157</v>
+        <v>3.1</v>
       </c>
       <c r="N21" t="n">
-        <v>2.051482149216127</v>
+        <v>1.8</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="P21" t="n">
-        <v>8554.249832766391</v>
+        <v>1957.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>34084.32981432121</v>
+        <v>6074.1</v>
       </c>
       <c r="R21" t="n">
-        <v>14709.26677675933</v>
+        <v>271.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1855.615114569036</v>
+        <v>23.4</v>
       </c>
       <c r="T21" t="n">
-        <v>4781.876263237096</v>
+        <v>1726.7</v>
       </c>
       <c r="U21" t="n">
-        <v>7283.235654765496</v>
+        <v>3458.4</v>
       </c>
     </row>
     <row r="22">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>181.41</v>
+        <v>181.4</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1856,55 +1856,55 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>369.3427828841606</v>
+        <v>1921.2</v>
       </c>
       <c r="F22" t="n">
-        <v>72.78047340635594</v>
+        <v>434</v>
       </c>
       <c r="G22" t="n">
-        <v>316.6251821574862</v>
+        <v>1523.9</v>
       </c>
       <c r="H22" t="n">
-        <v>258.9006852950715</v>
+        <v>7.7</v>
       </c>
       <c r="I22" t="n">
-        <v>1519.689227661423</v>
+        <v>0.7</v>
       </c>
       <c r="J22" t="n">
-        <v>438.1547944500873</v>
+        <v>0.1</v>
       </c>
       <c r="K22" t="n">
-        <v>157.0348638547524</v>
+        <v>1.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.601733615183691</v>
+        <v>0.2</v>
       </c>
       <c r="N22" t="n">
-        <v>453.0852923760596</v>
+        <v>1.6</v>
       </c>
       <c r="O22" t="n">
-        <v>509.8528476831884</v>
+        <v>7.7</v>
       </c>
       <c r="P22" t="n">
-        <v>4380.432699169091</v>
+        <v>1927.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>38637.82141940349</v>
+        <v>6378.3</v>
       </c>
       <c r="R22" t="n">
-        <v>14572.72898559291</v>
+        <v>290</v>
       </c>
       <c r="S22" t="n">
-        <v>1095.575101492711</v>
+        <v>57.1</v>
       </c>
       <c r="T22" t="n">
-        <v>280.5685816968296</v>
+        <v>1497</v>
       </c>
       <c r="U22" t="n">
-        <v>-3686.673280196922</v>
+        <v>3333.8</v>
       </c>
     </row>
     <row r="23">
@@ -1912,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>181.14</v>
+        <v>181.1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1921,55 +1921,55 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>453.9171237024014</v>
+        <v>1814.2</v>
       </c>
       <c r="F23" t="n">
-        <v>6.774072418235662</v>
+        <v>444.1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4679.1</v>
       </c>
       <c r="H23" t="n">
-        <v>210.1939273120379</v>
+        <v>1.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1333.038383377426</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>298.8390309687698</v>
+        <v>1.4</v>
       </c>
       <c r="K23" t="n">
-        <v>70.1211742402383</v>
+        <v>0.5</v>
       </c>
       <c r="L23" t="n">
-        <v>108.7162744895932</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>6.60445162436251</v>
+        <v>1.3</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3311686998272</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>147.3543057978938</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>5701.460398659557</v>
+        <v>1942.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>39686.86226996489</v>
+        <v>6595.1</v>
       </c>
       <c r="R23" t="n">
-        <v>16473.06957690837</v>
+        <v>300.1</v>
       </c>
       <c r="S23" t="n">
-        <v>777.2428105849722</v>
+        <v>20.5</v>
       </c>
       <c r="T23" t="n">
-        <v>124.0788361491938</v>
+        <v>4662.3</v>
       </c>
       <c r="U23" t="n">
-        <v>-386.2841208339981</v>
+        <v>5848.1</v>
       </c>
     </row>
     <row r="24">
@@ -1986,55 +1986,55 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>9.88478261574835</v>
+        <v>1840.8</v>
       </c>
       <c r="F24" t="n">
-        <v>9.960452616002323</v>
+        <v>418.2</v>
       </c>
       <c r="G24" t="n">
-        <v>12897.4434409567</v>
+        <v>442.2</v>
       </c>
       <c r="H24" t="n">
-        <v>709.8686327661324</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>1229.700363970886</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>53.99573720807379</v>
+        <v>0.7</v>
       </c>
       <c r="K24" t="n">
-        <v>82.33973338291541</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>4.702403580090825</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>12.15035064903089</v>
+        <v>0.3</v>
       </c>
       <c r="N24" t="n">
-        <v>50.34909885405867</v>
+        <v>0.7</v>
       </c>
       <c r="O24" t="n">
-        <v>155.6828552811598</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>3843.609814515533</v>
+        <v>1952.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>39907.23272410868</v>
+        <v>8047.9</v>
       </c>
       <c r="R24" t="n">
-        <v>18493.30725026152</v>
+        <v>311.8</v>
       </c>
       <c r="S24" t="n">
-        <v>679.7293927410008</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
-        <v>13238.60593737782</v>
+        <v>503.3</v>
       </c>
       <c r="U24" t="n">
-        <v>5704.767265453074</v>
+        <v>2360.6</v>
       </c>
     </row>
     <row r="25">
@@ -2042,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>281.07</v>
+        <v>281.1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2051,55 +2051,55 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>77.74290971615507</v>
+        <v>1951.3</v>
       </c>
       <c r="F25" t="n">
-        <v>69.02119287059089</v>
+        <v>429.7</v>
       </c>
       <c r="G25" t="n">
-        <v>67.86498490313789</v>
+        <v>2370.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="I25" t="n">
-        <v>872.4969399183534</v>
+        <v>7.3</v>
       </c>
       <c r="J25" t="n">
-        <v>111.9943589341881</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>1.084574386058066</v>
+        <v>1.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.688848667115197</v>
+        <v>0.3</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03155483475669903</v>
+        <v>2.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1273.29059930128</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1751.294915011601</v>
+        <v>2.2</v>
       </c>
       <c r="P25" t="n">
-        <v>6795.971746307358</v>
+        <v>1942.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>44460.18622430506</v>
+        <v>7742.2</v>
       </c>
       <c r="R25" t="n">
-        <v>18660.05778046279</v>
+        <v>324.6</v>
       </c>
       <c r="S25" t="n">
-        <v>288.7014935698454</v>
+        <v>56.8</v>
       </c>
       <c r="T25" t="n">
-        <v>329.0740701623389</v>
+        <v>2364.1</v>
       </c>
       <c r="U25" t="n">
-        <v>-3025.194377516868</v>
+        <v>3988.3</v>
       </c>
     </row>
     <row r="26">
@@ -2107,7 +2107,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>263.67</v>
+        <v>263.7</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2116,55 +2116,55 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>954.9911980783933</v>
+        <v>1944.8</v>
       </c>
       <c r="F26" t="n">
-        <v>59.89896660649014</v>
+        <v>433.3</v>
       </c>
       <c r="G26" t="n">
-        <v>73.15777784700767</v>
+        <v>1865.4</v>
       </c>
       <c r="H26" t="n">
-        <v>368.4460712415782</v>
+        <v>5.2</v>
       </c>
       <c r="I26" t="n">
-        <v>585.2235036696025</v>
+        <v>10.3</v>
       </c>
       <c r="J26" t="n">
-        <v>316.3541892429305</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>97.58536046275086</v>
+        <v>1.6</v>
       </c>
       <c r="L26" t="n">
-        <v>9.436510815729386</v>
+        <v>0.5</v>
       </c>
       <c r="M26" t="n">
-        <v>16.85806063459457</v>
+        <v>0.5</v>
       </c>
       <c r="N26" t="n">
-        <v>648.4928229730029</v>
+        <v>0.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1057.615085580738</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>6666.666666666667</v>
+        <v>3333.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>6666.666666666667</v>
+        <v>3333.3</v>
       </c>
       <c r="R26" t="n">
-        <v>666.6666666666666</v>
+        <v>3333.3</v>
       </c>
       <c r="S26" t="n">
-        <v>666.6666666666666</v>
+        <v>666.7</v>
       </c>
       <c r="T26" t="n">
-        <v>104.2684656030367</v>
+        <v>1249.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1671.324005832623</v>
+        <v>4904.2</v>
       </c>
     </row>
     <row r="27">
@@ -2172,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>327.14</v>
+        <v>327.1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2181,55 +2181,55 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>175.6330987381064</v>
+        <v>1854.6</v>
       </c>
       <c r="F27" t="n">
-        <v>63.61857660987067</v>
+        <v>446.6</v>
       </c>
       <c r="G27" t="n">
-        <v>97.4509764643649</v>
+        <v>4313.5</v>
       </c>
       <c r="H27" t="n">
-        <v>224.3411633665369</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>142.8163763888971</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>281.6918231345636</v>
+        <v>0.8</v>
       </c>
       <c r="K27" t="n">
-        <v>63.91921437921199</v>
+        <v>0.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.793544729330424</v>
+        <v>1.7</v>
       </c>
       <c r="M27" t="n">
-        <v>9.277532876234076</v>
+        <v>0.5</v>
       </c>
       <c r="N27" t="n">
-        <v>710.0449975960199</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1186.186501617116</v>
+        <v>3.2</v>
       </c>
       <c r="P27" t="n">
-        <v>3840</v>
+        <v>1932.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>7735.540259377413</v>
+        <v>3871</v>
       </c>
       <c r="R27" t="n">
-        <v>3936.637350099722</v>
+        <v>3311.8</v>
       </c>
       <c r="S27" t="n">
-        <v>308.4610214203224</v>
+        <v>12.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2544.145520157984</v>
+        <v>4327.3</v>
       </c>
       <c r="U27" t="n">
-        <v>-2353.001510022013</v>
+        <v>5467.8</v>
       </c>
     </row>
     <row r="28">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>270.6515424193848</v>
+        <v>1982.5</v>
       </c>
       <c r="F28" t="n">
-        <v>36.34557107766899</v>
+        <v>425.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2753.1</v>
       </c>
       <c r="H28" t="n">
-        <v>23.68758583421711</v>
+        <v>11.7</v>
       </c>
       <c r="I28" t="n">
-        <v>222.0709867129124</v>
+        <v>10.2</v>
       </c>
       <c r="J28" t="n">
-        <v>544.7408787424276</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.502713958617936</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>2.05180634718573</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5.149828088645972</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>550.7736017288726</v>
+        <v>10.3</v>
       </c>
       <c r="P28" t="n">
-        <v>4722.846054138814</v>
+        <v>1926.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>7929.856060512334</v>
+        <v>5335.5</v>
       </c>
       <c r="R28" t="n">
-        <v>7462.113706827699</v>
+        <v>3296.8</v>
       </c>
       <c r="S28" t="n">
-        <v>2395.49976540374</v>
+        <v>20.5</v>
       </c>
       <c r="T28" t="n">
-        <v>-47.22666703955309</v>
+        <v>2757.7</v>
       </c>
       <c r="U28" t="n">
-        <v>-1118.468051118423</v>
+        <v>4166.2</v>
       </c>
     </row>
     <row r="29">
@@ -2302,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>439.45</v>
+        <v>439.4</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2311,55 +2311,55 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1851.2</v>
       </c>
       <c r="F29" t="n">
-        <v>52.90375900964935</v>
+        <v>435.9</v>
       </c>
       <c r="G29" t="n">
-        <v>5047.471658173645</v>
+        <v>2424.7</v>
       </c>
       <c r="H29" t="n">
-        <v>226.9928854921338</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>86.24381047433378</v>
+        <v>0.8</v>
       </c>
       <c r="J29" t="n">
-        <v>215.6135650157448</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="n">
-        <v>42.99416931677814</v>
+        <v>1.4</v>
       </c>
       <c r="L29" t="n">
-        <v>11.11674301549303</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1782119363175358</v>
+        <v>1.5</v>
       </c>
       <c r="N29" t="n">
-        <v>14.60775842676955</v>
+        <v>1.5</v>
       </c>
       <c r="O29" t="n">
-        <v>194.3746825917907</v>
+        <v>10.3</v>
       </c>
       <c r="P29" t="n">
-        <v>4765.077655071567</v>
+        <v>1958</v>
       </c>
       <c r="Q29" t="n">
-        <v>9556.883113557826</v>
+        <v>6103.1</v>
       </c>
       <c r="R29" t="n">
-        <v>7893.550795406806</v>
+        <v>3279.9</v>
       </c>
       <c r="S29" t="n">
-        <v>2297.644651597036</v>
+        <v>12.9</v>
       </c>
       <c r="T29" t="n">
-        <v>3091.702124648594</v>
+        <v>2469.9</v>
       </c>
       <c r="U29" t="n">
-        <v>3941.577987519667</v>
+        <v>3808.5</v>
       </c>
     </row>
     <row r="30">
@@ -2367,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>458.98</v>
+        <v>459</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2376,55 +2376,55 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>79.99715993988019</v>
+        <v>1935.3</v>
       </c>
       <c r="F30" t="n">
-        <v>34.44906421238331</v>
+        <v>437.7</v>
       </c>
       <c r="G30" t="n">
-        <v>15128.83030279156</v>
+        <v>2563.1</v>
       </c>
       <c r="H30" t="n">
-        <v>11.59171988293211</v>
+        <v>10.3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K30" t="n">
-        <v>13.51885472000159</v>
+        <v>3.9</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M30" t="n">
-        <v>4.455439153450784</v>
+        <v>1.2</v>
       </c>
       <c r="N30" t="n">
-        <v>120.1390451360174</v>
+        <v>0.8</v>
       </c>
       <c r="O30" t="n">
-        <v>237.8511755121698</v>
+        <v>10.4</v>
       </c>
       <c r="P30" t="n">
-        <v>4059.634622558309</v>
+        <v>1920.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>12073.44313153161</v>
+        <v>6690.1</v>
       </c>
       <c r="R30" t="n">
-        <v>8080.410634458858</v>
+        <v>3264.3</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="T30" t="n">
-        <v>16415.85371045082</v>
+        <v>2545.9</v>
       </c>
       <c r="U30" t="n">
-        <v>11527.15357708648</v>
+        <v>3940.4</v>
       </c>
     </row>
     <row r="31">
@@ -2432,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>458.98</v>
+        <v>459</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2441,55 +2441,55 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90.82435038271007</v>
+        <v>1906</v>
       </c>
       <c r="F31" t="n">
-        <v>116.6031228093993</v>
+        <v>441.1</v>
       </c>
       <c r="G31" t="n">
-        <v>6420.771378009163</v>
+        <v>2144.7</v>
       </c>
       <c r="H31" t="n">
-        <v>89.73655018493143</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K31" t="n">
-        <v>94.87263586831766</v>
+        <v>2.8</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3.073675784779915</v>
+        <v>0.1</v>
       </c>
       <c r="N31" t="n">
-        <v>19.28898444888105</v>
+        <v>0.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1038.771471843422</v>
+        <v>11.2</v>
       </c>
       <c r="P31" t="n">
-        <v>4396.230392604441</v>
+        <v>1927.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>17098.65068799798</v>
+        <v>7301.1</v>
       </c>
       <c r="R31" t="n">
-        <v>8638.862417062826</v>
+        <v>3247</v>
       </c>
       <c r="S31" t="n">
-        <v>1199.54350235363</v>
+        <v>22.9</v>
       </c>
       <c r="T31" t="n">
-        <v>7614.288473309289</v>
+        <v>2150.7</v>
       </c>
       <c r="U31" t="n">
-        <v>3426.335775107365</v>
+        <v>3558.5</v>
       </c>
     </row>
     <row r="32">
@@ -2497,7 +2497,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="n">
-        <v>458.98</v>
+        <v>459</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2506,55 +2506,55 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1111.66764196041</v>
+        <v>1817.1</v>
       </c>
       <c r="F32" t="n">
-        <v>14.02707379528807</v>
+        <v>430.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4275.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.719069953821871</v>
+        <v>6.1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>111.0095802741955</v>
+        <v>0.7</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L32" t="n">
-        <v>8.44260680761311</v>
+        <v>0.3</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>1257.865507238648</v>
+        <v>1.4</v>
       </c>
       <c r="O32" t="n">
-        <v>887.9888995471858</v>
+        <v>3.6</v>
       </c>
       <c r="P32" t="n">
-        <v>5619.495557806362</v>
+        <v>1936.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>17925.88164577667</v>
+        <v>7710.5</v>
       </c>
       <c r="R32" t="n">
-        <v>9539.358615817562</v>
+        <v>3232.8</v>
       </c>
       <c r="S32" t="n">
-        <v>2225.653670010934</v>
+        <v>24</v>
       </c>
       <c r="T32" t="n">
-        <v>-51.31420934284412</v>
+        <v>4263</v>
       </c>
       <c r="U32" t="n">
-        <v>-2708.376578179545</v>
+        <v>5212.2</v>
       </c>
     </row>
     <row r="33">
@@ -2562,7 +2562,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="n">
-        <v>468.74</v>
+        <v>468.7</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2571,55 +2571,55 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>43.16315710384837</v>
+        <v>1905.3</v>
       </c>
       <c r="F33" t="n">
-        <v>77.07186773170274</v>
+        <v>429.1</v>
       </c>
       <c r="G33" t="n">
-        <v>5885.523152230621</v>
+        <v>4279.5</v>
       </c>
       <c r="H33" t="n">
-        <v>188.895461360255</v>
+        <v>8.4</v>
       </c>
       <c r="I33" t="n">
-        <v>85.4372175728231</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>60.32175910369517</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>11.87857591220507</v>
+        <v>0.9</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8976535428552114</v>
+        <v>0.7</v>
       </c>
       <c r="N33" t="n">
-        <v>807.5898951979127</v>
+        <v>2.4</v>
       </c>
       <c r="O33" t="n">
-        <v>86.42700954394535</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>7216.685258342793</v>
+        <v>1963.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>16470.76331229169</v>
+        <v>8931.799999999999</v>
       </c>
       <c r="R33" t="n">
-        <v>14685.77162030003</v>
+        <v>3213.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2147.088768570088</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
-        <v>4034.684283449293</v>
+        <v>4315</v>
       </c>
       <c r="U33" t="n">
-        <v>3679.489618645609</v>
+        <v>5321.2</v>
       </c>
     </row>
     <row r="34">
@@ -2627,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>473.63</v>
+        <v>473.6</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2636,55 +2636,55 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>165.4587892636993</v>
+        <v>1972.8</v>
       </c>
       <c r="F34" t="n">
-        <v>173.9588871268971</v>
+        <v>456.8</v>
       </c>
       <c r="G34" t="n">
-        <v>4005.284232179002</v>
+        <v>2128.5</v>
       </c>
       <c r="H34" t="n">
-        <v>117.2564001863947</v>
+        <v>10.6</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J34" t="n">
-        <v>132.9395971268667</v>
+        <v>0.2</v>
       </c>
       <c r="K34" t="n">
-        <v>29.7234969701578</v>
+        <v>3.1</v>
       </c>
       <c r="L34" t="n">
-        <v>7.497114173239715</v>
+        <v>0.6</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1139424295996251</v>
+        <v>2.9</v>
       </c>
       <c r="N34" t="n">
-        <v>517.891555269392</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>6817.733574707388</v>
+        <v>1957.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>18231.01622283068</v>
+        <v>10092.1</v>
       </c>
       <c r="R34" t="n">
-        <v>17459.10798680424</v>
+        <v>3197.3</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="T34" t="n">
-        <v>7484.217572035459</v>
+        <v>2110.6</v>
       </c>
       <c r="U34" t="n">
-        <v>5178.85477910193</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="35">
@@ -2692,7 +2692,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>473.63</v>
+        <v>473.6</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2701,55 +2701,55 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>216.1940089824855</v>
+        <v>1993.7</v>
       </c>
       <c r="F35" t="n">
-        <v>41.55906710886985</v>
+        <v>425.6</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="H35" t="n">
-        <v>73.46099895802575</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>44.71147400644828</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>39.16495459817358</v>
+        <v>0.1</v>
       </c>
       <c r="K35" t="n">
-        <v>46.5822632709185</v>
+        <v>0.7</v>
       </c>
       <c r="L35" t="n">
-        <v>2.53214908800805</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>18.6130441787403</v>
+        <v>0.5</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O35" t="n">
-        <v>106.1225969438291</v>
+        <v>11.2</v>
       </c>
       <c r="P35" t="n">
-        <v>3840</v>
+        <v>1934.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>19437.24322675103</v>
+        <v>10334.1</v>
       </c>
       <c r="R35" t="n">
-        <v>19136.70449237173</v>
+        <v>3189.1</v>
       </c>
       <c r="S35" t="n">
-        <v>3161.657161759694</v>
+        <v>0.1</v>
       </c>
       <c r="T35" t="n">
-        <v>-56.08247862910861</v>
+        <v>69.3</v>
       </c>
       <c r="U35" t="n">
-        <v>-535.9018616825124</v>
+        <v>1859.1</v>
       </c>
     </row>
     <row r="36">
@@ -2757,7 +2757,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="n">
-        <v>458.98</v>
+        <v>459</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -2766,55 +2766,55 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>322.4001308054703</v>
+        <v>1972.9</v>
       </c>
       <c r="F36" t="n">
-        <v>12.98638400506671</v>
+        <v>432.5</v>
       </c>
       <c r="G36" t="n">
-        <v>3982.333517488136</v>
+        <v>4190.2</v>
       </c>
       <c r="H36" t="n">
-        <v>27.83678168075042</v>
+        <v>11.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10.04633071363074</v>
+        <v>5.8</v>
       </c>
       <c r="J36" t="n">
-        <v>12.77351554595914</v>
+        <v>0.4</v>
       </c>
       <c r="K36" t="n">
-        <v>17.40324396471567</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>4.883348945486783</v>
+        <v>1.7</v>
       </c>
       <c r="M36" t="n">
-        <v>2.408741137333491</v>
+        <v>0.7</v>
       </c>
       <c r="N36" t="n">
-        <v>105.5184979305355</v>
+        <v>0.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1749.93540791096</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>3840</v>
+        <v>1930.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>18531.74574640581</v>
+        <v>9716.700000000001</v>
       </c>
       <c r="R36" t="n">
-        <v>19078.01287600647</v>
+        <v>3178.4</v>
       </c>
       <c r="S36" t="n">
-        <v>2995.042650340768</v>
+        <v>56.7</v>
       </c>
       <c r="T36" t="n">
-        <v>3639.620751145124</v>
+        <v>4190.3</v>
       </c>
       <c r="U36" t="n">
-        <v>-2272.363226909364</v>
+        <v>5341.4</v>
       </c>
     </row>
     <row r="37">
@@ -2822,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="n">
-        <v>439.45</v>
+        <v>439.4</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2831,55 +2831,55 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.33855512701091</v>
+        <v>1951.9</v>
       </c>
       <c r="F37" t="n">
-        <v>183.9114551359755</v>
+        <v>433.2</v>
       </c>
       <c r="G37" t="n">
-        <v>3136.524129149875</v>
+        <v>2040.2</v>
       </c>
       <c r="H37" t="n">
-        <v>334.9063989462483</v>
+        <v>7.4</v>
       </c>
       <c r="I37" t="n">
-        <v>263.6145617570679</v>
+        <v>6.2</v>
       </c>
       <c r="J37" t="n">
-        <v>183.0889631932664</v>
+        <v>2.7</v>
       </c>
       <c r="K37" t="n">
-        <v>48.91991632981718</v>
+        <v>1.8</v>
       </c>
       <c r="L37" t="n">
-        <v>8.568420139465296</v>
+        <v>0.1</v>
       </c>
       <c r="M37" t="n">
-        <v>24.67681280239325</v>
+        <v>2.8</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>829.3018553727486</v>
+        <v>5.6</v>
       </c>
       <c r="P37" t="n">
-        <v>8520.978469293621</v>
+        <v>1920.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>17575.02330451054</v>
+        <v>10791.8</v>
       </c>
       <c r="R37" t="n">
-        <v>20821.324792002</v>
+        <v>3155.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2578.940589581018</v>
+        <v>44.1</v>
       </c>
       <c r="T37" t="n">
-        <v>7263.793882763683</v>
+        <v>2040.2</v>
       </c>
       <c r="U37" t="n">
-        <v>6133.175909064312</v>
+        <v>3524.7</v>
       </c>
     </row>
     <row r="38">
@@ -2887,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="B38" t="n">
-        <v>400.39</v>
+        <v>400.4</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2896,55 +2896,55 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>477.4563529137481</v>
+        <v>1813.3</v>
       </c>
       <c r="F38" t="n">
-        <v>133.3508241296479</v>
+        <v>434.9</v>
       </c>
       <c r="G38" t="n">
-        <v>4689.387332716518</v>
+        <v>3159</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3213874807861</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>2.277474694727672</v>
+        <v>2.1</v>
       </c>
       <c r="J38" t="n">
-        <v>176.7521525958113</v>
+        <v>0.2</v>
       </c>
       <c r="K38" t="n">
-        <v>128.1515882932897</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>8.564517492894797</v>
+        <v>3.2</v>
       </c>
       <c r="N38" t="n">
-        <v>467.4322505512101</v>
+        <v>1.6</v>
       </c>
       <c r="O38" t="n">
-        <v>54.26669801659823</v>
+        <v>11.8</v>
       </c>
       <c r="P38" t="n">
-        <v>3840</v>
+        <v>1933.1</v>
       </c>
       <c r="Q38" t="n">
-        <v>18422.36902868241</v>
+        <v>10964.3</v>
       </c>
       <c r="R38" t="n">
-        <v>21415.162171069</v>
+        <v>3142.8</v>
       </c>
       <c r="S38" t="n">
-        <v>6119.868918750048</v>
+        <v>35.8</v>
       </c>
       <c r="T38" t="n">
-        <v>17.27787275916762</v>
+        <v>3183.2</v>
       </c>
       <c r="U38" t="n">
-        <v>-2522.347888827994</v>
+        <v>4357.9</v>
       </c>
     </row>
     <row r="39">
@@ -2952,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>336.91</v>
+        <v>336.9</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2961,55 +2961,55 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>330.5283906498028</v>
+        <v>1817.7</v>
       </c>
       <c r="F39" t="n">
-        <v>44.9222718795155</v>
+        <v>454.7</v>
       </c>
       <c r="G39" t="n">
-        <v>7056.662344640009</v>
+        <v>2513.5</v>
       </c>
       <c r="H39" t="n">
-        <v>58.53024228065359</v>
+        <v>10.7</v>
       </c>
       <c r="I39" t="n">
-        <v>140.0447054252517</v>
+        <v>8.9</v>
       </c>
       <c r="J39" t="n">
-        <v>165.8462153509841</v>
+        <v>1.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.07467804024092</v>
+        <v>1.5</v>
       </c>
       <c r="L39" t="n">
-        <v>83.78661163840496</v>
+        <v>0.5</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8926211714430813</v>
+        <v>1.5</v>
       </c>
       <c r="N39" t="n">
-        <v>540.5356087009014</v>
+        <v>2.1</v>
       </c>
       <c r="O39" t="n">
-        <v>457.1635662287377</v>
+        <v>7.6</v>
       </c>
       <c r="P39" t="n">
-        <v>9014.102054379127</v>
+        <v>1949.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>20189.37719587081</v>
+        <v>11542</v>
       </c>
       <c r="R39" t="n">
-        <v>22907.69296126192</v>
+        <v>3133.3</v>
       </c>
       <c r="S39" t="n">
-        <v>1082.168609600699</v>
+        <v>54.8</v>
       </c>
       <c r="T39" t="n">
-        <v>7024.828260945784</v>
+        <v>2505.7</v>
       </c>
       <c r="U39" t="n">
-        <v>9148.991277943835</v>
+        <v>3938.9</v>
       </c>
     </row>
     <row r="40">
@@ -3017,7 +3017,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="n">
-        <v>307.61</v>
+        <v>307.6</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3026,55 +3026,55 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>77.82810056389914</v>
+        <v>1900.1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>426.9</v>
       </c>
       <c r="G40" t="n">
-        <v>1203.209234766999</v>
+        <v>4852</v>
       </c>
       <c r="H40" t="n">
-        <v>76.5685271519196</v>
+        <v>1.7</v>
       </c>
       <c r="I40" t="n">
-        <v>942.7589660812819</v>
+        <v>5.2</v>
       </c>
       <c r="J40" t="n">
-        <v>71.29062604350345</v>
+        <v>1.5</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8688348834682</v>
+        <v>2.7</v>
       </c>
       <c r="L40" t="n">
-        <v>5.532050322140214</v>
+        <v>0.7</v>
       </c>
       <c r="M40" t="n">
-        <v>4.457058683320914</v>
+        <v>0.6</v>
       </c>
       <c r="N40" t="n">
-        <v>261.7774403454351</v>
+        <v>2.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1086.781941656509</v>
+        <v>7.1</v>
       </c>
       <c r="P40" t="n">
-        <v>4420.846122411422</v>
+        <v>1932.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>22240.59158368546</v>
+        <v>11852.9</v>
       </c>
       <c r="R40" t="n">
-        <v>25309.44098475723</v>
+        <v>3120.7</v>
       </c>
       <c r="S40" t="n">
-        <v>977.1777838045554</v>
+        <v>34.9</v>
       </c>
       <c r="T40" t="n">
-        <v>4589.52279541349</v>
+        <v>4821.8</v>
       </c>
       <c r="U40" t="n">
-        <v>-3760.076186317634</v>
+        <v>5953.9</v>
       </c>
     </row>
     <row r="41">
@@ -3082,7 +3082,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="n">
-        <v>288.08</v>
+        <v>288.1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3091,55 +3091,55 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>391.4714549163934</v>
+        <v>1886.9</v>
       </c>
       <c r="F41" t="n">
-        <v>101.7575700652844</v>
+        <v>443.2</v>
       </c>
       <c r="G41" t="n">
-        <v>714.3618086245347</v>
+        <v>1174.5</v>
       </c>
       <c r="H41" t="n">
-        <v>48.84610970379648</v>
+        <v>4.9</v>
       </c>
       <c r="I41" t="n">
-        <v>677.1523764813838</v>
+        <v>5.4</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="K41" t="n">
-        <v>39.09941757146184</v>
+        <v>1.9</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="M41" t="n">
-        <v>4.065488958960576</v>
+        <v>0.9</v>
       </c>
       <c r="N41" t="n">
-        <v>182.3800268736651</v>
+        <v>0.9</v>
       </c>
       <c r="O41" t="n">
-        <v>557.6161817201017</v>
+        <v>7.8</v>
       </c>
       <c r="P41" t="n">
-        <v>7001.237231060604</v>
+        <v>1927.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>21986.60712091908</v>
+        <v>13051.4</v>
       </c>
       <c r="R41" t="n">
-        <v>26962.65135338502</v>
+        <v>3108.5</v>
       </c>
       <c r="S41" t="n">
-        <v>4080.221209968154</v>
+        <v>1.4</v>
       </c>
       <c r="T41" t="n">
-        <v>-9.452804833346249</v>
+        <v>1231.7</v>
       </c>
       <c r="U41" t="n">
-        <v>33.70888982171141</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="42">
@@ -3147,7 +3147,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="n">
-        <v>239.26</v>
+        <v>239.3</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3156,55 +3156,55 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1883.6</v>
       </c>
       <c r="F42" t="n">
-        <v>37.3996036182843</v>
+        <v>445.1</v>
       </c>
       <c r="G42" t="n">
-        <v>1828.611661290002</v>
+        <v>1612.6</v>
       </c>
       <c r="H42" t="n">
-        <v>18.67983956391986</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2405.790540855257</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K42" t="n">
-        <v>38.77358893052409</v>
+        <v>0.6</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M42" t="n">
-        <v>5.942907750463033</v>
+        <v>5.1</v>
       </c>
       <c r="N42" t="n">
-        <v>539.3957188900922</v>
+        <v>2.4</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>6581.394690634542</v>
+        <v>1941.9</v>
       </c>
       <c r="Q42" t="n">
-        <v>21143.93525617324</v>
+        <v>12738.9</v>
       </c>
       <c r="R42" t="n">
-        <v>27832.14450887115</v>
+        <v>3093.2</v>
       </c>
       <c r="S42" t="n">
-        <v>3234.225191626303</v>
+        <v>50.6</v>
       </c>
       <c r="T42" t="n">
-        <v>377.5981870850244</v>
+        <v>1590.5</v>
       </c>
       <c r="U42" t="n">
-        <v>-42.98199302434841</v>
+        <v>3314.6</v>
       </c>
     </row>
     <row r="43">
@@ -3212,7 +3212,7 @@
         <v>24</v>
       </c>
       <c r="B43" t="n">
-        <v>156.25</v>
+        <v>156.2</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3221,55 +3221,55 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>222.9927930135537</v>
+        <v>1976.4</v>
       </c>
       <c r="F43" t="n">
-        <v>34.8452126319355</v>
+        <v>455.7</v>
       </c>
       <c r="G43" t="n">
-        <v>5181.058417956539</v>
+        <v>3156.7</v>
       </c>
       <c r="H43" t="n">
-        <v>54.53236678538401</v>
+        <v>1.9</v>
       </c>
       <c r="I43" t="n">
-        <v>581.1174470574251</v>
+        <v>10.1</v>
       </c>
       <c r="J43" t="n">
-        <v>39.89169412966444</v>
+        <v>0.6</v>
       </c>
       <c r="K43" t="n">
-        <v>63.89228239619165</v>
+        <v>0.4</v>
       </c>
       <c r="L43" t="n">
-        <v>31.84753156135737</v>
+        <v>0.4</v>
       </c>
       <c r="M43" t="n">
-        <v>4.762053605784</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>2293.014059713713</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>727.3808163639376</v>
+        <v>4.6</v>
       </c>
       <c r="P43" t="n">
-        <v>4669.936648612863</v>
+        <v>1956.2</v>
       </c>
       <c r="Q43" t="n">
-        <v>22705.16474878536</v>
+        <v>12615.7</v>
       </c>
       <c r="R43" t="n">
-        <v>29461.9095601523</v>
+        <v>3081.9</v>
       </c>
       <c r="S43" t="n">
-        <v>1670.307802203505</v>
+        <v>22.7</v>
       </c>
       <c r="T43" t="n">
-        <v>10512.44856645954</v>
+        <v>3169.2</v>
       </c>
       <c r="U43" t="n">
-        <v>148.0318843329846</v>
+        <v>4801.1</v>
       </c>
     </row>
     <row r="44">
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>161.13</v>
+        <v>161.1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3286,55 +3286,55 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1955.6</v>
       </c>
       <c r="F44" t="n">
-        <v>41.94768083864057</v>
+        <v>439.2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="H44" t="n">
-        <v>27.87246802485359</v>
+        <v>9.1</v>
       </c>
       <c r="I44" t="n">
-        <v>842.9399563463019</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>6.720143662934744</v>
+        <v>1.6</v>
       </c>
       <c r="K44" t="n">
-        <v>94.32430016480987</v>
+        <v>0.5</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2442201320060686</v>
+        <v>0.7</v>
       </c>
       <c r="M44" t="n">
-        <v>4.197469974031863</v>
+        <v>4.3</v>
       </c>
       <c r="N44" t="n">
-        <v>80.348306153382</v>
+        <v>0.4</v>
       </c>
       <c r="O44" t="n">
-        <v>941.5545125148941</v>
+        <v>6.6</v>
       </c>
       <c r="P44" t="n">
-        <v>5613.389482922443</v>
+        <v>1949.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>23560.96753776005</v>
+        <v>13104.1</v>
       </c>
       <c r="R44" t="n">
-        <v>38009.65180826045</v>
+        <v>3070.8</v>
       </c>
       <c r="S44" t="n">
-        <v>6616.489467886893</v>
+        <v>32.5</v>
       </c>
       <c r="T44" t="n">
-        <v>-240.6885026034873</v>
+        <v>1639.2</v>
       </c>
       <c r="U44" t="n">
-        <v>-3654.12353727047</v>
+        <v>3521.2</v>
       </c>
     </row>
     <row r="45">
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>161.13</v>
+        <v>161.1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -3351,55 +3351,55 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>71.96101884749054</v>
+        <v>1880.5</v>
       </c>
       <c r="F45" t="n">
-        <v>80.64026810767362</v>
+        <v>425.5</v>
       </c>
       <c r="G45" t="n">
-        <v>892.050434985209</v>
+        <v>4815.9</v>
       </c>
       <c r="H45" t="n">
-        <v>120.950071273534</v>
+        <v>5.3</v>
       </c>
       <c r="I45" t="n">
-        <v>240.9789366311414</v>
+        <v>0.6</v>
       </c>
       <c r="J45" t="n">
-        <v>620.7685177194952</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.22586874866482</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M45" t="n">
-        <v>5.138742934722093</v>
+        <v>2.4</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O45" t="n">
-        <v>2226.974833583839</v>
+        <v>5.3</v>
       </c>
       <c r="P45" t="n">
-        <v>7674.478044973732</v>
+        <v>1927.7</v>
       </c>
       <c r="Q45" t="n">
-        <v>22257.1200431693</v>
+        <v>12979.1</v>
       </c>
       <c r="R45" t="n">
-        <v>38748.54371164085</v>
+        <v>3057.5</v>
       </c>
       <c r="S45" t="n">
-        <v>6270.455772237437</v>
+        <v>16.6</v>
       </c>
       <c r="T45" t="n">
-        <v>-444.7848266581055</v>
+        <v>4833.5</v>
       </c>
       <c r="U45" t="n">
-        <v>2527.991217732389</v>
+        <v>6049.1</v>
       </c>
     </row>
     <row r="46">
@@ -3407,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="n">
-        <v>161.13</v>
+        <v>161.1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -3416,55 +3416,55 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>116.1780922270488</v>
+        <v>1989.4</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>432.4</v>
       </c>
       <c r="G46" t="n">
-        <v>4262.341501997304</v>
+        <v>2963.7</v>
       </c>
       <c r="H46" t="n">
-        <v>0.009286560547287099</v>
+        <v>6.8</v>
       </c>
       <c r="I46" t="n">
-        <v>115.639989848981</v>
+        <v>9.5</v>
       </c>
       <c r="J46" t="n">
-        <v>306.1029696608516</v>
+        <v>0.1</v>
       </c>
       <c r="K46" t="n">
-        <v>59.10813690416434</v>
+        <v>3.1</v>
       </c>
       <c r="L46" t="n">
-        <v>24.35397893610373</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>13.95553225717119</v>
+        <v>0.6</v>
       </c>
       <c r="N46" t="n">
-        <v>9.478112732523289</v>
+        <v>1.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1349.536404212526</v>
+        <v>4.3</v>
       </c>
       <c r="P46" t="n">
-        <v>4636.824259656273</v>
+        <v>1928.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>22410.64723099138</v>
+        <v>14089.8</v>
       </c>
       <c r="R46" t="n">
-        <v>40328.93589688682</v>
+        <v>3045.4</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.585446528032</v>
+        <v>28</v>
       </c>
       <c r="T46" t="n">
-        <v>198.3510710744927</v>
+        <v>2987.9</v>
       </c>
       <c r="U46" t="n">
-        <v>3569.135865218476</v>
+        <v>4583.7</v>
       </c>
     </row>
     <row r="47">
@@ -3472,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>161.13</v>
+        <v>161.1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -3481,55 +3481,55 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>129.0321431599201</v>
+        <v>1890.7</v>
       </c>
       <c r="F47" t="n">
-        <v>10.49838284294058</v>
+        <v>420.6</v>
       </c>
       <c r="G47" t="n">
-        <v>2021.337045508553</v>
+        <v>1892.6</v>
       </c>
       <c r="H47" t="n">
-        <v>20.65563780689995</v>
+        <v>11.2</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1791825289384943</v>
+        <v>0.7</v>
       </c>
       <c r="J47" t="n">
-        <v>10.30169457960165</v>
+        <v>1.1</v>
       </c>
       <c r="K47" t="n">
-        <v>22.18612060401073</v>
+        <v>4.7</v>
       </c>
       <c r="L47" t="n">
-        <v>4.736435094616886</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
-        <v>1.885026218527828</v>
+        <v>0.6</v>
       </c>
       <c r="N47" t="n">
-        <v>2.889103243336648</v>
+        <v>2.2</v>
       </c>
       <c r="O47" t="n">
-        <v>31.89701946151572</v>
+        <v>4.7</v>
       </c>
       <c r="P47" t="n">
-        <v>3840</v>
+        <v>1961.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>23092.61116647812</v>
+        <v>14420.3</v>
       </c>
       <c r="R47" t="n">
-        <v>41263.00569997941</v>
+        <v>3030</v>
       </c>
       <c r="S47" t="n">
-        <v>406.5840970011454</v>
+        <v>44.1</v>
       </c>
       <c r="T47" t="n">
-        <v>13347.1381352313</v>
+        <v>1898</v>
       </c>
       <c r="U47" t="n">
-        <v>1445.511658874348</v>
+        <v>3646.6</v>
       </c>
     </row>
     <row r="48">
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>161.13</v>
+        <v>161.1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -3546,55 +3546,55 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>656.5148861954269</v>
+        <v>1917.5</v>
       </c>
       <c r="F48" t="n">
-        <v>15.41893769943464</v>
+        <v>435.3</v>
       </c>
       <c r="G48" t="n">
-        <v>934.6539842256899</v>
+        <v>3004</v>
       </c>
       <c r="H48" t="n">
-        <v>330.4580989775253</v>
+        <v>9.5</v>
       </c>
       <c r="I48" t="n">
-        <v>71.54131657809681</v>
+        <v>7.9</v>
       </c>
       <c r="J48" t="n">
-        <v>397.9466729702804</v>
+        <v>1.4</v>
       </c>
       <c r="K48" t="n">
-        <v>33.1403750399576</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M48" t="n">
-        <v>6.150121347235943</v>
+        <v>1.2</v>
       </c>
       <c r="N48" t="n">
-        <v>1690.506146903977</v>
+        <v>2.4</v>
       </c>
       <c r="O48" t="n">
-        <v>331.4596871547382</v>
+        <v>7</v>
       </c>
       <c r="P48" t="n">
-        <v>3840</v>
+        <v>1941.1</v>
       </c>
       <c r="Q48" t="n">
-        <v>22572.19538117494</v>
+        <v>14314.5</v>
       </c>
       <c r="R48" t="n">
-        <v>40909.9400217388</v>
+        <v>3017.1</v>
       </c>
       <c r="S48" t="n">
-        <v>11035.00755355798</v>
+        <v>37.6</v>
       </c>
       <c r="T48" t="n">
-        <v>-2473.643297777443</v>
+        <v>2995.5</v>
       </c>
       <c r="U48" t="n">
-        <v>-6261.855753595142</v>
+        <v>4585.7</v>
       </c>
     </row>
     <row r="49">
@@ -3602,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>224.61</v>
+        <v>224.6</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -3611,55 +3611,55 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>223.4107597466317</v>
+        <v>1878.5</v>
       </c>
       <c r="F49" t="n">
-        <v>25.12371231977227</v>
+        <v>437.6</v>
       </c>
       <c r="G49" t="n">
-        <v>4793.9202752439</v>
+        <v>1358.8</v>
       </c>
       <c r="H49" t="n">
-        <v>123.4358472622947</v>
+        <v>4.4</v>
       </c>
       <c r="I49" t="n">
-        <v>370.9989997861109</v>
+        <v>4.6</v>
       </c>
       <c r="J49" t="n">
-        <v>172.6339236468293</v>
+        <v>0.2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L49" t="n">
-        <v>5.359404208536763</v>
+        <v>0.3</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N49" t="n">
-        <v>524.7560922558743</v>
+        <v>1.4</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="P49" t="n">
-        <v>8564.813629420694</v>
+        <v>1938.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>23432.01530846512</v>
+        <v>14650.4</v>
       </c>
       <c r="R49" t="n">
-        <v>46752.8485755336</v>
+        <v>3009.7</v>
       </c>
       <c r="S49" t="n">
-        <v>7028.480817842559</v>
+        <v>18.4</v>
       </c>
       <c r="T49" t="n">
-        <v>0.4819775551422936</v>
+        <v>1370.8</v>
       </c>
       <c r="U49" t="n">
-        <v>6439.125394722928</v>
+        <v>3102.6</v>
       </c>
     </row>
     <row r="50">
@@ -3667,64 +3667,64 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>347.69</v>
+        <v>347.7</v>
       </c>
       <c r="C50" t="n">
-        <v>3494.28</v>
+        <v>3494.3</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>101.2009057219943</v>
+        <v>1801.9</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>459.4</v>
       </c>
       <c r="G50" t="n">
-        <v>7991.138408106798</v>
+        <v>2250</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J50" t="n">
-        <v>345.8035862153402</v>
+        <v>30.6</v>
       </c>
       <c r="K50" t="n">
-        <v>64.78898526957559</v>
+        <v>12.2</v>
       </c>
       <c r="L50" t="n">
-        <v>124.8570867148023</v>
+        <v>111.9</v>
       </c>
       <c r="M50" t="n">
-        <v>1.843976199041513</v>
+        <v>2.8</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O50" t="n">
-        <v>1845.50196090435</v>
+        <v>9.6</v>
       </c>
       <c r="P50" t="n">
-        <v>6666.666666666667</v>
+        <v>3333.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>6666.666666666667</v>
+        <v>3333.3</v>
       </c>
       <c r="R50" t="n">
-        <v>666.6666666666666</v>
+        <v>3333.3</v>
       </c>
       <c r="S50" t="n">
-        <v>666.6666666666666</v>
+        <v>666.7</v>
       </c>
       <c r="T50" t="n">
-        <v>10246.3037417897</v>
+        <v>2648.5</v>
       </c>
       <c r="U50" t="n">
-        <v>8300.150981690404</v>
+        <v>4799.1</v>
       </c>
     </row>
     <row r="51">
@@ -3732,64 +3732,64 @@
         <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>363.49</v>
+        <v>363.5</v>
       </c>
       <c r="C51" t="n">
-        <v>3421.09</v>
+        <v>3421.1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>88.26267569670514</v>
+        <v>1864.6</v>
       </c>
       <c r="F51" t="n">
-        <v>5.377038584596514</v>
+        <v>425.6</v>
       </c>
       <c r="G51" t="n">
-        <v>6277.091804901136</v>
+        <v>1300</v>
       </c>
       <c r="H51" t="n">
-        <v>225.1883898576646</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1648.730838154755</v>
+        <v>300</v>
       </c>
       <c r="J51" t="n">
-        <v>172.6443946864435</v>
+        <v>142.3</v>
       </c>
       <c r="K51" t="n">
-        <v>5.157854058307895</v>
+        <v>307.7</v>
       </c>
       <c r="L51" t="n">
-        <v>103.1434624196873</v>
+        <v>157.7</v>
       </c>
       <c r="M51" t="n">
-        <v>1.501105979127624</v>
+        <v>52.3</v>
       </c>
       <c r="N51" t="n">
-        <v>287.7738722780915</v>
+        <v>2.5</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="P51" t="n">
-        <v>3922.908128028436</v>
+        <v>1948.9</v>
       </c>
       <c r="Q51" t="n">
-        <v>6366.565481859486</v>
+        <v>1675.3</v>
       </c>
       <c r="R51" t="n">
-        <v>2770.409223654824</v>
+        <v>3756.2</v>
       </c>
       <c r="S51" t="n">
-        <v>2780.982996328764</v>
+        <v>43.6</v>
       </c>
       <c r="T51" t="n">
-        <v>11046.58667542301</v>
+        <v>1295.9</v>
       </c>
       <c r="U51" t="n">
-        <v>2131.626092905215</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="52">
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="n">
-        <v>410.91</v>
+        <v>410.9</v>
       </c>
       <c r="C52" t="n">
         <v>3101.3</v>
@@ -3806,55 +3806,55 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>208.0016824920764</v>
+        <v>1895.9</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>453.8</v>
       </c>
       <c r="G52" t="n">
-        <v>3647.48487740435</v>
+        <v>300</v>
       </c>
       <c r="H52" t="n">
-        <v>1.50231538219372</v>
+        <v>960</v>
       </c>
       <c r="I52" t="n">
-        <v>2172.509441366008</v>
+        <v>540</v>
       </c>
       <c r="J52" t="n">
-        <v>101.4938050656911</v>
+        <v>285.7</v>
       </c>
       <c r="K52" t="n">
-        <v>37.84329695500698</v>
+        <v>18.1</v>
       </c>
       <c r="L52" t="n">
-        <v>8.350790093664749</v>
+        <v>21.8</v>
       </c>
       <c r="M52" t="n">
-        <v>0.06525522653146576</v>
+        <v>26.9</v>
       </c>
       <c r="N52" t="n">
-        <v>182.9858003275781</v>
+        <v>2.4</v>
       </c>
       <c r="O52" t="n">
-        <v>313.0725085117193</v>
+        <v>6.2</v>
       </c>
       <c r="P52" t="n">
-        <v>4303.668965090565</v>
+        <v>1954.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>7812.960331009162</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="R52" t="n">
-        <v>4157.418400197125</v>
+        <v>4440.2</v>
       </c>
       <c r="S52" t="n">
-        <v>7027.093411430167</v>
+        <v>38.8</v>
       </c>
       <c r="T52" t="n">
-        <v>-41.0638972074712</v>
+        <v>1270.5</v>
       </c>
       <c r="U52" t="n">
-        <v>-3034.826702718819</v>
+        <v>1222.9</v>
       </c>
     </row>
     <row r="53">
@@ -3862,64 +3862,64 @@
         <v>10</v>
       </c>
       <c r="B53" t="n">
-        <v>463.59</v>
+        <v>463.6</v>
       </c>
       <c r="C53" t="n">
-        <v>3045.76</v>
+        <v>3045.8</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>419.74971043831</v>
+        <v>1943</v>
       </c>
       <c r="F53" t="n">
-        <v>56.35474183573385</v>
+        <v>432.7</v>
       </c>
       <c r="G53" t="n">
-        <v>11162.79009837568</v>
+        <v>150</v>
       </c>
       <c r="H53" t="n">
-        <v>184.5752233755369</v>
+        <v>540</v>
       </c>
       <c r="I53" t="n">
-        <v>234.7500184650944</v>
+        <v>300</v>
       </c>
       <c r="J53" t="n">
-        <v>404.8055433584422</v>
+        <v>456.6</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="L53" t="n">
-        <v>35.44219662307314</v>
+        <v>8.4</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="N53" t="n">
-        <v>241.4186173339094</v>
+        <v>0.3</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="P53" t="n">
-        <v>7192.26939579983</v>
+        <v>1939.8</v>
       </c>
       <c r="Q53" t="n">
-        <v>8143.70207893597</v>
+        <v>53.4</v>
       </c>
       <c r="R53" t="n">
-        <v>5067.895664360038</v>
+        <v>57387.6</v>
       </c>
       <c r="S53" t="n">
-        <v>3111.400815111576</v>
+        <v>48.3</v>
       </c>
       <c r="T53" t="n">
-        <v>11868.39341583569</v>
+        <v>650.3</v>
       </c>
       <c r="U53" t="n">
-        <v>9082.19948203328</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="54">
@@ -3930,61 +3930,61 @@
         <v>495.2</v>
       </c>
       <c r="C54" t="n">
-        <v>3001.29</v>
+        <v>3001.3</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>172.1880899257743</v>
+        <v>1974.5</v>
       </c>
       <c r="F54" t="n">
-        <v>12.63173094793796</v>
+        <v>450.7</v>
       </c>
       <c r="G54" t="n">
-        <v>2933.711093838708</v>
+        <v>500</v>
       </c>
       <c r="H54" t="n">
-        <v>35.29848119078972</v>
+        <v>510</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="J54" t="n">
-        <v>292.4128790190093</v>
+        <v>405</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4809592621412938</v>
+        <v>1.9</v>
       </c>
       <c r="L54" t="n">
-        <v>3.162551965116396</v>
+        <v>37.5</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2547321377068215</v>
+        <v>13.1</v>
       </c>
       <c r="N54" t="n">
-        <v>704.794735073962</v>
+        <v>2.8</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="P54" t="n">
-        <v>6176.003673723176</v>
+        <v>1933.7</v>
       </c>
       <c r="Q54" t="n">
-        <v>11495.09117624252</v>
+        <v>287.1</v>
       </c>
       <c r="R54" t="n">
-        <v>6004.242426056338</v>
+        <v>56282.2</v>
       </c>
       <c r="S54" t="n">
-        <v>3570.313729446913</v>
+        <v>6.4</v>
       </c>
       <c r="T54" t="n">
-        <v>210.2223341552949</v>
+        <v>1025.3</v>
       </c>
       <c r="U54" t="n">
-        <v>277.503219207533</v>
+        <v>1409.4</v>
       </c>
     </row>
     <row r="55">
@@ -3995,61 +3995,61 @@
         <v>495.2</v>
       </c>
       <c r="C55" t="n">
-        <v>2923.62</v>
+        <v>2923.6</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>716.0552630626011</v>
+        <v>1805.9</v>
       </c>
       <c r="F55" t="n">
-        <v>56.09431002787969</v>
+        <v>435</v>
       </c>
       <c r="G55" t="n">
-        <v>1525.406467312132</v>
+        <v>250</v>
       </c>
       <c r="H55" t="n">
-        <v>189.9537412010048</v>
+        <v>1530</v>
       </c>
       <c r="I55" t="n">
-        <v>1067.501358704661</v>
+        <v>270</v>
       </c>
       <c r="J55" t="n">
-        <v>42.30451410575078</v>
+        <v>233.8</v>
       </c>
       <c r="K55" t="n">
-        <v>175.0214499336559</v>
+        <v>5.5</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="M55" t="n">
-        <v>43.54510418751471</v>
+        <v>9.5</v>
       </c>
       <c r="N55" t="n">
-        <v>74.75005014904609</v>
+        <v>2.2</v>
       </c>
       <c r="O55" t="n">
-        <v>531.92980633791</v>
+        <v>2.2</v>
       </c>
       <c r="P55" t="n">
-        <v>6700.507275084315</v>
+        <v>1934.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>10595.27626548123</v>
+        <v>385.8</v>
       </c>
       <c r="R55" t="n">
-        <v>8437.726366171179</v>
+        <v>55571.6</v>
       </c>
       <c r="S55" t="n">
-        <v>659.6638885045902</v>
+        <v>20.8</v>
       </c>
       <c r="T55" t="n">
-        <v>3394.094000671277</v>
+        <v>1811.8</v>
       </c>
       <c r="U55" t="n">
-        <v>1061.210381195083</v>
+        <v>1335.3</v>
       </c>
     </row>
     <row r="56">
@@ -4060,61 +4060,61 @@
         <v>495.2</v>
       </c>
       <c r="C56" t="n">
-        <v>2857.08</v>
+        <v>2857.1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1806.7</v>
       </c>
       <c r="F56" t="n">
-        <v>79.70421074846541</v>
+        <v>448.6</v>
       </c>
       <c r="G56" t="n">
-        <v>4034.479627266926</v>
+        <v>1400</v>
       </c>
       <c r="H56" t="n">
-        <v>84.56830043621746</v>
+        <v>240</v>
       </c>
       <c r="I56" t="n">
-        <v>161.1188697844522</v>
+        <v>840</v>
       </c>
       <c r="J56" t="n">
-        <v>129.8699880421975</v>
+        <v>210.7</v>
       </c>
       <c r="K56" t="n">
-        <v>39.17251071388909</v>
+        <v>29.9</v>
       </c>
       <c r="L56" t="n">
-        <v>5.260211724043195</v>
+        <v>21.8</v>
       </c>
       <c r="M56" t="n">
-        <v>2.262910529626244</v>
+        <v>45.1</v>
       </c>
       <c r="N56" t="n">
-        <v>736.9350434596535</v>
+        <v>1.1</v>
       </c>
       <c r="O56" t="n">
-        <v>2032.607912356848</v>
+        <v>3.5</v>
       </c>
       <c r="P56" t="n">
-        <v>5501.493215003557</v>
+        <v>1925.8</v>
       </c>
       <c r="Q56" t="n">
-        <v>8830.684555636428</v>
+        <v>499.6</v>
       </c>
       <c r="R56" t="n">
-        <v>9153.542953644494</v>
+        <v>54933.7</v>
       </c>
       <c r="S56" t="n">
-        <v>2231.916381144276</v>
+        <v>50.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2594.753746838281</v>
+        <v>1637.5</v>
       </c>
       <c r="U56" t="n">
-        <v>-822.7850648081628</v>
+        <v>1670.3</v>
       </c>
     </row>
     <row r="57">
@@ -4122,64 +4122,64 @@
         <v>14</v>
       </c>
       <c r="B57" t="n">
-        <v>505.73</v>
+        <v>505.7</v>
       </c>
       <c r="C57" t="n">
-        <v>2856.66</v>
+        <v>2856.7</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>28.79200012101008</v>
+        <v>1975.1</v>
       </c>
       <c r="F57" t="n">
-        <v>66.62588460261281</v>
+        <v>436.7</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H57" t="n">
-        <v>232.2449785378714</v>
+        <v>780</v>
       </c>
       <c r="I57" t="n">
-        <v>1174.862876758358</v>
+        <v>960</v>
       </c>
       <c r="J57" t="n">
-        <v>227.8944690296638</v>
+        <v>21.9</v>
       </c>
       <c r="K57" t="n">
-        <v>60.84019428824575</v>
+        <v>89.5</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M57" t="n">
-        <v>10.74384431884936</v>
+        <v>45.5</v>
       </c>
       <c r="N57" t="n">
-        <v>23.98069692785146</v>
+        <v>2.9</v>
       </c>
       <c r="O57" t="n">
-        <v>318.2505991306595</v>
+        <v>3.8</v>
       </c>
       <c r="P57" t="n">
-        <v>7726.76798912751</v>
+        <v>1943</v>
       </c>
       <c r="Q57" t="n">
-        <v>5880.586569285794</v>
+        <v>391</v>
       </c>
       <c r="R57" t="n">
-        <v>13468.66583003448</v>
+        <v>54555</v>
       </c>
       <c r="S57" t="n">
-        <v>621.1222288526078</v>
+        <v>47.4</v>
       </c>
       <c r="T57" t="n">
-        <v>14.10429125056353</v>
+        <v>2280.2</v>
       </c>
       <c r="U57" t="n">
-        <v>1626.890702704404</v>
+        <v>1931.6</v>
       </c>
     </row>
     <row r="58">
@@ -4196,55 +4196,55 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>284.7904309586191</v>
+        <v>1968.1</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="G58" t="n">
-        <v>4236.894064507896</v>
+        <v>150</v>
       </c>
       <c r="H58" t="n">
-        <v>130.3631046837283</v>
+        <v>1710</v>
       </c>
       <c r="I58" t="n">
-        <v>54.68237280885355</v>
+        <v>840</v>
       </c>
       <c r="J58" t="n">
-        <v>360.4555968621393</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>67.3</v>
       </c>
       <c r="L58" t="n">
-        <v>42.48167502694776</v>
+        <v>5.7</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>82.7</v>
       </c>
       <c r="N58" t="n">
-        <v>26.80327732963065</v>
+        <v>0.5</v>
       </c>
       <c r="O58" t="n">
-        <v>220.3400644627152</v>
+        <v>4.9</v>
       </c>
       <c r="P58" t="n">
-        <v>3844.956318687041</v>
+        <v>1955.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>4904.882528677646</v>
+        <v>133.7</v>
       </c>
       <c r="R58" t="n">
-        <v>13715.47000155621</v>
+        <v>53784.3</v>
       </c>
       <c r="S58" t="n">
-        <v>387.5854482330977</v>
+        <v>47.1</v>
       </c>
       <c r="T58" t="n">
-        <v>5459.758100182005</v>
+        <v>1826.4</v>
       </c>
       <c r="U58" t="n">
-        <v>1299.076128378148</v>
+        <v>918.9</v>
       </c>
     </row>
     <row r="59">
@@ -4255,61 +4255,61 @@
         <v>511</v>
       </c>
       <c r="C59" t="n">
-        <v>2833.75</v>
+        <v>2833.8</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>100.8673526170359</v>
+        <v>1856.4</v>
       </c>
       <c r="F59" t="n">
-        <v>4.546698899463134</v>
+        <v>445.8</v>
       </c>
       <c r="G59" t="n">
-        <v>915.221114252128</v>
+        <v>300</v>
       </c>
       <c r="H59" t="n">
-        <v>8.583512962068932</v>
+        <v>2370</v>
       </c>
       <c r="I59" t="n">
-        <v>810.4537075410741</v>
+        <v>30</v>
       </c>
       <c r="J59" t="n">
-        <v>430.6734393999947</v>
+        <v>3.2</v>
       </c>
       <c r="K59" t="n">
-        <v>100.2864759900092</v>
+        <v>163.6</v>
       </c>
       <c r="L59" t="n">
-        <v>68.02974194755478</v>
+        <v>4.3</v>
       </c>
       <c r="M59" t="n">
-        <v>8.102524608224154</v>
+        <v>31.4</v>
       </c>
       <c r="N59" t="n">
-        <v>16.22823846906925</v>
+        <v>1.8</v>
       </c>
       <c r="O59" t="n">
-        <v>30.30363095263531</v>
+        <v>3.1</v>
       </c>
       <c r="P59" t="n">
-        <v>5065.4631360737</v>
+        <v>1946.9</v>
       </c>
       <c r="Q59" t="n">
-        <v>5329.857948967807</v>
+        <v>22.1</v>
       </c>
       <c r="R59" t="n">
-        <v>14031.05114017248</v>
+        <v>55779.9</v>
       </c>
       <c r="S59" t="n">
-        <v>1411.206719347221</v>
+        <v>11.7</v>
       </c>
       <c r="T59" t="n">
-        <v>386.4618984941729</v>
+        <v>2675</v>
       </c>
       <c r="U59" t="n">
-        <v>-227.3530533890843</v>
+        <v>1748.2</v>
       </c>
     </row>
     <row r="60">
@@ -4317,7 +4317,7 @@
         <v>17</v>
       </c>
       <c r="B60" t="n">
-        <v>489.93</v>
+        <v>489.9</v>
       </c>
       <c r="C60" t="n">
         <v>2855.3</v>
@@ -4326,55 +4326,55 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>544.7933133190093</v>
+        <v>1834.9</v>
       </c>
       <c r="F60" t="n">
-        <v>24.25259062678778</v>
+        <v>455.9</v>
       </c>
       <c r="G60" t="n">
-        <v>3667.014531168459</v>
+        <v>350</v>
       </c>
       <c r="H60" t="n">
-        <v>7.221871686258459</v>
+        <v>1020</v>
       </c>
       <c r="I60" t="n">
-        <v>125.6147614484992</v>
+        <v>570</v>
       </c>
       <c r="J60" t="n">
-        <v>419.5939638714306</v>
+        <v>234.3</v>
       </c>
       <c r="K60" t="n">
-        <v>26.26166385571355</v>
+        <v>26.8</v>
       </c>
       <c r="L60" t="n">
-        <v>69.03455663794996</v>
+        <v>43.2</v>
       </c>
       <c r="M60" t="n">
-        <v>1.67503519535963</v>
+        <v>18.2</v>
       </c>
       <c r="N60" t="n">
-        <v>286.2245607159496</v>
+        <v>2.5</v>
       </c>
       <c r="O60" t="n">
-        <v>26.87083495964058</v>
+        <v>0.6</v>
       </c>
       <c r="P60" t="n">
-        <v>4001.498759796822</v>
+        <v>1921.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>5615.986349014159</v>
+        <v>27.6</v>
       </c>
       <c r="R60" t="n">
-        <v>14250.77678322055</v>
+        <v>54698.4</v>
       </c>
       <c r="S60" t="n">
-        <v>837.1269664349871</v>
+        <v>16.2</v>
       </c>
       <c r="T60" t="n">
-        <v>11213.78945027953</v>
+        <v>1372.4</v>
       </c>
       <c r="U60" t="n">
-        <v>1029.852757673292</v>
+        <v>1093.9</v>
       </c>
     </row>
     <row r="61">
@@ -4382,64 +4382,64 @@
         <v>18</v>
       </c>
       <c r="B61" t="n">
-        <v>458.32</v>
+        <v>458.3</v>
       </c>
       <c r="C61" t="n">
-        <v>2865.84</v>
+        <v>2865.8</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>854.243629571765</v>
+        <v>1953.1</v>
       </c>
       <c r="F61" t="n">
-        <v>8.747123335778577</v>
+        <v>439.4</v>
       </c>
       <c r="G61" t="n">
-        <v>431.7196455737761</v>
+        <v>150</v>
       </c>
       <c r="H61" t="n">
-        <v>10.0089788468171</v>
+        <v>840</v>
       </c>
       <c r="I61" t="n">
-        <v>1575.640976180904</v>
+        <v>660</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="K61" t="n">
-        <v>23.20510368784999</v>
+        <v>621.3</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="M61" t="n">
-        <v>2.13202668792985</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N61" t="n">
-        <v>632.2908646448288</v>
+        <v>0.2</v>
       </c>
       <c r="O61" t="n">
-        <v>707.1689083593712</v>
+        <v>5.9</v>
       </c>
       <c r="P61" t="n">
-        <v>4903.44517626564</v>
+        <v>1938.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>6190.393094113972</v>
+        <v>108</v>
       </c>
       <c r="R61" t="n">
-        <v>15409.38086292457</v>
+        <v>55031.6</v>
       </c>
       <c r="S61" t="n">
-        <v>7919.705337873673</v>
+        <v>18.3</v>
       </c>
       <c r="T61" t="n">
-        <v>-434.3512678042756</v>
+        <v>987.7</v>
       </c>
       <c r="U61" t="n">
-        <v>-4008.428430855552</v>
+        <v>623.8</v>
       </c>
     </row>
     <row r="62">
@@ -4447,7 +4447,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="n">
-        <v>416.18</v>
+        <v>416.2</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -4456,55 +4456,55 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>975.9851185087889</v>
+        <v>1870.1</v>
       </c>
       <c r="F62" t="n">
-        <v>73.26475999998648</v>
+        <v>430.8</v>
       </c>
       <c r="G62" t="n">
-        <v>1382.543814291956</v>
+        <v>4843.8</v>
       </c>
       <c r="H62" t="n">
-        <v>158.8006368352494</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>162.2911176706384</v>
+        <v>0.6</v>
       </c>
       <c r="J62" t="n">
-        <v>48.29751069270735</v>
+        <v>0.3</v>
       </c>
       <c r="K62" t="n">
-        <v>86.0929193672536</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.4652855035612593</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>5.069592495873915</v>
+        <v>0.3</v>
       </c>
       <c r="N62" t="n">
-        <v>430.7419658282751</v>
+        <v>2.9</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="P62" t="n">
-        <v>7022.107025984703</v>
+        <v>1958.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>3756.964755900261</v>
+        <v>39.2</v>
       </c>
       <c r="R62" t="n">
-        <v>18106.63666747505</v>
+        <v>54920.5</v>
       </c>
       <c r="S62" t="n">
-        <v>6927.540817860599</v>
+        <v>15.7</v>
       </c>
       <c r="T62" t="n">
-        <v>-949.4744485770077</v>
+        <v>4841.9</v>
       </c>
       <c r="U62" t="n">
-        <v>1292.837489159485</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="63">
@@ -4512,7 +4512,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="n">
-        <v>368.76</v>
+        <v>368.8</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -4521,55 +4521,55 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>169.692859158819</v>
+        <v>1802.9</v>
       </c>
       <c r="F63" t="n">
-        <v>93.22692779802409</v>
+        <v>458.1</v>
       </c>
       <c r="G63" t="n">
-        <v>622.8572623898734</v>
+        <v>532.8</v>
       </c>
       <c r="H63" t="n">
-        <v>1.106370072511599</v>
+        <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>1221.681600294732</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
-        <v>216.0153411100833</v>
+        <v>1.9</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="L63" t="n">
-        <v>115.7433031611225</v>
+        <v>0.5</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N63" t="n">
-        <v>27.79195563231719</v>
+        <v>1.4</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="P63" t="n">
-        <v>6493.426901900232</v>
+        <v>1963</v>
       </c>
       <c r="Q63" t="n">
-        <v>4707.822653302763</v>
+        <v>1930.1</v>
       </c>
       <c r="R63" t="n">
-        <v>19451.61384049908</v>
+        <v>54393.9</v>
       </c>
       <c r="S63" t="n">
-        <v>4262.569924727076</v>
+        <v>10.2</v>
       </c>
       <c r="T63" t="n">
-        <v>-371.6902777680375</v>
+        <v>553.1</v>
       </c>
       <c r="U63" t="n">
-        <v>-2218.63930018203</v>
+        <v>2270.8</v>
       </c>
     </row>
     <row r="64">
@@ -4577,7 +4577,7 @@
         <v>21</v>
       </c>
       <c r="B64" t="n">
-        <v>331.89</v>
+        <v>331.9</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -4586,55 +4586,55 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>852.932762410259</v>
+        <v>1875.3</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4372049773110084</v>
+        <v>414.7</v>
       </c>
       <c r="G64" t="n">
-        <v>3341.028774443175</v>
+        <v>913.3</v>
       </c>
       <c r="H64" t="n">
-        <v>213.4149767157259</v>
+        <v>5.9</v>
       </c>
       <c r="I64" t="n">
-        <v>239.4520850582302</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>88.90304042144443</v>
+        <v>0.4</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.941056592500048</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>333.1396531493629</v>
+        <v>1.4</v>
       </c>
       <c r="O64" t="n">
-        <v>2993.091715100537</v>
+        <v>0.5</v>
       </c>
       <c r="P64" t="n">
-        <v>7189.956860052705</v>
+        <v>1931.2</v>
       </c>
       <c r="Q64" t="n">
-        <v>6640.808290610905</v>
+        <v>2041.1</v>
       </c>
       <c r="R64" t="n">
-        <v>19803.08345575971</v>
+        <v>53863.1</v>
       </c>
       <c r="S64" t="n">
-        <v>3182.368045344944</v>
+        <v>21.6</v>
       </c>
       <c r="T64" t="n">
-        <v>676.6619075724338</v>
+        <v>933.2</v>
       </c>
       <c r="U64" t="n">
-        <v>4718.865262259758</v>
+        <v>2620.7</v>
       </c>
     </row>
     <row r="65">
@@ -4642,7 +4642,7 @@
         <v>22</v>
       </c>
       <c r="B65" t="n">
-        <v>268.67</v>
+        <v>268.7</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -4651,55 +4651,55 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>972.6808495793908</v>
+        <v>1803</v>
       </c>
       <c r="F65" t="n">
-        <v>32.81997909904528</v>
+        <v>448.3</v>
       </c>
       <c r="G65" t="n">
-        <v>2913.400552576531</v>
+        <v>4087.7</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I65" t="n">
-        <v>425.9135529239682</v>
+        <v>10.7</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K65" t="n">
-        <v>149.3184906410881</v>
+        <v>2.1</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M65" t="n">
-        <v>39.2070766171175</v>
+        <v>1.6</v>
       </c>
       <c r="N65" t="n">
-        <v>314.1679164205442</v>
+        <v>1.2</v>
       </c>
       <c r="O65" t="n">
-        <v>25.12375384333171</v>
+        <v>2.7</v>
       </c>
       <c r="P65" t="n">
-        <v>4793.625367320433</v>
+        <v>1934.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>5553.359718149333</v>
+        <v>2286.6</v>
       </c>
       <c r="R65" t="n">
-        <v>23415.26868070251</v>
+        <v>53330.2</v>
       </c>
       <c r="S65" t="n">
-        <v>151.5927594698075</v>
+        <v>34.5</v>
       </c>
       <c r="T65" t="n">
-        <v>6831.932523000499</v>
+        <v>4066.4</v>
       </c>
       <c r="U65" t="n">
-        <v>2708.687085134434</v>
+        <v>5265.4</v>
       </c>
     </row>
     <row r="66">
@@ -4707,7 +4707,7 @@
         <v>23</v>
       </c>
       <c r="B66" t="n">
-        <v>200.19</v>
+        <v>200.2</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -4716,55 +4716,55 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>159.4834700071862</v>
+        <v>1909</v>
       </c>
       <c r="F66" t="n">
-        <v>32.60940990577878</v>
+        <v>418.8</v>
       </c>
       <c r="G66" t="n">
-        <v>154.4501554030691</v>
+        <v>4388.7</v>
       </c>
       <c r="H66" t="n">
-        <v>34.17270522371771</v>
+        <v>5.2</v>
       </c>
       <c r="I66" t="n">
-        <v>1612.316176184881</v>
+        <v>6.7</v>
       </c>
       <c r="J66" t="n">
-        <v>89.05912635333658</v>
+        <v>0.2</v>
       </c>
       <c r="K66" t="n">
-        <v>76.10774765569703</v>
+        <v>3.7</v>
       </c>
       <c r="L66" t="n">
-        <v>23.94511988841568</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1.81182996578371</v>
+        <v>1.4</v>
       </c>
       <c r="N66" t="n">
-        <v>22.06038880179146</v>
+        <v>1.2</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="P66" t="n">
-        <v>4114.462246266155</v>
+        <v>1942.8</v>
       </c>
       <c r="Q66" t="n">
-        <v>6958.139406578416</v>
+        <v>3762.5</v>
       </c>
       <c r="R66" t="n">
-        <v>24371.19997243944</v>
+        <v>52806.7</v>
       </c>
       <c r="S66" t="n">
-        <v>3835.456150058851</v>
+        <v>11.9</v>
       </c>
       <c r="T66" t="n">
-        <v>-52.68573474706625</v>
+        <v>4410.5</v>
       </c>
       <c r="U66" t="n">
-        <v>-8268.681957234965</v>
+        <v>5684.4</v>
       </c>
     </row>
     <row r="67">
@@ -4772,7 +4772,7 @@
         <v>24</v>
       </c>
       <c r="B67" t="n">
-        <v>136.97</v>
+        <v>137</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -4781,55 +4781,55 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1965.4</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6520822329452274</v>
+        <v>456.5</v>
       </c>
       <c r="G67" t="n">
-        <v>2849.205306977498</v>
+        <v>3102.4</v>
       </c>
       <c r="H67" t="n">
-        <v>19.16734260205715</v>
+        <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>800.6483060243245</v>
+        <v>10.5</v>
       </c>
       <c r="J67" t="n">
-        <v>139.8772619717355</v>
+        <v>2.3</v>
       </c>
       <c r="K67" t="n">
-        <v>8.728769633742399</v>
+        <v>1.4</v>
       </c>
       <c r="L67" t="n">
-        <v>99.81209470350642</v>
+        <v>0.3</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>1588.35490679842</v>
+        <v>2.5</v>
       </c>
       <c r="O67" t="n">
-        <v>435.6044153048425</v>
+        <v>0.5</v>
       </c>
       <c r="P67" t="n">
-        <v>9935.775762897214</v>
+        <v>1931.2</v>
       </c>
       <c r="Q67" t="n">
-        <v>8511.316833208995</v>
+        <v>5263.3</v>
       </c>
       <c r="R67" t="n">
-        <v>24300.7259841711</v>
+        <v>52294.3</v>
       </c>
       <c r="S67" t="n">
-        <v>3545.632631273931</v>
+        <v>27.4</v>
       </c>
       <c r="T67" t="n">
-        <v>551.3649937733339</v>
+        <v>3085.5</v>
       </c>
       <c r="U67" t="n">
-        <v>2761.679943404618</v>
+        <v>4754.8</v>
       </c>
     </row>
     <row r="68">
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>136.97</v>
+        <v>137</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -4846,55 +4846,55 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>552.7523700749471</v>
+        <v>1965.8</v>
       </c>
       <c r="F68" t="n">
-        <v>16.08993920271062</v>
+        <v>428.5</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1012.5</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I68" t="n">
-        <v>219.2664937752768</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>180.1282005077649</v>
+        <v>0.5</v>
       </c>
       <c r="K68" t="n">
-        <v>34.60805653755275</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1.010797312556095</v>
+        <v>2.6</v>
       </c>
       <c r="N68" t="n">
-        <v>15.1393055239748</v>
+        <v>1.7</v>
       </c>
       <c r="O68" t="n">
-        <v>50.18367841456202</v>
+        <v>6.3</v>
       </c>
       <c r="P68" t="n">
-        <v>6334.391423232278</v>
+        <v>1931.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>10053.12270184041</v>
+        <v>6186.3</v>
       </c>
       <c r="R68" t="n">
-        <v>30418.53231242007</v>
+        <v>51786.8</v>
       </c>
       <c r="S68" t="n">
-        <v>1095.610432068393</v>
+        <v>5.2</v>
       </c>
       <c r="T68" t="n">
-        <v>179.5214263931978</v>
+        <v>1047.1</v>
       </c>
       <c r="U68" t="n">
-        <v>1641.96402168924</v>
+        <v>2979.8</v>
       </c>
     </row>
     <row r="69">
@@ -4902,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>136.97</v>
+        <v>137</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -4911,55 +4911,55 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>69.46798344523435</v>
+        <v>1900.2</v>
       </c>
       <c r="F69" t="n">
-        <v>190.6699519976768</v>
+        <v>428.4</v>
       </c>
       <c r="G69" t="n">
-        <v>3220.827689001199</v>
+        <v>4849.2</v>
       </c>
       <c r="H69" t="n">
-        <v>301.4264926832834</v>
+        <v>7.3</v>
       </c>
       <c r="I69" t="n">
-        <v>594.9368529024173</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>223.4269396732988</v>
+        <v>0.4</v>
       </c>
       <c r="K69" t="n">
-        <v>38.66511335280602</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M69" t="n">
-        <v>3.580889925142704</v>
+        <v>0.5</v>
       </c>
       <c r="N69" t="n">
-        <v>120.9809511286819</v>
+        <v>1.4</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P69" t="n">
-        <v>4403.294941644082</v>
+        <v>1947.9</v>
       </c>
       <c r="Q69" t="n">
-        <v>10435.09022419039</v>
+        <v>6222.7</v>
       </c>
       <c r="R69" t="n">
-        <v>30213.40008468816</v>
+        <v>51285.1</v>
       </c>
       <c r="S69" t="n">
-        <v>1253.494229270511</v>
+        <v>32.6</v>
       </c>
       <c r="T69" t="n">
-        <v>2809.036035939374</v>
+        <v>4877.5</v>
       </c>
       <c r="U69" t="n">
-        <v>1667.931809166951</v>
+        <v>6116.9</v>
       </c>
     </row>
     <row r="70">
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="n">
-        <v>136.97</v>
+        <v>137</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -4976,55 +4976,55 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1047.48725251305</v>
+        <v>1860.5</v>
       </c>
       <c r="F70" t="n">
-        <v>30.67960019577349</v>
+        <v>420.8</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3016.8</v>
       </c>
       <c r="H70" t="n">
-        <v>339.8603607016356</v>
+        <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>1370.134764831581</v>
+        <v>10.4</v>
       </c>
       <c r="J70" t="n">
-        <v>85.96625214624697</v>
+        <v>0.9</v>
       </c>
       <c r="K70" t="n">
-        <v>38.68382026595895</v>
+        <v>2.6</v>
       </c>
       <c r="L70" t="n">
-        <v>62.85186643662738</v>
+        <v>1.3</v>
       </c>
       <c r="M70" t="n">
-        <v>3.607209652977275</v>
+        <v>3.1</v>
       </c>
       <c r="N70" t="n">
-        <v>773.9160711124395</v>
+        <v>1.1</v>
       </c>
       <c r="O70" t="n">
-        <v>1488.998386374104</v>
+        <v>2.2</v>
       </c>
       <c r="P70" t="n">
-        <v>4361.165457360443</v>
+        <v>1948.6</v>
       </c>
       <c r="Q70" t="n">
-        <v>12873.43159459448</v>
+        <v>7756.8</v>
       </c>
       <c r="R70" t="n">
-        <v>30342.79116145567</v>
+        <v>50789.2</v>
       </c>
       <c r="S70" t="n">
-        <v>497.7109035171133</v>
+        <v>52</v>
       </c>
       <c r="T70" t="n">
-        <v>312.4985147883215</v>
+        <v>2971.1</v>
       </c>
       <c r="U70" t="n">
-        <v>-1050.855947244587</v>
+        <v>4539.4</v>
       </c>
     </row>
     <row r="71">
@@ -5032,7 +5032,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="n">
-        <v>136.97</v>
+        <v>137</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -5041,55 +5041,55 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>922.6370124013572</v>
+        <v>1800.6</v>
       </c>
       <c r="F71" t="n">
-        <v>26.32140879296127</v>
+        <v>459.8</v>
       </c>
       <c r="G71" t="n">
-        <v>9610.71111930113</v>
+        <v>980.3</v>
       </c>
       <c r="H71" t="n">
-        <v>109.2254362919358</v>
+        <v>6.1</v>
       </c>
       <c r="I71" t="n">
-        <v>1718.714863706981</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>308.6801219932786</v>
+        <v>1.8</v>
       </c>
       <c r="K71" t="n">
-        <v>21.30299360467616</v>
+        <v>0.9</v>
       </c>
       <c r="L71" t="n">
-        <v>6.3675122969215</v>
+        <v>0.2</v>
       </c>
       <c r="M71" t="n">
-        <v>3.085835650098496</v>
+        <v>0.7</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O71" t="n">
-        <v>414.6443668731129</v>
+        <v>6.2</v>
       </c>
       <c r="P71" t="n">
-        <v>3840</v>
+        <v>1952.3</v>
       </c>
       <c r="Q71" t="n">
-        <v>12698.79538872407</v>
+        <v>8490.299999999999</v>
       </c>
       <c r="R71" t="n">
-        <v>34322.94264709904</v>
+        <v>50297.8</v>
       </c>
       <c r="S71" t="n">
-        <v>464.2198708459622</v>
+        <v>0.3</v>
       </c>
       <c r="T71" t="n">
-        <v>9278.927678289401</v>
+        <v>1018.7</v>
       </c>
       <c r="U71" t="n">
-        <v>1792.401342526043</v>
+        <v>2877.8</v>
       </c>
     </row>
     <row r="72">
@@ -5097,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="n">
-        <v>136.97</v>
+        <v>137</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -5106,55 +5106,55 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1839</v>
       </c>
       <c r="F72" t="n">
-        <v>85.35918846011585</v>
+        <v>433.4</v>
       </c>
       <c r="G72" t="n">
-        <v>12894.77968151665</v>
+        <v>4247.8</v>
       </c>
       <c r="H72" t="n">
-        <v>2.952752628124025</v>
+        <v>11.3</v>
       </c>
       <c r="I72" t="n">
-        <v>189.1783549247262</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K72" t="n">
-        <v>18.96471127075462</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>21.11304388092541</v>
+        <v>0.6</v>
       </c>
       <c r="N72" t="n">
-        <v>190.7600122632083</v>
+        <v>0.5</v>
       </c>
       <c r="O72" t="n">
-        <v>2132.41495231201</v>
+        <v>4</v>
       </c>
       <c r="P72" t="n">
-        <v>8190.153294157869</v>
+        <v>1921.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>18263.99581202662</v>
+        <v>8374.6</v>
       </c>
       <c r="R72" t="n">
-        <v>34374.14323475982</v>
+        <v>49812.3</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="T72" t="n">
-        <v>16852.26932286521</v>
+        <v>4269.2</v>
       </c>
       <c r="U72" t="n">
-        <v>13465.34778675967</v>
+        <v>5553.4</v>
       </c>
     </row>
     <row r="73">
@@ -5171,55 +5171,55 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>489.1198069872991</v>
+        <v>1853.7</v>
       </c>
       <c r="F73" t="n">
-        <v>72.50148006316319</v>
+        <v>441.5</v>
       </c>
       <c r="G73" t="n">
-        <v>4852.179716024529</v>
+        <v>3351.4</v>
       </c>
       <c r="H73" t="n">
-        <v>63.44106946016871</v>
+        <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>1587.189056832569</v>
+        <v>8.6</v>
       </c>
       <c r="J73" t="n">
-        <v>196.1635603830221</v>
+        <v>0.4</v>
       </c>
       <c r="K73" t="n">
-        <v>44.44565349861886</v>
+        <v>0.2</v>
       </c>
       <c r="L73" t="n">
-        <v>14.37882386563515</v>
+        <v>0.2</v>
       </c>
       <c r="M73" t="n">
-        <v>2.407834973096409</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>721.3804456064404</v>
+        <v>2.8</v>
       </c>
       <c r="O73" t="n">
-        <v>701.9752384684073</v>
+        <v>4.5</v>
       </c>
       <c r="P73" t="n">
-        <v>4594.194234411403</v>
+        <v>1929.8</v>
       </c>
       <c r="Q73" t="n">
-        <v>20556.47640622589</v>
+        <v>9556</v>
       </c>
       <c r="R73" t="n">
-        <v>36611.84526512068</v>
+        <v>49320.5</v>
       </c>
       <c r="S73" t="n">
-        <v>3719.241943841573</v>
+        <v>39.9</v>
       </c>
       <c r="T73" t="n">
-        <v>1602.589607344969</v>
+        <v>3376.3</v>
       </c>
       <c r="U73" t="n">
-        <v>585.4202455163481</v>
+        <v>4715.9</v>
       </c>
     </row>
   </sheetData>
@@ -5310,2954 +5310,2954 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1180130433730741</v>
+        <v>0.98616</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04517241179575334</v>
+        <v>0.92216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2236968382074477</v>
+        <v>0.01323</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04755090611633836</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1217964743078177</v>
+        <v>0.00517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1139767671705375</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04118548273655118</v>
+        <v>0.015</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1518971342618421</v>
+        <v>0.285</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1330549959147429</v>
+        <v>0.115</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1297394278922885</v>
+        <v>0.6752899999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02269027909107382</v>
+        <v>5.475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1403393817143368</v>
+        <v>0.00206</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09314048270638396</v>
+        <v>0.00228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.97721</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2029476456395344</v>
+        <v>0.94442</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.00338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4266385284379591</v>
+        <v>0.05738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1872004227512855</v>
+        <v>0.00068</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00308548355318857</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07951023400853427</v>
+        <v>0.185</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04808504859483076</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03247480410908948</v>
+        <v>0.135</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1098183692672027</v>
+        <v>0.946</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1150029911615409</v>
+        <v>0.25203</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01610568245329122</v>
+        <v>2e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04927833067934235</v>
+        <v>0.00201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4057944432398755</v>
+        <v>0.96555</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04443087468378438</v>
+        <v>0.96965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08431154648237416</v>
+        <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02457439300888588</v>
+        <v>0.00015</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1224104170960437</v>
+        <v>0.00065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1567631234805873</v>
+        <v>0.105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2105284292722641</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1334884619344056</v>
+        <v>0.32</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005260999391138206</v>
+        <v>0.005</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2963542209617392</v>
+        <v>0.98667</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.49714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1220444246227716</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05805443161177413</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.311451948299255</v>
+        <v>0.95582</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5034359141912054</v>
+        <v>0.93791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3200255471200047</v>
+        <v>0.00033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008161750341720701</v>
+        <v>0.00052</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2185695505407382</v>
+        <v>0.00128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1600459219143196</v>
+        <v>0.14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08767297836737695</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1388968165301058</v>
+        <v>0.255</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2211984630112689</v>
+        <v>0.005</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.9991100000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2941387122251377</v>
+        <v>1.3975</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1076011898432686</v>
+        <v>0.00201</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.00419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05589991996357178</v>
+        <v>0.9923</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2518129857898209</v>
+        <v>0.93998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06750079268252791</v>
+        <v>0.0038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2307470678344987</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2043503073190945</v>
+        <v>0.0002</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2751511111021298</v>
+        <v>0.345</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1392682170792579</v>
+        <v>0.04</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03423115435027468</v>
+        <v>0.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0310000605528196</v>
+        <v>0.00096</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0964234600329176</v>
+        <v>0.00472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0195073082702313</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05456520984457527</v>
+        <v>0.93988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1234234871005314</v>
+        <v>0.0244</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3729507743738473</v>
+        <v>0.03965</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1237475956750769</v>
+        <v>0.01525</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1561692757456641</v>
+        <v>0.035</v>
       </c>
       <c r="H7" t="n">
-        <v>0.214730280710516</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06262629095285743</v>
+        <v>0.305</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.9695</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.85286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4431912163705817</v>
+        <v>0.00108</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0177042806582201</v>
+        <v>0.00497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.96857</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2339492611555267</v>
+        <v>0.90349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.324687599289058</v>
+        <v>0.02818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01137312107131186</v>
+        <v>0.01593</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.00735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.066277280988598</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121203031423849</v>
+        <v>0.15</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1015804321292916</v>
+        <v>0.075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03350034819786338</v>
+        <v>0.245</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009679324941699598</v>
+        <v>-1.28667</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04023748564345228</v>
+        <v>0.18367</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07864436158049389</v>
+        <v>0.00155</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1191330609174515</v>
+        <v>0.00426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1994291822068291</v>
+        <v>0.92018</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1905227961484176</v>
+        <v>0.97717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07628912018559837</v>
+        <v>0.00088</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003295470846564989</v>
+        <v>0.00088</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04440529852517973</v>
+        <v>0.0007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08083689492280019</v>
+        <v>0.27</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2686528928314241</v>
+        <v>0.175</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1695685240980524</v>
+        <v>0.02</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0109502404599167</v>
+        <v>0.035</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06285951061371074</v>
+        <v>0.95787</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03505815363184055</v>
+        <v>1.52186</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1532765998895938</v>
+        <v>0.00454</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003233143298550969</v>
+        <v>0.00241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.91409</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2176988924091035</v>
+        <v>0.9195</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.00195</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.00748</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01237559516507037</v>
+        <v>0.00942</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1289216819123811</v>
+        <v>0.245</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04167736837716122</v>
+        <v>0.11</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3949589187060655</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01070200542664389</v>
+        <v>0.065</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09704069219927298</v>
+        <v>0.98408</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001067844464439558</v>
+        <v>2.13864</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04973874390734509</v>
+        <v>0.00298</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07365910898514627</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.96331</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08911386268772516</v>
+        <v>0.90729</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04786443448270955</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.0612</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0402915421294435</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04813420973905654</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2064988345945891</v>
+        <v>0.34</v>
       </c>
       <c r="J11" t="n">
-        <v>0.110166659576778</v>
+        <v>0.96909</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1613714748834843</v>
+        <v>1.248</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1825130691555827</v>
+        <v>0.00432</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1337283376595948</v>
+        <v>0.0009700000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>0.98667</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1801122156771111</v>
+        <v>0.9587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06301472887913953</v>
+        <v>0.015</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3134364353053209</v>
+        <v>0.0066</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05034156890559771</v>
+        <v>0.27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04567833934769655</v>
+        <v>0.11</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02819971306880362</v>
+        <v>0.06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005925693970303713</v>
+        <v>0.98444</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1288342449411833</v>
+        <v>2.43545</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1469286499527815</v>
+        <v>0.00248</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02588808988352737</v>
+        <v>0.00304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>0.90771</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03188047906721168</v>
+        <v>0.98632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6603842629108208</v>
+        <v>0.00413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1006820214157185</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2437885318907519</v>
+        <v>0.01815</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03701154428060638</v>
+        <v>0.01</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4844360693601436</v>
+        <v>0.26</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1955131102089759</v>
+        <v>0.175</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5937655121419765</v>
+        <v>0.055</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.6975</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5740120720319252</v>
+        <v>0.03</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02662854317895091</v>
+        <v>0.00219</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2307893501394389</v>
+        <v>0.00517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2696968775039081</v>
+        <v>0.91379</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2238087295940655</v>
+        <v>0.90947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3323911825559611</v>
+        <v>0.48635</v>
       </c>
       <c r="D14" t="n">
-        <v>0.236695798048668</v>
+        <v>0.00181</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3357437818997896</v>
+        <v>0.00066</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1751544823443776</v>
+        <v>0.00147</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01709934378517833</v>
+        <v>0.00106</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03018629456104416</v>
+        <v>0.00184</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2903952150757099</v>
+        <v>0.9100200000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1225032615687405</v>
+        <v>0.34434</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0509506331702276</v>
+        <v>0.00499</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1975629089113891</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02451107513747083</v>
+        <v>0.95834</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2883506561954913</v>
+        <v>0.90111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005038558824120956</v>
+        <v>0.21597</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03652872090186655</v>
+        <v>0.00048</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2009111173158885</v>
+        <v>0.00156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3737769610639222</v>
+        <v>0.00027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07256187076600094</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1142044115416871</v>
+        <v>0.00012</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08271733060877379</v>
+        <v>0.00181</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.24362</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01554183608864737</v>
+        <v>0.44318</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07015847424400146</v>
+        <v>0.00174</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07738877151606031</v>
+        <v>0.00401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01006147809864322</v>
+        <v>0.9752</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2029367848750877</v>
+        <v>0.92599</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09565245721845272</v>
+        <v>0.28023</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03298227744828881</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09366172593053204</v>
+        <v>0.00104</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3049061104141889</v>
+        <v>0.00079</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2209953712007982</v>
+        <v>0.00074</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01002547412681852</v>
+        <v>0.00172</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2515743543242587</v>
+        <v>0.00151</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2700420307957753</v>
+        <v>0.73563</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2929845834984213</v>
+        <v>0.00014</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2016183150257727</v>
+        <v>0.0051</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3809101341299916</v>
+        <v>0.00287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07880672341429247</v>
+        <v>0.98717</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2185268746050218</v>
+        <v>0.95384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09539424881644089</v>
+        <v>0.04208</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3368201302818593</v>
+        <v>0.00055</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2351261964952239</v>
+        <v>0.00171</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1905801333372095</v>
+        <v>0.00166</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0439186436485661</v>
+        <v>0.0001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1453110556548129</v>
+        <v>0.0005</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4812115090564972</v>
+        <v>0.88571</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08501424540406601</v>
+        <v>0.76903</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1258895020591728</v>
+        <v>0.00355</v>
       </c>
       <c r="M17" t="n">
-        <v>0.127208049405384</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2356915422096773</v>
+        <v>0.96205</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.96007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03994455686845601</v>
+        <v>0.13296</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3349835574741318</v>
+        <v>0.00068</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1567869685485223</v>
+        <v>0.00087</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1209900550681782</v>
+        <v>0.00166</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2022442310698467</v>
+        <v>0.00115</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00276379514750389</v>
+        <v>0.00195</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08082541999216296</v>
+        <v>0.00048</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03962702644361171</v>
+        <v>0.0396</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08590449490193494</v>
+        <v>0.39685</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3278851309556983</v>
+        <v>0.00502</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1050996733179794</v>
+        <v>0.00298</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.116180385752543</v>
+        <v>0.96917</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01544396355540112</v>
+        <v>0.97393</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02806698337419555</v>
+        <v>0.49105</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3015291074089901</v>
+        <v>0.00026</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1244730385815108</v>
+        <v>0.00172</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1236407765436587</v>
+        <v>0.00065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4020569451197486</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007134069982186195</v>
+        <v>0.00073</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02062121460305295</v>
+        <v>0.00158</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006160977563992771</v>
+        <v>0.73447</v>
       </c>
       <c r="K19" t="n">
-        <v>0.006924019371681849</v>
+        <v>0.70401</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1898822798958988</v>
+        <v>0.00275</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2186492122603099</v>
+        <v>0.00261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1061252526914595</v>
+        <v>0.9700299999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3064391762741614</v>
+        <v>0.96805</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2097182375416473</v>
+        <v>0.02159</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0008617275131487624</v>
+        <v>0.00099</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0190477914015868</v>
+        <v>0.00193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05241965250158432</v>
+        <v>0.00106</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1022836205293942</v>
+        <v>0.00184</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004156734186755178</v>
+        <v>0.00059</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.00158</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01374148380497094</v>
+        <v>0.41279</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01501411105550363</v>
+        <v>0.15954</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09371793507924425</v>
+        <v>0.00236</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3069173068207284</v>
+        <v>0.00485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2731311426256087</v>
+        <v>0.93113</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09390916386193777</v>
+        <v>0.96821</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1720988937710325</v>
+        <v>0.16876</v>
       </c>
       <c r="D21" t="n">
-        <v>0.330434368120368</v>
+        <v>0.00049</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05727123645132272</v>
+        <v>0.00104</v>
       </c>
       <c r="F21" t="n">
-        <v>0.466922426727684</v>
+        <v>0.00086</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01584910073475129</v>
+        <v>0.00196</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0004102964298432253</v>
+        <v>0.00118</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.00106</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0007782446033311474</v>
+        <v>0.78621</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04139783432639831</v>
+        <v>0.522</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05533207583296519</v>
+        <v>0.00577</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03518442051882105</v>
+        <v>0.00096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1846713914420803</v>
+        <v>0.96061</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1582184204485999</v>
+        <v>0.9435</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01055417273858287</v>
+        <v>0.15239</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2589006852950715</v>
+        <v>0.00129</v>
       </c>
       <c r="E22" t="n">
-        <v>0.337708717258094</v>
+        <v>0.00012</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2190773972250437</v>
+        <v>0.00012</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3172731949398722</v>
+        <v>0.00043</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09061705847521193</v>
+        <v>0.00108</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07449429311540136</v>
+        <v>0.00128</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.23648</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01009687323561792</v>
+        <v>0.15938</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1955550349967925</v>
+        <v>0.00207</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1211888280377316</v>
+        <v>0.00292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2269585618512007</v>
+        <v>0.9071</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01472624438746883</v>
+        <v>0.96536</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.46791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2101939273120379</v>
+        <v>0.00024</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2962307518616502</v>
+        <v>0.00166</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2037776527291815</v>
+        <v>0.0016</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1534512517292016</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09226623373996544</v>
+        <v>0.00163</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02152984904920192</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2667522003359123</v>
+        <v>0.4166</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08607882372986456</v>
+        <v>0.7044</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09044878046838302</v>
+        <v>0.00013</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0002350139658550663</v>
+        <v>0.00421</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.004942391307874175</v>
+        <v>0.92042</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02165315786087461</v>
+        <v>0.90907</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4299147813652233</v>
+        <v>0.04422</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7098686327661323</v>
+        <v>0.00034</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2732667475490857</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02934907039408231</v>
+        <v>0.00139</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1889801680638926</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01006981977081173</v>
+        <v>0.00044</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02274672840812249</v>
+        <v>0.00145</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08011162733520474</v>
+        <v>0.67375</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1285886320613596</v>
+        <v>0.11417</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01458088351362855</v>
+        <v>0.00574</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1924460772335519</v>
+        <v>0.00298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.03887145485807753</v>
+        <v>0.97566</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1500460714578063</v>
+        <v>0.93409</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00226216616343793</v>
+        <v>0.23703</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.00111</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1938882088707452</v>
+        <v>0.00121</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05684160380065166</v>
+        <v>0.00184</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002232258441629529</v>
+        <v>0.00132</v>
       </c>
       <c r="H25" t="n">
-        <v>0.254658119860256</v>
+        <v>0.00071</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2558806473734791</v>
+        <v>0.00036</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01485574433330675</v>
+        <v>0.1093</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02827166798273078</v>
+        <v>0.61958</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1792669115589309</v>
+        <v>0.00433</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2155168631726407</v>
+        <v>0.00045</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4774955990391966</v>
+        <v>0.9724</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1302151447967177</v>
+        <v>0.94202</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002438592594900256</v>
+        <v>0.18654</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3684460712415782</v>
+        <v>0.00087</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1300496674821339</v>
+        <v>0.00172</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1628953500293299</v>
+        <v>0.00033</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2288868421946909</v>
+        <v>0.0007</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1296985645946006</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="I26" t="n">
-        <v>0.154527504448652</v>
+        <v>0.00164</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02896494839794478</v>
+        <v>0.91665</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1473047596178999</v>
+        <v>0.23441</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06103744380142161</v>
+        <v>0.00124</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.08781654936905318</v>
+        <v>0.92732</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1383012534997188</v>
+        <v>0.97077</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003248365882145496</v>
+        <v>0.43135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2243411633665369</v>
+        <v>0.00082</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03173697253086603</v>
+        <v>0.00043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.141742683931947</v>
+        <v>0.00166</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1463934945108921</v>
+        <v>0.00035</v>
       </c>
       <c r="H27" t="n">
-        <v>0.142008999519204</v>
+        <v>0.0015</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1733129967647166</v>
+        <v>0.00054</v>
       </c>
       <c r="J27" t="n">
-        <v>0.006326762974911405</v>
+        <v>0.67526</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1267478846273978</v>
+        <v>0.46373</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1209848366365525</v>
+        <v>0.00207</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05747695664966236</v>
+        <v>0.00081</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1353257712096924</v>
+        <v>0.99126</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07901211103841084</v>
+        <v>0.92552</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.27531</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02368758583421711</v>
+        <v>0.00195</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04934910815842497</v>
+        <v>0.0017</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2723704393712138</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.009109040611607331</v>
+        <v>3e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001029965617729194</v>
+        <v>0.00132</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08047319989259097</v>
+        <v>0.00172</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.51372</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4504988910843551</v>
+        <v>0.4962</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1341524935625238</v>
+        <v>0.0013</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06022640983538852</v>
+        <v>0.00495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>0.92558</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1150081717601073</v>
+        <v>0.9477</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1682490552724548</v>
+        <v>0.24247</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2269928854921338</v>
+        <v>0.00056</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01916529121651862</v>
+        <v>0.00014</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1133651540156189</v>
+        <v>0.00109</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08634476250619136</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00292155168535391</v>
+        <v>0.00102</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02839996803980468</v>
+        <v>0.00172</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04903068809822025</v>
+        <v>0.01936</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004127915374247677</v>
+        <v>0.50961</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.00526</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01429912907280656</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03999857996994009</v>
+        <v>0.96767</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07488927002692024</v>
+        <v>0.95142</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5042943434263855</v>
+        <v>0.25631</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01159171988293211</v>
+        <v>0.00172</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.00043</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03594858774690475</v>
+        <v>0.0017</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02402780902720348</v>
+        <v>0.00054</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03475229228778631</v>
+        <v>0.00173</v>
       </c>
       <c r="J30" t="n">
-        <v>0.018707519772869</v>
+        <v>0.61353</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2478783970496536</v>
+        <v>0.24324</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06058300516937526</v>
+        <v>0.00231</v>
       </c>
       <c r="M30" t="n">
-        <v>0.036212916185185</v>
+        <v>0.00098</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.04541217519135504</v>
+        <v>0.95301</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2534850495856506</v>
+        <v>0.95887</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2140257126003054</v>
+        <v>0.21447</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08973655018493143</v>
+        <v>0.00077</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.00171</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.00095</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1958926233061951</v>
+        <v>0.00096</v>
       </c>
       <c r="H31" t="n">
-        <v>0.003857796889776209</v>
+        <v>0.00061</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1517742753719101</v>
+        <v>0.00186</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05735702947237256</v>
+        <v>0.92267</v>
       </c>
       <c r="K31" t="n">
-        <v>0.03138123052214707</v>
+        <v>0.03186</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1124067510106532</v>
+        <v>0.00242</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1158525753780183</v>
+        <v>0.00213</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.555833820980205</v>
+        <v>0.90854</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03049363868540884</v>
+        <v>0.93527</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.42752</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002719069953821871</v>
+        <v>0.00101</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.00088</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05972609354090429</v>
+        <v>0.00069</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.00078</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2515731014477295</v>
+        <v>0.00096</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1297435243652792</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0706777080760444</v>
+        <v>0.33014</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2695935053684855</v>
+        <v>0.83379</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2424462304792318</v>
+        <v>0.00047</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2198362798400255</v>
+        <v>0.00564</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.02158157855192418</v>
+        <v>0.95265</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1675475385471799</v>
+        <v>0.93284</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196184105074354</v>
+        <v>0.42795</v>
       </c>
       <c r="D33" t="n">
-        <v>0.188895461360255</v>
+        <v>0.0014</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01898604834951624</v>
+        <v>0.00167</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03016087955184759</v>
+        <v>0.00161</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02555245891012056</v>
+        <v>0.00053</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1615179790395825</v>
+        <v>0.00161</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01262779841538688</v>
+        <v>0.00016</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.57416</v>
       </c>
       <c r="K33" t="n">
-        <v>0.07025966041175614</v>
+        <v>0.44057</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.00304</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1938628629366789</v>
+        <v>0.00491</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.08272939463184964</v>
+        <v>0.98641</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3781714937541241</v>
+        <v>0.99295</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1335094744059667</v>
+        <v>0.21285</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1172564001863947</v>
+        <v>0.00177</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.00149</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07021835565005319</v>
+        <v>0.0005</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05967487879951484</v>
+        <v>0.00198</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1035783110538784</v>
+        <v>0.00156</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.00155</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05338429035993836</v>
+        <v>0.7910700000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003818773724951459</v>
+        <v>0.48156</v>
       </c>
       <c r="L34" t="n">
-        <v>0.159679654634328</v>
+        <v>1e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.00191</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1080970044912427</v>
+        <v>0.99686</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09034579806276055</v>
+        <v>0.9252899999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.00061</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07346099895802576</v>
+        <v>0.0005</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009935883112544064</v>
+        <v>0.00116</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02084855184309082</v>
+        <v>0.00069</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1303906148993176</v>
+        <v>0.00041</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.00128</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01550550885186686</v>
+        <v>0.00186</v>
       </c>
       <c r="J35" t="n">
-        <v>0.06072721758003544</v>
+        <v>0.93083</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2854966853728322</v>
+        <v>0.40238</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05444301939648913</v>
+        <v>0.00573</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1612000654027351</v>
+        <v>0.98645</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02823126957623197</v>
+        <v>0.94017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1327444505829379</v>
+        <v>0.41902</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02783678168075042</v>
+        <v>0.00195</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002232517936362388</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.008828432245722963</v>
+        <v>0.00139</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03962397020409832</v>
+        <v>0.00055</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0211036995861071</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2556820106081697</v>
+        <v>0.00017</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2765694298584314</v>
+        <v>0.79315</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1215799994259209</v>
+        <v>0.39787</v>
       </c>
       <c r="L36" t="n">
-        <v>0.130249524726314</v>
+        <v>0.00445</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3047512024279702</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.009669277563505455</v>
+        <v>0.97595</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3998075111651641</v>
+        <v>0.94173</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1045508043049958</v>
+        <v>0.20402</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3349063989462483</v>
+        <v>0.00124</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05858101372379285</v>
+        <v>0.00103</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09582869166636586</v>
+        <v>0.00183</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1471934582644209</v>
+        <v>0.00154</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.00164</v>
       </c>
       <c r="I37" t="n">
-        <v>0.121168795616243</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04470696609996949</v>
+        <v>0.03082</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3352976836519922</v>
+        <v>0.60817</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3090842888257599</v>
+        <v>0.00362</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2387281764568741</v>
+        <v>0.90666</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2898930959340172</v>
+        <v>0.94542</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1563129110905506</v>
+        <v>0.3159</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1033213874807861</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0005061054877172604</v>
+        <v>0.00035</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08837607629790567</v>
+        <v>0.00018</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2734322115723691</v>
+        <v>0.00176</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09348645011024202</v>
+        <v>0.00108</v>
       </c>
       <c r="I38" t="n">
-        <v>0.007928874628872129</v>
+        <v>0.00196</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.16073</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06264453952696084</v>
+        <v>0.61273</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0196600126481144</v>
+        <v>0.00554</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3368556024986411</v>
+        <v>0.00382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1652641953249014</v>
+        <v>0.90887</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09765711278155544</v>
+        <v>0.98839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.235222078154667</v>
+        <v>0.25135</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05853024228065359</v>
+        <v>0.00179</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03112104565005593</v>
+        <v>0.00149</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1248164134946945</v>
+        <v>0.00136</v>
       </c>
       <c r="G39" t="n">
-        <v>0.009934598423368005</v>
+        <v>0.00099</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1081071217401803</v>
+        <v>0.00143</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06679589387227959</v>
+        <v>0.00127</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3356393974658086</v>
+        <v>0.23962</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1796994973331729</v>
+        <v>0.49742</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04935241332346239</v>
+        <v>0.00353</v>
       </c>
       <c r="M39" t="n">
-        <v>0.03781550276116031</v>
+        <v>0.00159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.03891405028194957</v>
+        <v>0.95005</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.92813</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04010697449223329</v>
+        <v>0.4852</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0765685271519196</v>
+        <v>0.00028</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2095019924625071</v>
+        <v>0.00086</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03841133818282183</v>
+        <v>0.00146</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4486517871335782</v>
+        <v>0.0011</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05235548806908702</v>
+        <v>0.00167</v>
       </c>
       <c r="I40" t="n">
-        <v>0.158789056258427</v>
+        <v>0.00119</v>
       </c>
       <c r="J40" t="n">
-        <v>0.07201064300090222</v>
+        <v>0.33276</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0198686768275099</v>
+        <v>0.18954</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2060717782812199</v>
+        <v>0.00014</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2058097155638414</v>
+        <v>0.0009700000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1957357274581967</v>
+        <v>0.94347</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2212121088375749</v>
+        <v>0.96345</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02381206028748449</v>
+        <v>0.11745</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04884610970379648</v>
+        <v>0.00081</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150478305884752</v>
+        <v>0.0009</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.00159</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08632981306084483</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03647600537473301</v>
+        <v>0.00061</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08147296514220853</v>
+        <v>0.0013</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1020222537209954</v>
+        <v>0.45127</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09418505183360559</v>
+        <v>0.30688</v>
       </c>
       <c r="L41" t="n">
-        <v>0.007792899790836681</v>
+        <v>0.00511</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1784762168381864</v>
+        <v>0.00285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>0.94182</v>
       </c>
       <c r="B42" t="n">
-        <v>0.081303486126705</v>
+        <v>0.96751</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06095372204300006</v>
+        <v>0.16126</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01867983956391986</v>
+        <v>0.0007</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5346201201900572</v>
+        <v>0.00053</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.00077</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08943299336197424</v>
+        <v>0.0019</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1078791437780185</v>
+        <v>0.00158</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2614856160675798</v>
+        <v>0.20717</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1329019085028162</v>
+        <v>0.90341</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5595891217183349</v>
+        <v>0.00229</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05403233389406656</v>
+        <v>0.00472</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1114963965067769</v>
+        <v>0.98822</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07575046224333805</v>
+        <v>0.9907</v>
       </c>
       <c r="C43" t="n">
-        <v>0.172701947265218</v>
+        <v>0.31567</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05453236678538401</v>
+        <v>0.00031</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1291372104572056</v>
+        <v>0.00168</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03586961284551091</v>
+        <v>0.00069</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1373086720039513</v>
+        <v>0.00079</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4586028119427426</v>
+        <v>0.002</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1062771738688119</v>
+        <v>0.00077</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4439346989682257</v>
+        <v>0.39391</v>
       </c>
       <c r="K43" t="n">
-        <v>0.06936275089233931</v>
+        <v>0.83077</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3341661347417623</v>
+        <v>0.00328</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1154550444610966</v>
+        <v>0.00384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>0.97778</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09119061051878384</v>
+        <v>0.95482</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.1645</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02787246802485359</v>
+        <v>0.00151</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1873199902991782</v>
+        <v>0.00146</v>
       </c>
       <c r="F44" t="n">
-        <v>0.003482181897470406</v>
+        <v>0.00151</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1970435402776835</v>
+        <v>0.0016</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0160696612306764</v>
+        <v>0.00028</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1375699638790625</v>
+        <v>0.0011</v>
       </c>
       <c r="J44" t="n">
-        <v>0.03506711297641856</v>
+        <v>0.29947</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04260449206420653</v>
+        <v>0.89078</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05523174890535294</v>
+        <v>0.00168</v>
       </c>
       <c r="M44" t="n">
-        <v>0.249640497719644</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.03598050942374527</v>
+        <v>0.9402700000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1753049306688557</v>
+        <v>0.92504</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02973501449950697</v>
+        <v>0.48159</v>
       </c>
       <c r="D45" t="n">
-        <v>0.120950071273534</v>
+        <v>0.00088</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05355087480692032</v>
+        <v>0.0001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3103842588597476</v>
+        <v>0.00158</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08872922336677382</v>
+        <v>0.00151</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3253819543569587</v>
+        <v>0.00088</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.98076</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1158297737709352</v>
+        <v>0.53486</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1461217783131872</v>
+        <v>0.00283</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05187657940470528</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05808904611352438</v>
+        <v>0.9947</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.93991</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1420780500665768</v>
+        <v>0.29637</v>
       </c>
       <c r="D46" t="n">
-        <v>9.286560547287099e-06</v>
+        <v>0.00114</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02569777552199578</v>
+        <v>0.00159</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1652284742984776</v>
+        <v>0.00073</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1461273383226711</v>
+        <v>0.00123</v>
       </c>
       <c r="H46" t="n">
-        <v>0.001895622546504658</v>
+        <v>0.00122</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1971799528474568</v>
+        <v>0.00072</v>
       </c>
       <c r="J46" t="n">
-        <v>0.07369788724221162</v>
+        <v>0.90802</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1910050838858816</v>
+        <v>0.15095</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1161173729313314</v>
+        <v>0.00445</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.00538</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.06451607157996005</v>
+        <v>0.94534</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02282257139769691</v>
+        <v>0.91433</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06737790151695176</v>
+        <v>0.18926</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02065563780689995</v>
+        <v>0.00186</v>
       </c>
       <c r="E47" t="n">
-        <v>3.981833976410985e-05</v>
+        <v>0.00012</v>
       </c>
       <c r="F47" t="n">
-        <v>0.007519064837109266</v>
+        <v>0.00153</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04814229364507711</v>
+        <v>0.00177</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0005778206486673296</v>
+        <v>0.00146</v>
       </c>
       <c r="I47" t="n">
-        <v>0.004660454341034297</v>
+        <v>0.00078</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3149617138052122</v>
+        <v>0.5051</v>
       </c>
       <c r="K47" t="n">
-        <v>0.07831061114058846</v>
+        <v>0.12073</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5573236138160598</v>
+        <v>0.0038</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.00275</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3282574430977135</v>
+        <v>0.9587599999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03351942978137964</v>
+        <v>0.94624</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03115513280752299</v>
+        <v>0.3004</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3304580989775253</v>
+        <v>0.00159</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01589807035068818</v>
+        <v>0.00131</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1989733364851402</v>
+        <v>0.00199</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0785809927743871</v>
+        <v>0.00116</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3381012293807953</v>
+        <v>0.00159</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04842937565818459</v>
+        <v>0.00117</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.51645</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1565294896411777</v>
+        <v>0.35272</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3380150661747294</v>
+        <v>0.00186</v>
       </c>
       <c r="M48" t="n">
-        <v>0.307605053998743</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1117053798733158</v>
+        <v>0.93926</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05461676591254841</v>
+        <v>0.95133</v>
       </c>
       <c r="C49" t="n">
-        <v>0.15979734250813</v>
+        <v>0.13588</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1234358472622947</v>
+        <v>0.00074</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08244422217469131</v>
+        <v>0.00077</v>
       </c>
       <c r="F49" t="n">
-        <v>0.08899666392768302</v>
+        <v>0.00032</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.00045</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1049512184511749</v>
+        <v>0.00096</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.00174</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03011014105479118</v>
+        <v>0.60951</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.59322</v>
       </c>
       <c r="L49" t="n">
-        <v>0.003435351414028809</v>
+        <v>0.00256</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05438009433211982</v>
+        <v>0.00527</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05060045286099717</v>
+        <v>0.90095</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.99879</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2663712802702266</v>
+        <v>0.225</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2353303364650713</v>
+        <v>0.095</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1332659229372342</v>
+        <v>0.005</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.00176</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2696451822234076</v>
+        <v>0.0016</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2652804746517119</v>
+        <v>0.78555</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02767363416542715</v>
+        <v>0.18962</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1404536866832709</v>
+        <v>0.0044</v>
       </c>
       <c r="M50" t="n">
-        <v>0.005397664585184632</v>
+        <v>0.00376</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.04413133784835258</v>
+        <v>0.93232</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01168921431434025</v>
+        <v>0.92523</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2092363934967045</v>
+        <v>0.13</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2251883898576647</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3663846307010566</v>
+        <v>0.05</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1378939285530654</v>
+        <v>0.2</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01331792007487104</v>
+        <v>0.12</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0575547744556183</v>
+        <v>0.00167</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.00193</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3739956628329537</v>
+        <v>0.52568</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2254264886241495</v>
+        <v>0.14515</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3549037076479882</v>
+        <v>0.00392</v>
       </c>
       <c r="M51" t="n">
-        <v>0.03018678158141696</v>
+        <v>0.00444</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1040008412460382</v>
+        <v>0.94797</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.98663</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1215828292468117</v>
+        <v>0.03</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00150231538219372</v>
+        <v>0.16</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4827798758591129</v>
+        <v>0.09</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0549222975796779</v>
+        <v>0.205</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0758171043630769</v>
+        <v>0.015</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03659716006551561</v>
+        <v>0.00161</v>
       </c>
       <c r="I52" t="n">
-        <v>0.04574283603871888</v>
+        <v>0.00104</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07602367764704247</v>
+        <v>0.0708</v>
       </c>
       <c r="K52" t="n">
-        <v>0.00172138535439096</v>
+        <v>0.59868</v>
       </c>
       <c r="L52" t="n">
-        <v>0.03644450036721231</v>
+        <v>0.00488</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2182467054557181</v>
+        <v>0.00258</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.209874855219155</v>
+        <v>0.9715200000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1225103083385518</v>
+        <v>0.9407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3720930032791892</v>
+        <v>0.015</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1845752233755369</v>
+        <v>0.09</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05216667077002098</v>
+        <v>0.05</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2201238699907577</v>
+        <v>0.31</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04828372346678187</v>
+        <v>0.00022</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.00044</v>
       </c>
       <c r="J53" t="n">
-        <v>0.08050511883277639</v>
+        <v>0.01805</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4559735907714512</v>
+        <v>0.26357</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1803188752245915</v>
+        <v>0.00065</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1520835725080192</v>
+        <v>0.00178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.08609404496288714</v>
+        <v>0.98725</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02746028466943036</v>
+        <v>0.97976</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09779036979462361</v>
+        <v>0.05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03529848119078972</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1477877154920628</v>
+        <v>0.295</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00147138279969623</v>
+        <v>0.005</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1409589470147924</v>
+        <v>0.00187</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.00118</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01069964426537957</v>
+        <v>0.08482000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>0.3462486278341862</v>
+        <v>0.87179</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1423102443986862</v>
+        <v>0.0021</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1862309423883018</v>
+        <v>0.00184</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3580276315313005</v>
+        <v>0.90293</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1219441522345211</v>
+        <v>0.94568</v>
       </c>
       <c r="C55" t="n">
-        <v>0.05084688224373772</v>
+        <v>0.025</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1899537412010048</v>
+        <v>0.255</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2372225241565913</v>
+        <v>0.045</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02115225705287539</v>
+        <v>0.17</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4371331082423413</v>
+        <v>0.005</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01495001002980922</v>
+        <v>0.00145</v>
       </c>
       <c r="I55" t="n">
-        <v>0.07771994427454394</v>
+        <v>0.00036</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>0.08333</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1992304099893245</v>
+        <v>0.63096</v>
       </c>
       <c r="L55" t="n">
-        <v>0.1127230495527412</v>
+        <v>0.0051</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1081701311851274</v>
+        <v>0.00076</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>0.9033600000000001</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1732700233662292</v>
+        <v>0.97527</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1344826542422309</v>
+        <v>0.14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08456830043621745</v>
+        <v>0.04</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03580419328543382</v>
+        <v>0.14</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06756509988312033</v>
+        <v>0.155</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08287084248703067</v>
+        <v>0.025</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1473870086919307</v>
+        <v>0.00072</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2969831203254998</v>
+        <v>0.00059</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03892698843887408</v>
+        <v>0.0936</v>
       </c>
       <c r="K56" t="n">
-        <v>0.05461294857670576</v>
+        <v>0.60156</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0313698095380105</v>
+        <v>0.00479</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2530447909588223</v>
+        <v>0.00299</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.01439600006050504</v>
+        <v>0.98756</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1448388795708974</v>
+        <v>0.9494</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2322449785378714</v>
+        <v>0.13</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2610806392796351</v>
+        <v>0.16</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1139472345148319</v>
+        <v>0.015</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1431680772141902</v>
+        <v>0.045</v>
       </c>
       <c r="H57" t="n">
-        <v>0.004796139385570291</v>
+        <v>0.00193</v>
       </c>
       <c r="I57" t="n">
-        <v>0.04649940374663356</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.02459</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1500871497041308</v>
+        <v>0.33715</v>
       </c>
       <c r="L57" t="n">
-        <v>0.009145690948096745</v>
+        <v>0.00476</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0003226769978542586</v>
+        <v>0.00464</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1423952154793096</v>
+        <v>0.98403</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.91085</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1412298021502632</v>
+        <v>0.015</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1303631046837283</v>
+        <v>0.285</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01215163840196746</v>
+        <v>0.14</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2014686359445435</v>
+        <v>0.01</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00536065546592613</v>
+        <v>0.00034</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03219375437783432</v>
+        <v>0.00082</v>
       </c>
       <c r="J58" t="n">
-        <v>0.10542999615742</v>
+        <v>0.37797</v>
       </c>
       <c r="K58" t="n">
-        <v>0.270703629626409</v>
+        <v>0.55166</v>
       </c>
       <c r="L58" t="n">
-        <v>0.07127306663369803</v>
+        <v>0.00118</v>
       </c>
       <c r="M58" t="n">
-        <v>0.07978275625479818</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.05043367630851796</v>
+        <v>0.92818</v>
       </c>
       <c r="B59" t="n">
-        <v>0.009884128042311162</v>
+        <v>0.9690299999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03050737047507093</v>
+        <v>0.03</v>
       </c>
       <c r="D59" t="n">
-        <v>0.008583512962068931</v>
+        <v>0.395</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1801008238980165</v>
+        <v>0.005</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2493515906737747</v>
+        <v>0.005</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2167780011964668</v>
+        <v>0.065</v>
       </c>
       <c r="H59" t="n">
-        <v>0.003245647693813851</v>
+        <v>0.00122</v>
       </c>
       <c r="I59" t="n">
-        <v>0.004427645303747118</v>
+        <v>0.00052</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1364132904942197</v>
+        <v>0.56817</v>
       </c>
       <c r="K59" t="n">
-        <v>0.074754122314107</v>
+        <v>0.16104</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2605668681010543</v>
+        <v>0.00164</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01051424217427227</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.2723966566595046</v>
+        <v>0.9174600000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05272302310171256</v>
+        <v>0.99116</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1222338177056153</v>
+        <v>0.035</v>
       </c>
       <c r="D60" t="n">
-        <v>0.007221871686258459</v>
+        <v>0.17</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02791439143299982</v>
+        <v>0.095</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2443142602546903</v>
+        <v>0.185</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05587339810214635</v>
+        <v>0.015</v>
       </c>
       <c r="H60" t="n">
-        <v>0.05724491214318993</v>
+        <v>0.0017</v>
       </c>
       <c r="I60" t="n">
-        <v>0.003926081544577088</v>
+        <v>0.0001</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1412822906161587</v>
+        <v>0.15568</v>
       </c>
       <c r="K60" t="n">
-        <v>0.05995823602127698</v>
+        <v>0.40365</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3999851180744279</v>
+        <v>0.00185</v>
       </c>
       <c r="M60" t="n">
-        <v>0.06923471199646092</v>
+        <v>0.00236</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4271218147858825</v>
+        <v>0.97657</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01901548551256212</v>
+        <v>0.95521</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0143906548524592</v>
+        <v>0.015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0100089788468171</v>
+        <v>0.14</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3501424391513119</v>
+        <v>0.11</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05067426075155967</v>
+        <v>0.21</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1264581729289658</v>
+        <v>0.00015</v>
       </c>
       <c r="I61" t="n">
-        <v>0.103324024139129</v>
+        <v>0.00098</v>
       </c>
       <c r="J61" t="n">
-        <v>0.08462924661560077</v>
+        <v>0.19187</v>
       </c>
       <c r="K61" t="n">
-        <v>0.08414633608105392</v>
+        <v>0.01384</v>
       </c>
       <c r="L61" t="n">
-        <v>0.08381937181557197</v>
+        <v>0.00159</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2071684261708791</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4879925592543944</v>
+        <v>0.93506</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1592712173912749</v>
+        <v>0.9365</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04608479380973188</v>
+        <v>0.48438</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1588006368352494</v>
+        <v>0.00055</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03606469281569741</v>
+        <v>0.0001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0243813980981343</v>
+        <v>0.00088</v>
       </c>
       <c r="G62" t="n">
-        <v>0.182325023726255</v>
+        <v>0.00011</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08614839316565501</v>
+        <v>0.00191</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.00152</v>
       </c>
       <c r="J62" t="n">
-        <v>0.009541813428592175</v>
+        <v>0.76762</v>
       </c>
       <c r="K62" t="n">
-        <v>0.05561049594032097</v>
+        <v>0.888</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3023977974665416</v>
+        <v>0.00103</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1727491472591297</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.08484642957940949</v>
+        <v>0.90144</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2026672343435307</v>
+        <v>0.99587</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02076190874632912</v>
+        <v>0.05328</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001106370072511599</v>
+        <v>0.00134</v>
       </c>
       <c r="E63" t="n">
-        <v>0.271484800065496</v>
+        <v>0.001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1658793221356029</v>
+        <v>0.0016</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0.005558391126463438</v>
+        <v>0.00091</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.00109</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3488780327499311</v>
+        <v>0.22809</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1565018572802183</v>
+        <v>0.09508</v>
       </c>
       <c r="L63" t="n">
-        <v>0.243654990413989</v>
+        <v>0.00218</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2180961497430147</v>
+        <v>0.00146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4264663812051295</v>
+        <v>0.93765</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0009504456028500182</v>
+        <v>0.90146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1113676258147725</v>
+        <v>0.09132999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2134149767157259</v>
+        <v>0.00099</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05321157445738448</v>
+        <v>0.00083</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04492204850697223</v>
+        <v>0.00027</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="H64" t="n">
-        <v>0.06662793062987259</v>
+        <v>0.00096</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4373188314219763</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01047432857335067</v>
+        <v>0.11372</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1454852363044888</v>
+        <v>0.80747</v>
       </c>
       <c r="L64" t="n">
-        <v>0.007656199973222607</v>
+        <v>0.00348</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0620849848515907</v>
+        <v>0.00192</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4863404247896954</v>
+        <v>0.90151</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07134778065009845</v>
+        <v>0.97454</v>
       </c>
       <c r="C65" t="n">
-        <v>0.09711335175255104</v>
+        <v>0.40877</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09464745620532627</v>
+        <v>0.00178</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.00046</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3770511345164112</v>
+        <v>0.00123</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06283358328410885</v>
+        <v>0.00083</v>
       </c>
       <c r="I65" t="n">
-        <v>0.003670816572799258</v>
+        <v>0.00045</v>
       </c>
       <c r="J65" t="n">
-        <v>0.07617356480023268</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>0.207966893760459</v>
+        <v>0.42332</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1937099065686288</v>
+        <v>0.0012</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01786863582461948</v>
+        <v>0.00297</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.07974173500359312</v>
+        <v>0.9545</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07089002153430168</v>
+        <v>0.91035</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005148338513435637</v>
+        <v>0.43887</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03417270522371771</v>
+        <v>0.00086</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3582924835966401</v>
+        <v>0.00111</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05650212312087613</v>
+        <v>0.00019</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1558391552429615</v>
+        <v>0.00171</v>
       </c>
       <c r="H66" t="n">
-        <v>0.004412077760358293</v>
+        <v>0.00082</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.00165</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2118957533435461</v>
+        <v>0.14258</v>
       </c>
       <c r="K66" t="n">
-        <v>0.02325256400368664</v>
+        <v>0.27579</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03388018367086743</v>
+        <v>0.00277</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3968604012302873</v>
+        <v>0.00146</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>0.98271</v>
       </c>
       <c r="B67" t="n">
-        <v>0.001417570071620059</v>
+        <v>0.9924500000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09497351023258327</v>
+        <v>0.31024</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01916734260205715</v>
+        <v>0.00068</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1779218457831832</v>
+        <v>0.00175</v>
       </c>
       <c r="F67" t="n">
-        <v>0.119844678337621</v>
+        <v>0.00172</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0174575392674848</v>
+        <v>0.00146</v>
       </c>
       <c r="H67" t="n">
-        <v>0.317670981359684</v>
+        <v>0.00164</v>
       </c>
       <c r="I67" t="n">
-        <v>0.06364589928944699</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="J67" t="n">
-        <v>0.4164227235118456</v>
+        <v>0.10256</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>0.6907</v>
       </c>
       <c r="L67" t="n">
-        <v>0.3938260482077537</v>
+        <v>0.00053</v>
       </c>
       <c r="M67" t="n">
-        <v>0.162395274950018</v>
+        <v>0.00153</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2763761850374735</v>
+        <v>0.98291</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03497812870154483</v>
+        <v>0.93155</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.10125</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.00092</v>
       </c>
       <c r="E68" t="n">
-        <v>0.04872588750561708</v>
+        <v>0.00163</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09006410025388245</v>
+        <v>0.00033</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07123770770021769</v>
+        <v>0.0012</v>
       </c>
       <c r="H68" t="n">
-        <v>0.003027861104794961</v>
+        <v>0.00113</v>
       </c>
       <c r="I68" t="n">
-        <v>0.007332307089017933</v>
+        <v>0.00105</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.03588</v>
       </c>
       <c r="K68" t="n">
-        <v>0.02837815379488989</v>
+        <v>0.72337</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1885751020587127</v>
+        <v>0.00329</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03667284776328661</v>
+        <v>0.00363</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.03473399172261717</v>
+        <v>0.95012</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4144998956471235</v>
+        <v>0.9313900000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1073609229667066</v>
+        <v>0.48492</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3014264926832834</v>
+        <v>0.00122</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1322081895338705</v>
+        <v>0.00146</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1117134698366494</v>
+        <v>0.0005</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08449200655589743</v>
+        <v>0.00082</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02419619022573637</v>
+        <v>0.00095</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.00184</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>0.48393</v>
       </c>
       <c r="K69" t="n">
-        <v>0.08476280943271697</v>
+        <v>0.19092</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02513691431904613</v>
+        <v>0.00525</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03393004279690383</v>
+        <v>0.00373</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5237436262565249</v>
+        <v>0.93023</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06669478303429019</v>
+        <v>0.91486</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.30168</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3398603607016356</v>
+        <v>0.00057</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3044743921847958</v>
+        <v>0.00173</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07440905929143718</v>
+        <v>0.00152</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08458205983787245</v>
+        <v>0.00188</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1547832142224879</v>
+        <v>0.00073</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2175566592340319</v>
+        <v>0.00037</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4223401494061102</v>
+        <v>0.58938</v>
       </c>
       <c r="K70" t="n">
-        <v>0.08529491147157216</v>
+        <v>0.54705</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1768490801658659</v>
+        <v>3e-05</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.00421</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4613185062006786</v>
+        <v>0.9003100000000001</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05722045389774189</v>
+        <v>0.99951</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3203570373100377</v>
+        <v>0.09803000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1092254362919358</v>
+        <v>0.00102</v>
       </c>
       <c r="E71" t="n">
-        <v>0.381936636379329</v>
+        <v>0.00016</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1575238171451001</v>
+        <v>0.00137</v>
       </c>
       <c r="G71" t="n">
-        <v>0.04877765850954931</v>
+        <v>0.00052</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.00187</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0605834392116394</v>
+        <v>0.00104</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02021126840475237</v>
+        <v>0.1212</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1265266002669798</v>
+        <v>0.42688</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2832131050884029</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.91952</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1855634531741649</v>
+        <v>0.9422199999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4298259893838882</v>
+        <v>0.42478</v>
       </c>
       <c r="D72" t="n">
-        <v>0.002952752628124024</v>
+        <v>0.00188</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04203963442771693</v>
+        <v>0.00154</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>0.08015551030336004</v>
+        <v>0.00153</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03815200245264165</v>
+        <v>0.00033</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3115658669418734</v>
+        <v>0.00067</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>0.06414</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5268020576756373</v>
+        <v>0.12708</v>
       </c>
       <c r="L72" t="n">
-        <v>0.1878405022142208</v>
+        <v>0.00403</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04910118713615907</v>
+        <v>0.00128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2445599034936496</v>
+        <v>0.92687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1576119131807895</v>
+        <v>0.95977</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1617393238674843</v>
+        <v>0.33514</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06344106946016871</v>
+        <v>0.00068</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3527086792961265</v>
+        <v>0.00143</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1052711921243286</v>
+        <v>0.00044</v>
       </c>
       <c r="G73" t="n">
-        <v>0.09370697694343055</v>
+        <v>0.00171</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1442760891212881</v>
+        <v>0.00184</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1025651801531432</v>
+        <v>0.00075</v>
       </c>
       <c r="J73" t="n">
-        <v>0.06829420079452174</v>
+        <v>0.34312</v>
       </c>
       <c r="K73" t="n">
-        <v>0.05139072994639411</v>
+        <v>0.9696</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01159203518472455</v>
+        <v>0.00597</v>
       </c>
       <c r="M73" t="n">
-        <v>0.1068519889720462</v>
+        <v>0.00078</v>
       </c>
     </row>
   </sheetData>
@@ -8348,43 +8348,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1111.66764196041</v>
+        <v>1993.72</v>
       </c>
       <c r="B2" t="n">
-        <v>231.5805205279545</v>
+        <v>459.7746</v>
       </c>
       <c r="C2" t="n">
-        <v>19811.52788732462</v>
+        <v>4910.5</v>
       </c>
       <c r="D2" t="n">
-        <v>709.8686327661324</v>
+        <v>2370</v>
       </c>
       <c r="E2" t="n">
-        <v>2405.790540855257</v>
+        <v>960</v>
       </c>
       <c r="F2" t="n">
-        <v>933.844853455368</v>
+        <v>465</v>
       </c>
       <c r="G2" t="n">
-        <v>242.2180346800718</v>
+        <v>780</v>
       </c>
       <c r="H2" t="n">
-        <v>2293.014059713713</v>
+        <v>517.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4063.84200132862</v>
+        <v>2040</v>
       </c>
       <c r="J2" t="n">
-        <v>9935.775762897214</v>
+        <v>3333.333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>44460.18622430506</v>
+        <v>14650.35811976978</v>
       </c>
       <c r="L2" t="n">
-        <v>46752.8485755336</v>
+        <v>57387.57209627789</v>
       </c>
       <c r="M2" t="n">
-        <v>11035.00755355798</v>
+        <v>666.6666666666666</v>
       </c>
     </row>
   </sheetData>
